--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOS\XLS data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD17AA4-429C-4AF9-8CCF-588223F3252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F160A-2F16-4077-9B48-6A284F1A15FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C04F3656-6872-4AAE-94DF-BF61196F368D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C04F3656-6872-4AAE-94DF-BF61196F368D}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="257">
   <si>
     <t>LokOS_2.0.31.apk</t>
   </si>
@@ -1057,15 +1057,6 @@
     <t>821 Re-Type Account Number</t>
   </si>
   <si>
-    <t>051, 027 Update</t>
-  </si>
-  <si>
-    <t>New SHG</t>
-  </si>
-  <si>
-    <t>Aaryama Three SHG</t>
-  </si>
-  <si>
     <t>25_01_2016</t>
   </si>
   <si>
@@ -1127,6 +1118,9 @@
   </si>
   <si>
     <t>02_01_2022</t>
+  </si>
+  <si>
+    <t>New Members</t>
   </si>
 </sst>
 </file>
@@ -1798,13 +1792,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A03593-CEAC-4FD9-A038-F5EE25925CE3}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1998,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>147</v>
@@ -2016,43 +2011,43 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>148</v>
       </c>
       <c r="L2" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="P2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="U2" s="1">
         <v>15</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Z2" s="1">
         <v>300</v>
@@ -2067,31 +2062,31 @@
         <v>10</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>150</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="AJ2" s="1">
         <v>14</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>151</v>
@@ -2106,16 +2101,16 @@
         <v>153</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>155</v>
@@ -2127,7 +2122,7 @@
         <v>148</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>149</v>
@@ -2136,7 +2131,7 @@
         <v>156</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>149</v>
@@ -2145,7 +2140,7 @@
         <v>157</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>158</v>
@@ -2161,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCD4E0-07FC-46A0-AF8C-3F93CADE071E}">
   <dimension ref="A1:BH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,7 +2356,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>148</v>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F160A-2F16-4077-9B48-6A284F1A15FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1A0DC6-11C2-4886-A9CE-4EF19714DA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C04F3656-6872-4AAE-94DF-BF61196F368D}"/>
   </bookViews>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="270">
   <si>
     <t>LokOS_2.0.31.apk</t>
   </si>
@@ -1121,6 +1121,45 @@
   </si>
   <si>
     <t>New Members</t>
+  </si>
+  <si>
+    <t>Aaryaman Two</t>
+  </si>
+  <si>
+    <t>Aaryaman  Bannerji</t>
+  </si>
+  <si>
+    <t>Update SHG</t>
+  </si>
+  <si>
+    <t>New SHG</t>
+  </si>
+  <si>
+    <t>Aaryaman Three SHG</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>051,023 Update</t>
+  </si>
+  <si>
+    <t>#40256541498</t>
+  </si>
+  <si>
+    <t>Aaryaman One SHG</t>
+  </si>
+  <si>
+    <t>Update MemberApprove SHG</t>
+  </si>
+  <si>
+    <t>5,20 Update</t>
+  </si>
+  <si>
+    <t>#40256541480</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1374,11 +1413,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1790,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A03593-CEAC-4FD9-A038-F5EE25925CE3}">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,188 +1840,188 @@
     <col min="4" max="4" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="27" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:61" s="25" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AG1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AH1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AI1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AK1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AL1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AM1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AN1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="25" t="s">
+      <c r="AO1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="25" t="s">
+      <c r="AP1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="25" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="25" t="s">
+      <c r="AR1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="25" t="s">
+      <c r="AS1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="25" t="s">
+      <c r="AT1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" s="25" t="s">
+      <c r="AU1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AV1" s="25" t="s">
+      <c r="AV1" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="AW1" s="25" t="s">
+      <c r="AW1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="25" t="s">
+      <c r="AX1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="25" t="s">
+      <c r="AY1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="25" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="25" t="s">
+      <c r="BA1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="25" t="s">
+      <c r="BB1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" s="25" t="s">
+      <c r="BC1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="25" t="s">
+      <c r="BD1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="BE1" s="25" t="s">
+      <c r="BE1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="BF1" s="25" t="s">
+      <c r="BF1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="BG1" s="25" t="s">
+      <c r="BG1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="BH1" s="25" t="s">
+      <c r="BH1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="BI1" s="26" t="s">
+      <c r="BI1" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1992,14 +2029,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>153</v>
+      <c r="D2" t="s">
+        <v>266</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>147</v>
@@ -2007,8 +2044,8 @@
       <c r="F2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>235</v>
@@ -2022,10 +2059,10 @@
       <c r="K2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="27" t="s">
         <v>239</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -2113,37 +2150,519 @@
         <v>254</v>
       </c>
       <c r="AV2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2"/>
+      <c r="AY2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>110050</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2154,19 +2673,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCD4E0-07FC-46A0-AF8C-3F93CADE071E}">
-  <dimension ref="A1:BH7"/>
+  <dimension ref="A1:BQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="13.21875" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="30.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -2348,18 +2867,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:60" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>146</v>
+      <c r="B2" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>161</v>
@@ -2424,7 +2943,7 @@
       <c r="Y2" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="18" t="s">
         <v>149</v>
       </c>
       <c r="AA2" s="16" t="s">
@@ -2436,8 +2955,6 @@
       <c r="AC2" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
         <v>174</v>
       </c>
@@ -2460,7 +2977,7 @@
         <v>110049</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>184</v>
@@ -2480,7 +2997,6 @@
       <c r="AS2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
         <v>149</v>
       </c>
@@ -2490,9 +3006,7 @@
       <c r="AW2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="18" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>189</v>
       </c>
       <c r="BA2" s="1" t="s">
@@ -2501,7 +3015,7 @@
       <c r="BB2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BC2" s="18" t="s">
+      <c r="BC2" s="16" t="s">
         <v>192</v>
       </c>
       <c r="BD2" s="1" t="s">
@@ -2510,25 +3024,25 @@
       <c r="BE2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BF2" s="18" t="s">
         <v>227</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:60" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:69" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>153</v>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>161</v>
@@ -2569,9 +3083,6 @@
       <c r="Q3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
       <c r="V3" s="1" t="s">
         <v>174</v>
       </c>
@@ -2584,7 +3095,7 @@
       <c r="Y3" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="18" t="s">
         <v>149</v>
       </c>
       <c r="AA3" s="16" t="s">
@@ -2596,8 +3107,6 @@
       <c r="AC3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
         <v>174</v>
       </c>
@@ -2620,7 +3129,7 @@
         <v>110050</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>199</v>
@@ -2649,7 +3158,7 @@
       <c r="AW3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AZ3" s="18" t="s">
+      <c r="AZ3" s="16" t="s">
         <v>189</v>
       </c>
       <c r="BA3" s="1" t="s">
@@ -2658,7 +3167,7 @@
       <c r="BB3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BC3" s="18" t="s">
+      <c r="BC3" s="16" t="s">
         <v>192</v>
       </c>
       <c r="BD3" s="1" t="s">
@@ -2667,25 +3176,25 @@
       <c r="BE3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BF3" s="20" t="s">
+      <c r="BF3" s="18" t="s">
         <v>227</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:60" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:69" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>153</v>
+      <c r="B4" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>161</v>
@@ -2750,7 +3259,7 @@
       <c r="Y4" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="18" t="s">
         <v>149</v>
       </c>
       <c r="AA4" s="16" t="s">
@@ -2762,8 +3271,6 @@
       <c r="AC4" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
         <v>174</v>
       </c>
@@ -2786,7 +3293,7 @@
         <v>110051</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>206</v>
@@ -2815,7 +3322,7 @@
       <c r="AW4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AZ4" s="18" t="s">
+      <c r="AZ4" s="16" t="s">
         <v>189</v>
       </c>
       <c r="BA4" s="1" t="s">
@@ -2824,7 +3331,7 @@
       <c r="BB4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BC4" s="18" t="s">
+      <c r="BC4" s="16" t="s">
         <v>192</v>
       </c>
       <c r="BD4" s="1" t="s">
@@ -2833,19 +3340,19 @@
       <c r="BE4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BF4" s="20" t="s">
+      <c r="BF4" s="18" t="s">
         <v>227</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:60" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:69" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>153</v>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>160</v>
@@ -2892,9 +3399,6 @@
       <c r="Q5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
       <c r="V5" s="1" t="s">
         <v>174</v>
       </c>
@@ -2907,7 +3411,7 @@
       <c r="Y5" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="18" t="s">
         <v>158</v>
       </c>
       <c r="AA5" s="16" t="s">
@@ -2919,8 +3423,6 @@
       <c r="AC5" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
       <c r="AF5" s="1" t="s">
         <v>174</v>
       </c>
@@ -2972,7 +3474,7 @@
       <c r="AW5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AZ5" s="18" t="s">
+      <c r="AZ5" s="16" t="s">
         <v>189</v>
       </c>
       <c r="BA5" s="1" t="s">
@@ -2981,7 +3483,7 @@
       <c r="BB5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BC5" s="18" t="s">
+      <c r="BC5" s="16" t="s">
         <v>192</v>
       </c>
       <c r="BD5" s="1" t="s">
@@ -2990,19 +3492,19 @@
       <c r="BE5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BF5" s="20" t="s">
+      <c r="BF5" s="18" t="s">
         <v>227</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:60" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:69" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>153</v>
+      <c r="B6" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>160</v>
@@ -3073,7 +3575,7 @@
       <c r="Y6" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="18" t="s">
         <v>158</v>
       </c>
       <c r="AA6" s="16" t="s">
@@ -3085,8 +3587,6 @@
       <c r="AC6" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
         <v>174</v>
       </c>
@@ -3138,7 +3638,7 @@
       <c r="AW6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AZ6" s="18" t="s">
+      <c r="AZ6" s="16" t="s">
         <v>189</v>
       </c>
       <c r="BA6" s="1" t="s">
@@ -3147,7 +3647,7 @@
       <c r="BB6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BC6" s="18" t="s">
+      <c r="BC6" s="16" t="s">
         <v>192</v>
       </c>
       <c r="BD6" s="1" t="s">
@@ -3156,19 +3656,19 @@
       <c r="BE6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF6" s="20" t="s">
+      <c r="BF6" s="18" t="s">
         <v>227</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:60" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:69" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>153</v>
+      <c r="B7" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>160</v>
@@ -3239,7 +3739,7 @@
       <c r="Y7" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="Z7" s="18" t="s">
         <v>158</v>
       </c>
       <c r="AA7" s="16" t="s">
@@ -3251,8 +3751,6 @@
       <c r="AC7" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
       <c r="AF7" s="1" t="s">
         <v>174</v>
       </c>
@@ -3304,7 +3802,7 @@
       <c r="AW7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AZ7" s="18" t="s">
+      <c r="AZ7" s="16" t="s">
         <v>189</v>
       </c>
       <c r="BA7" s="1" t="s">
@@ -3313,7 +3811,7 @@
       <c r="BB7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BC7" s="18" t="s">
+      <c r="BC7" s="16" t="s">
         <v>192</v>
       </c>
       <c r="BD7" s="1" t="s">
@@ -3322,11 +3820,241 @@
       <c r="BE7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF7" s="20" t="s">
+      <c r="BF7" s="18" t="s">
         <v>227</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="1">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>110051</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO8" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ8" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC8" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AM9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO9" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BF9" s="18"/>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1A0DC6-11C2-4886-A9CE-4EF19714DA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E75F4-385C-469E-897A-5F6CF31E9602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C04F3656-6872-4AAE-94DF-BF61196F368D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{C04F3656-6872-4AAE-94DF-BF61196F368D}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="SHGs" sheetId="6" r:id="rId2"/>
     <sheet name="Members" sheetId="3" r:id="rId3"/>
     <sheet name="Web Login" sheetId="4" r:id="rId4"/>
+    <sheet name="Cutoff Meetings" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -350,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="365">
   <si>
     <t>LokOS_2.0.31.apk</t>
   </si>
@@ -1160,6 +1161,291 @@
   </si>
   <si>
     <t>#40256541480</t>
+  </si>
+  <si>
+    <t>New Meeting Number</t>
+  </si>
+  <si>
+    <t>Meeting Date</t>
+  </si>
+  <si>
+    <t>001 Attendence</t>
+  </si>
+  <si>
+    <t>002 Compulsory Saving</t>
+  </si>
+  <si>
+    <t>003 Voluntary Saving</t>
+  </si>
+  <si>
+    <t>004 Number of Loans</t>
+  </si>
+  <si>
+    <t>005 Amount of Loans</t>
+  </si>
+  <si>
+    <t>006 Fund Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 Disbursed Loan Amount </t>
+  </si>
+  <si>
+    <t>206 Principal Repaid</t>
+  </si>
+  <si>
+    <t>306 Principal Arrears</t>
+  </si>
+  <si>
+    <t>406 Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>506 Interest Paid</t>
+  </si>
+  <si>
+    <t>606 Overdue Interest(if any)</t>
+  </si>
+  <si>
+    <t>706 Total Overdue</t>
+  </si>
+  <si>
+    <t>806 Loan Disbursement Date</t>
+  </si>
+  <si>
+    <t>906 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>1006 Period(Months)</t>
+  </si>
+  <si>
+    <t>1106 Loan Repayment Frequency</t>
+  </si>
+  <si>
+    <t>1206 Purpose</t>
+  </si>
+  <si>
+    <t>007 Fund Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107 Disbursed Loan Amount </t>
+  </si>
+  <si>
+    <t>207 Principal Repaid</t>
+  </si>
+  <si>
+    <t>307 Principal Arrears</t>
+  </si>
+  <si>
+    <t>407 Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>507 Interest Paid</t>
+  </si>
+  <si>
+    <t>607 Overdue Interest(if any)</t>
+  </si>
+  <si>
+    <t>707 Total Overdue</t>
+  </si>
+  <si>
+    <t>807 Loan Disbursement Date</t>
+  </si>
+  <si>
+    <t>907 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>1007 Period(Months)</t>
+  </si>
+  <si>
+    <t>1107 Loan Repayment Frequency</t>
+  </si>
+  <si>
+    <t>1207 Purpose</t>
+  </si>
+  <si>
+    <t>008 Fund Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108 Disbursed Loan Amount </t>
+  </si>
+  <si>
+    <t>208 Principal Repaid</t>
+  </si>
+  <si>
+    <t>308 Principal Arrears</t>
+  </si>
+  <si>
+    <t>408 Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>508 Interest Paid</t>
+  </si>
+  <si>
+    <t>608 Overdue Interest(if any)</t>
+  </si>
+  <si>
+    <t>708 Total Overdue</t>
+  </si>
+  <si>
+    <t>808 Loan Disbursement Date</t>
+  </si>
+  <si>
+    <t>908 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>1008 Period(Months)</t>
+  </si>
+  <si>
+    <t>1108 Loan Repayment Frequency</t>
+  </si>
+  <si>
+    <t>1208 Purpose</t>
+  </si>
+  <si>
+    <t>009 Share Capital</t>
+  </si>
+  <si>
+    <t>010 Membership Fee</t>
+  </si>
+  <si>
+    <t>011 Investment At(Group Investment)</t>
+  </si>
+  <si>
+    <t>111 Type of Saving</t>
+  </si>
+  <si>
+    <t>211 Amount</t>
+  </si>
+  <si>
+    <t>012 Institution(Grp Closed Loan)</t>
+  </si>
+  <si>
+    <t>112 Borrowed From</t>
+  </si>
+  <si>
+    <t>212 Fund Source</t>
+  </si>
+  <si>
+    <t>312 Number of Loans</t>
+  </si>
+  <si>
+    <t>412 Total Amount</t>
+  </si>
+  <si>
+    <t>013 Institution(Grp Active Loan)</t>
+  </si>
+  <si>
+    <t>113 Borrowed From</t>
+  </si>
+  <si>
+    <t>213 Loan Account No.</t>
+  </si>
+  <si>
+    <t>313 Fund Source</t>
+  </si>
+  <si>
+    <t>413 Type of Loan</t>
+  </si>
+  <si>
+    <t>513 Loan Disbursement Date</t>
+  </si>
+  <si>
+    <t>613 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>713 Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>813 Amount Withdrawn</t>
+  </si>
+  <si>
+    <t>913 Original Period(In Months)</t>
+  </si>
+  <si>
+    <t>1013 Total Outstanding Period(in Months)</t>
+  </si>
+  <si>
+    <t>1113 Remaining Period(in Months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1213 Principal Repaid</t>
+  </si>
+  <si>
+    <t>1313 Principal Outstanding(including Arrears)</t>
+  </si>
+  <si>
+    <t>1413 Principal Arrears</t>
+  </si>
+  <si>
+    <t>1513 Interest Arrears</t>
+  </si>
+  <si>
+    <t>1613 Repayment Frequency</t>
+  </si>
+  <si>
+    <t>014 Source(Fund Received)</t>
+  </si>
+  <si>
+    <t>114 Fund Source</t>
+  </si>
+  <si>
+    <t>214 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>314 Total Amount Received</t>
+  </si>
+  <si>
+    <t>015 Cash in Hand(Grp Cash Balance)</t>
+  </si>
+  <si>
+    <t>115 Cash in Transit</t>
+  </si>
+  <si>
+    <t>215 Date of Balance Taken</t>
+  </si>
+  <si>
+    <t>016 Bank Name(Grp Bank Balance)</t>
+  </si>
+  <si>
+    <t>116 Cash in Bank</t>
+  </si>
+  <si>
+    <t>216 Cheque issued but amount not debited</t>
+  </si>
+  <si>
+    <t>316 Cheque received but amount not credited</t>
+  </si>
+  <si>
+    <t>416 Date of Balance taken</t>
+  </si>
+  <si>
+    <t>BALAJI MAHILA SHG</t>
+  </si>
+  <si>
+    <t>22_02_2022</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>04_07_2019</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Share Capital</t>
+  </si>
+  <si>
+    <t>CLF</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,8 +1567,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1355,12 +1701,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1441,6 +1800,57 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2675,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCD4E0-07FC-46A0-AF8C-3F93CADE071E}">
   <dimension ref="A1:BQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4159,4 +4569,713 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B057BC25-0B06-47D9-9B75-89C2A0553E69}">
+  <dimension ref="A1:CJ87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" style="43" customWidth="1"/>
+    <col min="2" max="3" width="19.21875" style="43"/>
+    <col min="4" max="16384" width="19.21875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:88" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK1" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL1" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM1" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN1" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO1" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP1" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ1" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR1" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="AS1" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT1" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU1" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV1" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW1" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX1" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="AY1" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC1" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="BD1" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE1" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF1" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG1" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="BH1" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="BI1" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="BJ1" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="BK1" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL1" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM1" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="BN1" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="BO1" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="BP1" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="BQ1" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="BR1" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS1" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="BT1" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="BU1" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="BV1" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="BW1" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="BX1" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="BY1" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="BZ1" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="CA1" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="CB1" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="CC1" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="CD1" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="CE1" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="CF1" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="CG1" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="CH1" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="CI1" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="CJ1" s="30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>200</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L2" s="1">
+        <v>500</v>
+      </c>
+      <c r="M2" s="1">
+        <v>200</v>
+      </c>
+      <c r="N2" s="1">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1">
+        <v>60</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="U2" s="1">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>500</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>500</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>500</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+    </row>
+    <row r="4" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+    </row>
+    <row r="5" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+    </row>
+    <row r="6" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+    </row>
+    <row r="7" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+    </row>
+    <row r="8" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+    </row>
+    <row r="9" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+    </row>
+    <row r="10" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+    </row>
+    <row r="11" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+    </row>
+    <row r="12" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+    </row>
+    <row r="13" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+    </row>
+    <row r="14" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+    </row>
+    <row r="15" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+    </row>
+    <row r="16" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="44"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="44"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="44"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="44"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="44"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="44"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="44"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="44"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="44"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="44"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="44"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="44"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="44"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="44"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="44"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="44"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="44"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="44"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="44"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="44"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D732D651-F612-45B0-925C-7FA147D23C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF67CF-FAA9-47D7-B593-CD55587D1D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="246">
   <si>
     <t>App</t>
   </si>
@@ -1047,9 +1047,6 @@
     <t>SHG Meetings</t>
   </si>
   <si>
-    <t>Cutoff New</t>
-  </si>
-  <si>
     <t>BALAJI MAHILA SHG</t>
   </si>
   <si>
@@ -1084,6 +1081,15 @@
   </si>
   <si>
     <t>CLF</t>
+  </si>
+  <si>
+    <t>02_02_2022</t>
+  </si>
+  <si>
+    <t>MEERA MAHILA SHG</t>
+  </si>
+  <si>
+    <t>Regular New</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1901,7 @@
   <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2089,7 +2095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2097,16 +2103,16 @@
         <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2AFBE2-8906-498D-ACCA-04BB80549CA6}">
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:CO2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2315,16 +2321,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="1">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -2342,7 +2348,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L2" s="1">
         <v>500</v>
@@ -2366,22 +2372,22 @@
         <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="V2" s="1">
         <v>10</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Z2" s="1">
         <v>500</v>
@@ -2405,22 +2411,22 @@
         <v>60</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="AI2" s="1">
         <v>10</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="AL2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM2" s="1">
         <v>500</v>
@@ -2444,19 +2450,19 @@
         <v>60</v>
       </c>
       <c r="AT2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="AV2" s="1">
         <v>10</v>
       </c>
       <c r="AW2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="AY2" s="1">
         <v>200</v>
@@ -2465,16 +2471,16 @@
         <v>100</v>
       </c>
       <c r="BA2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="BC2" s="1">
         <v>500</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2535,9 +2541,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20210E06-3E75-475D-B896-50826558A690}">
-  <dimension ref="A1:CO1"/>
+  <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2826,6 +2834,20 @@
         <v>223</v>
       </c>
     </row>
+    <row r="2" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2833,12 +2855,317 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CC76B-3EB4-4983-B402-C681A6237A86}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:93" s="23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL1" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR1" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS1" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT1" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV1" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX1" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY1" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ1" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA1" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC1" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD1" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF1" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG1" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH1" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI1" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR1" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT1" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="BU1" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV1" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="BW1" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="BX1" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY1" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ1" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA1" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="CB1" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD1" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="CE1" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="CF1" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="CG1" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="CH1" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="CI1" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="CJ1" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="CL1" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="CM1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="CN1" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="CO1" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF67CF-FAA9-47D7-B593-CD55587D1D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BA359E-67A7-4340-8945-2CFCF1AFF506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -2543,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20210E06-3E75-475D-B896-50826558A690}">
   <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,7 +2842,7 @@
         <v>233</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>243</v>
@@ -2857,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CC76B-3EB4-4983-B402-C681A6237A86}">
   <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BA359E-67A7-4340-8945-2CFCF1AFF506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B3ADB-B7D5-4F44-8BCD-3C0F4846EF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="326">
   <si>
     <t>App</t>
   </si>
@@ -1044,59 +1044,299 @@
     <t>LokOS_2.0.31.apk</t>
   </si>
   <si>
-    <t>SHG Meetings</t>
-  </si>
-  <si>
-    <t>BALAJI MAHILA SHG</t>
-  </si>
-  <si>
     <t>ALAWLA</t>
   </si>
   <si>
     <t>New</t>
   </si>
   <si>
-    <t>22_02_2022</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>04_07_2019</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>VO</t>
-  </si>
-  <si>
-    <t>Share Capital</t>
-  </si>
-  <si>
-    <t>CLF</t>
-  </si>
-  <si>
     <t>02_02_2022</t>
   </si>
   <si>
     <t>MEERA MAHILA SHG</t>
   </si>
   <si>
-    <t>Regular New</t>
+    <t>Aaryaman One SHG</t>
+  </si>
+  <si>
+    <t>25_01_2016</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Co-opted</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta</t>
+  </si>
+  <si>
+    <t>02_01_2012</t>
+  </si>
+  <si>
+    <t>05_06_2020</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Special Class</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes-External</t>
+  </si>
+  <si>
+    <t>Sulata Gupta</t>
+  </si>
+  <si>
+    <t>#9455885271</t>
+  </si>
+  <si>
+    <t>Horticulture Activities</t>
+  </si>
+  <si>
+    <t>Other livestock rearing</t>
+  </si>
+  <si>
+    <t>NTFP Collection</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta:9455120510</t>
+  </si>
+  <si>
+    <t>Transit Flats</t>
+  </si>
+  <si>
+    <t>Hudco Place</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta SHG</t>
+  </si>
+  <si>
+    <t>SBIN0000131</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA</t>
+  </si>
+  <si>
+    <t>Main Branch</t>
+  </si>
+  <si>
+    <t>#40256541490</t>
+  </si>
+  <si>
+    <t>23_02_2020</t>
+  </si>
+  <si>
+    <t>02_01_2022</t>
+  </si>
+  <si>
+    <t>Aaryaman   Bannerji</t>
+  </si>
+  <si>
+    <t>Aaryaman   Sen Gupta</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Aaryaman</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>25_01_2002</t>
+  </si>
+  <si>
+    <t>03_02_2022</t>
+  </si>
+  <si>
+    <t>02_08_2019</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Bunty</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Mentally Challenged</t>
+  </si>
+  <si>
+    <t>Pulok Sen Gupta</t>
+  </si>
+  <si>
+    <t>Pinku</t>
+  </si>
+  <si>
+    <t>Care taker</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Bachelors Degree</t>
+  </si>
+  <si>
+    <t>Trading - all types</t>
+  </si>
+  <si>
+    <t>Organic Agriculture Activities</t>
+  </si>
+  <si>
+    <t>Manufacturing - Food Processing</t>
+  </si>
+  <si>
+    <t>Mother:9455120510</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>SBIN0000125</t>
+  </si>
+  <si>
+    <t>MAIN BRANCH - MAIN BRANCH</t>
+  </si>
+  <si>
+    <t>#40256541475</t>
+  </si>
+  <si>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>#536311420011</t>
+  </si>
+  <si>
+    <t>MNREGA ID</t>
+  </si>
+  <si>
+    <t>#8646498</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>MCP cadre</t>
+  </si>
+  <si>
+    <t>05_08_2020</t>
+  </si>
+  <si>
+    <t>23_01_2024</t>
+  </si>
+  <si>
+    <t>Pradhan Mantri Suraksha Bima Yojana (PMSBY)/State specific Accidental insurance scheme</t>
+  </si>
+  <si>
+    <t>26_03_2022</t>
+  </si>
+  <si>
+    <t>Aaryaman Two</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>No disability</t>
+  </si>
+  <si>
+    <t>Mother:9455120514;Father:9455885272</t>
+  </si>
+  <si>
+    <t>SBIN0000126</t>
+  </si>
+  <si>
+    <t>#40256541473</t>
+  </si>
+  <si>
+    <t>23_02_2021</t>
+  </si>
+  <si>
+    <t>#8646499</t>
+  </si>
+  <si>
+    <t>05_08_2021</t>
+  </si>
+  <si>
+    <t>23_01_2025</t>
+  </si>
+  <si>
+    <t>26_03_2023</t>
+  </si>
+  <si>
+    <t>Aaryaman Two SHG</t>
+  </si>
+  <si>
+    <t>Aaryaman  Bannerji</t>
+  </si>
+  <si>
+    <t>Mother:9455120515</t>
+  </si>
+  <si>
+    <t>SBIN0000127</t>
+  </si>
+  <si>
+    <t>23_02_2022</t>
+  </si>
+  <si>
+    <t>#8646500</t>
+  </si>
+  <si>
+    <t>05_08_2022</t>
+  </si>
+  <si>
+    <t>23_01_2026</t>
+  </si>
+  <si>
+    <t>26_03_2024</t>
+  </si>
+  <si>
+    <t>Update SHG</t>
+  </si>
+  <si>
+    <t>19,20,21,22,23,24,25 Update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,6 +1394,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1388,7 +1634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1510,6 +1756,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1900,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,24 +2350,166 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="U2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>232</v>
+      <c r="Z2" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX2"/>
+      <c r="AY2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2123,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2AFBE2-8906-498D-ACCA-04BB80549CA6}">
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2316,171 +2713,484 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13</v>
+      <c r="D2" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="1">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB2" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC2" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO2" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC2" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="1">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1">
-        <v>100</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L2" s="1">
-        <v>500</v>
-      </c>
-      <c r="M2" s="1">
-        <v>200</v>
-      </c>
-      <c r="O2" s="1">
-        <v>50</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1">
-        <v>10</v>
-      </c>
-      <c r="S2" s="1">
-        <v>60</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="V2" s="1">
-        <v>10</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>500</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>200</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>500</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>200</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>60</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>200</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>100</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>500</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>242</v>
+      <c r="C3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="1">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y3" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB3" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC3" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>110050</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO3" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AZ3" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC3" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="1">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y4" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB4" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC4" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>110051</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO4" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AZ4" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC4" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20210E06-3E75-475D-B896-50826558A690}">
   <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2836,16 +3546,16 @@
     </row>
     <row r="2" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3153,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B3ADB-B7D5-4F44-8BCD-3C0F4846EF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D96DD4-513F-4857-B90E-6A1CD686C01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="361">
   <si>
     <t>App</t>
   </si>
@@ -1056,9 +1056,6 @@
     <t>MEERA MAHILA SHG</t>
   </si>
   <si>
-    <t>Aaryaman One SHG</t>
-  </si>
-  <si>
     <t>25_01_2016</t>
   </si>
   <si>
@@ -1116,9 +1113,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Aaryaman Gupta:9455120510</t>
-  </si>
-  <si>
     <t>Transit Flats</t>
   </si>
   <si>
@@ -1146,9 +1140,6 @@
     <t>02_01_2022</t>
   </si>
   <si>
-    <t>Aaryaman   Bannerji</t>
-  </si>
-  <si>
     <t>Aaryaman   Sen Gupta</t>
   </si>
   <si>
@@ -1299,9 +1290,6 @@
     <t>26_03_2023</t>
   </si>
   <si>
-    <t>Aaryaman Two SHG</t>
-  </si>
-  <si>
     <t>Aaryaman  Bannerji</t>
   </si>
   <si>
@@ -1326,10 +1314,127 @@
     <t>26_03_2024</t>
   </si>
   <si>
-    <t>Update SHG</t>
-  </si>
-  <si>
-    <t>19,20,21,22,23,24,25 Update</t>
+    <t>Aaryaman Sud</t>
+  </si>
+  <si>
+    <t>Mother:9455120519;Father:9455885272</t>
+  </si>
+  <si>
+    <t>SBIN0000128</t>
+  </si>
+  <si>
+    <t>23_02_2023</t>
+  </si>
+  <si>
+    <t>#8646501</t>
+  </si>
+  <si>
+    <t>05_08_2023</t>
+  </si>
+  <si>
+    <t>23_01_2027</t>
+  </si>
+  <si>
+    <t>26_03_2025</t>
+  </si>
+  <si>
+    <t>Aaryaman Seth</t>
+  </si>
+  <si>
+    <t>Mother:9455120518</t>
+  </si>
+  <si>
+    <t>SBIN0000129</t>
+  </si>
+  <si>
+    <t>23_02_2024</t>
+  </si>
+  <si>
+    <t>#8646502</t>
+  </si>
+  <si>
+    <t>05_08_2024</t>
+  </si>
+  <si>
+    <t>23_01_2028</t>
+  </si>
+  <si>
+    <t>26_03_2026</t>
+  </si>
+  <si>
+    <t>Aaryaman  Sen</t>
+  </si>
+  <si>
+    <t>SBIN0000130</t>
+  </si>
+  <si>
+    <t>26_03_2027</t>
+  </si>
+  <si>
+    <t>Aaryaman Sud:9455120510</t>
+  </si>
+  <si>
+    <t>BALAJI MAHILA SHG</t>
+  </si>
+  <si>
+    <t>22_02_2022</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>04_07_2019</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Share Capital</t>
+  </si>
+  <si>
+    <t>04_7_2019</t>
+  </si>
+  <si>
+    <t>Bank loan</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>VRF Grant</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>613 Bank Name</t>
+  </si>
+  <si>
+    <t>713 Transaction Number</t>
+  </si>
+  <si>
+    <t>PSIB01401000025848</t>
+  </si>
+  <si>
+    <t>aaryamangupta123</t>
+  </si>
+  <si>
+    <t>PSIBXXXXX848</t>
+  </si>
+  <si>
+    <t>SHG Meetings</t>
+  </si>
+  <si>
+    <t>Cutoff New</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1767,6 +1872,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2155,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2350,18 +2456,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>230</v>
@@ -2370,46 +2476,46 @@
         <v>230</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="M2" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="N2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="U2" s="1">
         <v>15</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z2" s="1">
         <v>300</v>
@@ -2418,98 +2524,98 @@
         <v>12</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC2" s="1">
         <v>10</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="AJ2" s="1">
         <v>14</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="AP2" s="1">
         <v>110049</v>
       </c>
       <c r="AQ2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="AX2"/>
       <c r="AY2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="BA2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2520,15 +2626,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2AFBE2-8906-498D-ACCA-04BB80549CA6}">
-  <dimension ref="A1:BH4"/>
+  <dimension ref="A1:BH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="16.44140625" style="1"/>
+    <col min="1" max="32" width="16.44140625" style="1"/>
+    <col min="33" max="33" width="17.77734375" style="1" customWidth="1"/>
+    <col min="34" max="57" width="16.44140625" style="1"/>
+    <col min="58" max="58" width="16.44140625" style="31"/>
+    <col min="59" max="16384" width="16.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="41" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2703,7 +2813,7 @@
       <c r="BE1" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="BF1" s="39" t="s">
+      <c r="BF1" s="46" t="s">
         <v>122</v>
       </c>
       <c r="BG1" s="39" t="s">
@@ -2713,485 +2823,975 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I2" s="1">
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="O2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA2" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AB2" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="AC2" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AH2" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AI2" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="AJ2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AL2" s="1">
         <v>110049</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO2" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AO2" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AZ2" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AZ2" s="45" t="s">
+      <c r="BC2" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BC2" s="45" t="s">
+      <c r="BF2" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BE2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>302</v>
-      </c>
     </row>
-    <row r="3" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="I3" s="1">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="O3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y3" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA3" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AB3" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="Y3" s="45" t="s">
+      <c r="AC3" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA3" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB3" s="45" t="s">
+      <c r="AF3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AC3" s="45" t="s">
+      <c r="AI3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="AJ3" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AL3" s="1">
         <v>110050</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AN3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO3" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ3" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AO3" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC3" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AU3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AZ3" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BF3" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC3" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>314</v>
-      </c>
     </row>
-    <row r="4" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I4" s="1">
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="O4" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="P4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA4" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AB4" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="Y4" s="45" t="s">
+      <c r="AC4" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA4" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AF4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AC4" s="45" t="s">
+      <c r="AI4" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="AJ4" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AL4" s="1">
         <v>110051</v>
       </c>
       <c r="AM4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO4" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ4" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="BA4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC4" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE4" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AO4" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="BF4" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="1">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA5" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC5" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>110052</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AO5" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AQ4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AZ5" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BB5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AZ4" s="45" t="s">
+      <c r="BC5" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="BA4" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC4" s="45" t="s">
+      <c r="BD5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BF5" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="BD4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BG5" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BG4" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="G6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="1">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA6" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC6" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>110053</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO6" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ6" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC6" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF6" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="1">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y7" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA7" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB7" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC7" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>110053</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO7" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ7" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC7" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF7" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="44"/>
+      <c r="Y8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BC8" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3251,19 +3851,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20210E06-3E75-475D-B896-50826558A690}">
-  <dimension ref="A1:CO2"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="17.77734375" style="1"/>
+    <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" s="23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -3469,10 +4070,10 @@
         <v>198</v>
       </c>
       <c r="BQ1" s="24" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="BR1" s="24" t="s">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="BS1" s="24" t="s">
         <v>201</v>
@@ -3504,58 +4105,319 @@
       <c r="CB1" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="CC1" s="23" t="s">
-        <v>211</v>
+      <c r="CC1" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="CD1" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CE1" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CF1" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="CG1" s="29" t="s">
         <v>215</v>
       </c>
+      <c r="CG1" s="30" t="s">
+        <v>216</v>
+      </c>
       <c r="CH1" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CI1" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="CJ1" s="30" t="s">
         <v>218</v>
       </c>
+      <c r="CJ1" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="CK1" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="CL1" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CM1" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CN1" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="CO1" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D2" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>232</v>
+        <v>341</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>200</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1">
+        <v>900</v>
+      </c>
+      <c r="O2" s="1">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>100</v>
+      </c>
+      <c r="R2" s="1">
+        <v>400</v>
+      </c>
+      <c r="S2" s="1">
+        <v>700</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>900</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>400</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>700</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>900</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>400</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>700</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>300</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>486426</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>18</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>12</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>500</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D96DD4-513F-4857-B90E-6A1CD686C01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA8EAD-F333-48A6-9C2C-23DFF007319C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="376">
   <si>
     <t>App</t>
   </si>
@@ -951,12 +951,6 @@
     <t>513 Loan Disbursement Date</t>
   </si>
   <si>
-    <t>613 BankName</t>
-  </si>
-  <si>
-    <t>713 TransactionNumber</t>
-  </si>
-  <si>
     <t>813 ModeofReceipt</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
     <t>1713 RepaymentFrequency</t>
   </si>
   <si>
-    <t>1613 Repayment Frequency</t>
-  </si>
-  <si>
     <t>014 Source(Fund Received)</t>
   </si>
   <si>
@@ -1044,18 +1035,363 @@
     <t>LokOS_2.0.31.apk</t>
   </si>
   <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>02_02_2022</t>
+  </si>
+  <si>
+    <t>MEERA MAHILA SHG</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sulata Gupta</t>
+  </si>
+  <si>
+    <t>Transit Flats</t>
+  </si>
+  <si>
+    <t>Hudco Place</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta SHG</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Aaryaman</t>
+  </si>
+  <si>
+    <t>25_01_2002</t>
+  </si>
+  <si>
+    <t>03_02_2022</t>
+  </si>
+  <si>
+    <t>02_08_2019</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Bunty</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Mentally Challenged</t>
+  </si>
+  <si>
+    <t>Pulok Sen Gupta</t>
+  </si>
+  <si>
+    <t>Pinku</t>
+  </si>
+  <si>
+    <t>Care taker</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Bachelors Degree</t>
+  </si>
+  <si>
+    <t>Trading - all types</t>
+  </si>
+  <si>
+    <t>Organic Agriculture Activities</t>
+  </si>
+  <si>
+    <t>Manufacturing - Food Processing</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>MAIN BRANCH - MAIN BRANCH</t>
+  </si>
+  <si>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>#536311420011</t>
+  </si>
+  <si>
+    <t>MNREGA ID</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>MCP cadre</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>#40256541473</t>
+  </si>
+  <si>
+    <t>Aaryaman Seth</t>
+  </si>
+  <si>
+    <t>Mother:9455120518</t>
+  </si>
+  <si>
+    <t>SBIN0000129</t>
+  </si>
+  <si>
+    <t>23_02_2024</t>
+  </si>
+  <si>
+    <t>#8646502</t>
+  </si>
+  <si>
+    <t>05_08_2024</t>
+  </si>
+  <si>
+    <t>23_01_2028</t>
+  </si>
+  <si>
+    <t>26_03_2026</t>
+  </si>
+  <si>
+    <t>Aaryaman  Sen</t>
+  </si>
+  <si>
+    <t>SBIN0000130</t>
+  </si>
+  <si>
+    <t>26_03_2027</t>
+  </si>
+  <si>
+    <t>BALAJI MAHILA SHG</t>
+  </si>
+  <si>
+    <t>22_02_2022</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>04_07_2019</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Share Capital</t>
+  </si>
+  <si>
+    <t>04_7_2019</t>
+  </si>
+  <si>
+    <t>Bank loan</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>VRF Grant</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>613 Bank Name</t>
+  </si>
+  <si>
+    <t>713 Transaction Number</t>
+  </si>
+  <si>
+    <t>PSIB01401000025848</t>
+  </si>
+  <si>
+    <t>aaryamangupta123</t>
+  </si>
+  <si>
+    <t>PSIBXXXXX848</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>http://103.248.60.224:9090/</t>
+  </si>
+  <si>
+    <t>Block Program Manager</t>
+  </si>
+  <si>
+    <t>IHR_HRBPM1</t>
+  </si>
+  <si>
+    <t>BPM SHG Approval</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Dell\\eclipse-workspace\\TestLokOS\\msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Dell\\eclipse-workspace\\TestLokOS\\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>Pradhan Mantri Suraksha Bima Yojana (PMSBY)</t>
+  </si>
+  <si>
+    <t>Aaryaman One SHG</t>
+  </si>
+  <si>
+    <t>Aaryaman   Sen Gupta</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Mother:9455120510</t>
+  </si>
+  <si>
+    <t>SBIN0000125</t>
+  </si>
+  <si>
+    <t>#40256541475</t>
+  </si>
+  <si>
+    <t>23_02_2020</t>
+  </si>
+  <si>
+    <t>#8646498</t>
+  </si>
+  <si>
+    <t>05_08_2020</t>
+  </si>
+  <si>
+    <t>23_01_2024</t>
+  </si>
+  <si>
+    <t>26_03_2022</t>
+  </si>
+  <si>
+    <t>Aaryaman Two</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>No disability</t>
+  </si>
+  <si>
+    <t>Mother:9455120514;Father:9455885272</t>
+  </si>
+  <si>
+    <t>SBIN0000126</t>
+  </si>
+  <si>
+    <t>23_02_2021</t>
+  </si>
+  <si>
+    <t>#8646499</t>
+  </si>
+  <si>
+    <t>05_08_2021</t>
+  </si>
+  <si>
+    <t>23_01_2025</t>
+  </si>
+  <si>
+    <t>26_03_2023</t>
+  </si>
+  <si>
+    <t>Aaryaman Two SHG</t>
+  </si>
+  <si>
+    <t>Aaryaman  Bannerji</t>
+  </si>
+  <si>
+    <t>Mother:9455120515</t>
+  </si>
+  <si>
+    <t>SBIN0000127</t>
+  </si>
+  <si>
+    <t>23_02_2022</t>
+  </si>
+  <si>
+    <t>#8646500</t>
+  </si>
+  <si>
+    <t>05_08_2022</t>
+  </si>
+  <si>
+    <t>23_01_2026</t>
+  </si>
+  <si>
+    <t>26_03_2024</t>
+  </si>
+  <si>
+    <t>Aaryaman Sud</t>
+  </si>
+  <si>
+    <t>Mother:9455120519;Father:9455885272</t>
+  </si>
+  <si>
+    <t>SBIN0000128</t>
+  </si>
+  <si>
+    <t>23_02_2023</t>
+  </si>
+  <si>
+    <t>#8646501</t>
+  </si>
+  <si>
+    <t>05_08_2023</t>
+  </si>
+  <si>
+    <t>23_01_2027</t>
+  </si>
+  <si>
+    <t>26_03_2025</t>
+  </si>
+  <si>
     <t>ALAWLA</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>02_02_2022</t>
-  </si>
-  <si>
-    <t>MEERA MAHILA SHG</t>
-  </si>
-  <si>
     <t>25_01_2016</t>
   </si>
   <si>
@@ -1065,9 +1401,6 @@
     <t>Co-opted</t>
   </si>
   <si>
-    <t>Aaryaman Gupta</t>
-  </si>
-  <si>
     <t>02_01_2012</t>
   </si>
   <si>
@@ -1089,15 +1422,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Yes-External</t>
   </si>
   <si>
-    <t>Sulata Gupta</t>
-  </si>
-  <si>
     <t>#9455885271</t>
   </si>
   <si>
@@ -1113,335 +1440,53 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Transit Flats</t>
-  </si>
-  <si>
-    <t>Hudco Place</t>
-  </si>
-  <si>
-    <t>Aaryaman Gupta SHG</t>
-  </si>
-  <si>
     <t>SBIN0000131</t>
   </si>
   <si>
-    <t>STATE BANK OF INDIA</t>
-  </si>
-  <si>
     <t>Main Branch</t>
   </si>
   <si>
     <t>#40256541490</t>
   </si>
   <si>
-    <t>23_02_2020</t>
-  </si>
-  <si>
     <t>02_01_2022</t>
   </si>
   <si>
-    <t>Aaryaman   Sen Gupta</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Aaryaman</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>25_01_2002</t>
-  </si>
-  <si>
-    <t>03_02_2022</t>
-  </si>
-  <si>
-    <t>02_08_2019</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Bunty</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Mentally Challenged</t>
-  </si>
-  <si>
-    <t>Pulok Sen Gupta</t>
-  </si>
-  <si>
-    <t>Pinku</t>
-  </si>
-  <si>
-    <t>Care taker</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Hindu</t>
-  </si>
-  <si>
-    <t>Bachelors Degree</t>
-  </si>
-  <si>
-    <t>Trading - all types</t>
-  </si>
-  <si>
-    <t>Organic Agriculture Activities</t>
-  </si>
-  <si>
-    <t>Manufacturing - Food Processing</t>
-  </si>
-  <si>
-    <t>Mother:9455120510</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>SBIN0000125</t>
-  </si>
-  <si>
-    <t>MAIN BRANCH - MAIN BRANCH</t>
-  </si>
-  <si>
-    <t>#40256541475</t>
-  </si>
-  <si>
-    <t>Aadhaar</t>
-  </si>
-  <si>
-    <t>#536311420011</t>
-  </si>
-  <si>
-    <t>MNREGA ID</t>
-  </si>
-  <si>
-    <t>#8646498</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>MCP cadre</t>
-  </si>
-  <si>
-    <t>05_08_2020</t>
-  </si>
-  <si>
-    <t>23_01_2024</t>
-  </si>
-  <si>
-    <t>Pradhan Mantri Suraksha Bima Yojana (PMSBY)/State specific Accidental insurance scheme</t>
-  </si>
-  <si>
-    <t>26_03_2022</t>
-  </si>
-  <si>
-    <t>Aaryaman Two</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>No disability</t>
-  </si>
-  <si>
-    <t>Mother:9455120514;Father:9455885272</t>
-  </si>
-  <si>
-    <t>SBIN0000126</t>
-  </si>
-  <si>
-    <t>#40256541473</t>
-  </si>
-  <si>
-    <t>23_02_2021</t>
-  </si>
-  <si>
-    <t>#8646499</t>
-  </si>
-  <si>
-    <t>05_08_2021</t>
-  </si>
-  <si>
-    <t>23_01_2025</t>
-  </si>
-  <si>
-    <t>26_03_2023</t>
-  </si>
-  <si>
-    <t>Aaryaman  Bannerji</t>
-  </si>
-  <si>
-    <t>Mother:9455120515</t>
-  </si>
-  <si>
-    <t>SBIN0000127</t>
-  </si>
-  <si>
-    <t>23_02_2022</t>
-  </si>
-  <si>
-    <t>#8646500</t>
-  </si>
-  <si>
-    <t>05_08_2022</t>
-  </si>
-  <si>
-    <t>23_01_2026</t>
-  </si>
-  <si>
-    <t>26_03_2024</t>
-  </si>
-  <si>
-    <t>Aaryaman Sud</t>
-  </si>
-  <si>
-    <t>Mother:9455120519;Father:9455885272</t>
-  </si>
-  <si>
-    <t>SBIN0000128</t>
-  </si>
-  <si>
-    <t>23_02_2023</t>
-  </si>
-  <si>
-    <t>#8646501</t>
-  </si>
-  <si>
-    <t>05_08_2023</t>
-  </si>
-  <si>
-    <t>23_01_2027</t>
-  </si>
-  <si>
-    <t>26_03_2025</t>
-  </si>
-  <si>
-    <t>Aaryaman Seth</t>
-  </si>
-  <si>
-    <t>Mother:9455120518</t>
-  </si>
-  <si>
-    <t>SBIN0000129</t>
-  </si>
-  <si>
-    <t>23_02_2024</t>
-  </si>
-  <si>
-    <t>#8646502</t>
-  </si>
-  <si>
-    <t>05_08_2024</t>
-  </si>
-  <si>
-    <t>23_01_2028</t>
-  </si>
-  <si>
-    <t>26_03_2026</t>
-  </si>
-  <si>
-    <t>Aaryaman  Sen</t>
-  </si>
-  <si>
-    <t>SBIN0000130</t>
-  </si>
-  <si>
-    <t>26_03_2027</t>
-  </si>
-  <si>
-    <t>Aaryaman Sud:9455120510</t>
-  </si>
-  <si>
-    <t>BALAJI MAHILA SHG</t>
-  </si>
-  <si>
-    <t>22_02_2022</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>04_07_2019</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>VO</t>
-  </si>
-  <si>
-    <t>Share Capital</t>
-  </si>
-  <si>
-    <t>04_7_2019</t>
-  </si>
-  <si>
-    <t>Bank loan</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>VRF Grant</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>613 Bank Name</t>
-  </si>
-  <si>
-    <t>713 Transaction Number</t>
-  </si>
-  <si>
-    <t>PSIB01401000025848</t>
-  </si>
-  <si>
-    <t>aaryamangupta123</t>
-  </si>
-  <si>
-    <t>PSIBXXXXX848</t>
+    <t>Aaryaman Seth:9455120510</t>
   </si>
   <si>
     <t>SHG Meetings</t>
   </si>
   <si>
     <t>Cutoff New</t>
+  </si>
+  <si>
+    <t>005 New</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Field ID =&gt;</t>
+  </si>
+  <si>
+    <t>Field Entry Protocol=&gt;</t>
+  </si>
+  <si>
+    <t>Approves or Rejects all members.(Approve/Reject)</t>
+  </si>
+  <si>
+    <t>Entry each test case seperated by semicolon(;) and the last case should be a perfect value</t>
+  </si>
+  <si>
+    <t>Compulsory Savings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1505,6 +1550,18 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1739,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1863,9 +1920,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1873,6 +1927,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2227,22 +2286,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2259,16 +2318,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="15.21875" style="1"/>
+    <col min="2" max="2" width="15.21875" style="1"/>
+    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="15.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="8" customFormat="1" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2461,61 +2522,61 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" t="s">
-        <v>340</v>
+        <v>368</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>234</v>
+        <v>346</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>239</v>
+        <v>230</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>350</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="U2" s="1">
         <v>15</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="1">
         <v>300</v>
@@ -2524,98 +2585,112 @@
         <v>12</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AC2" s="1">
         <v>10</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>248</v>
+        <v>357</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>249</v>
+        <v>358</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>251</v>
+        <v>360</v>
       </c>
       <c r="AJ2" s="1">
         <v>14</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>252</v>
+        <v>361</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="AP2" s="1">
         <v>110049</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="AX2"/>
       <c r="AY2" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>261</v>
+        <v>365</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>261</v>
+        <v>365</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>261</v>
+        <v>365</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2626,15 +2701,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2AFBE2-8906-498D-ACCA-04BB80549CA6}">
-  <dimension ref="A1:BH8"/>
+  <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="32" width="16.44140625" style="1"/>
+    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
+    <col min="2" max="32" width="16.44140625" style="1"/>
     <col min="33" max="33" width="17.77734375" style="1" customWidth="1"/>
     <col min="34" max="57" width="16.44140625" style="1"/>
     <col min="58" max="58" width="16.44140625" style="31"/>
@@ -2813,7 +2889,7 @@
       <c r="BE1" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="BF1" s="46" t="s">
+      <c r="BF1" s="45" t="s">
         <v>122</v>
       </c>
       <c r="BG1" s="39" t="s">
@@ -2823,624 +2899,636 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>265</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I2" s="1">
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y2" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA2" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB2" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC2" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>110053</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="AO2" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ2" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="BC2" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="BF2" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y2" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA2" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB2" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC2" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>110049</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AO2" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ2" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BC2" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BF2" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>299</v>
-      </c>
     </row>
-    <row r="3" spans="1:60" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I3" s="1">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA3" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB3" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC3" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>110053</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO3" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ3" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BC3" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF3" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y3" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA3" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB3" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC3" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>110050</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO3" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ3" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BC3" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="BF3" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>311</v>
-      </c>
     </row>
-    <row r="4" spans="1:60" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I4" s="1">
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>268</v>
+        <v>240</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="T4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y4" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA4" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB4" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC4" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO4" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ4" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y4" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA4" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB4" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC4" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>110051</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AO4" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="BC4" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BF4" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ4" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BC4" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BE4" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="BF4" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>319</v>
-      </c>
     </row>
-    <row r="5" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" ht="43.8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>265</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I5" s="1">
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>268</v>
+        <v>240</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y5" s="45" t="s">
-        <v>280</v>
+        <v>252</v>
+      </c>
+      <c r="Y5" s="44" t="s">
+        <v>253</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA5" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB5" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC5" s="45" t="s">
-        <v>283</v>
+        <v>231</v>
+      </c>
+      <c r="AA5" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB5" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC5" s="44" t="s">
+        <v>256</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>321</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="AL5" s="1">
-        <v>110052</v>
+        <v>110050</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AO5" s="45" t="s">
-        <v>257</v>
+      <c r="AO5" s="44" t="s">
+        <v>236</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>323</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ5" s="45" t="s">
-        <v>292</v>
+        <v>261</v>
+      </c>
+      <c r="AZ5" s="44" t="s">
+        <v>262</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>324</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BC5" s="45" t="s">
-        <v>295</v>
+        <v>263</v>
+      </c>
+      <c r="BC5" s="44" t="s">
+        <v>264</v>
       </c>
       <c r="BD5" s="1" t="s">
         <v>325</v>
@@ -3448,366 +3536,355 @@
       <c r="BE5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BF5" s="31" t="s">
-        <v>298</v>
+      <c r="BF5" s="46" t="s">
+        <v>306</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I6" s="1">
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>268</v>
+        <v>240</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="T6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y6" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA6" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB6" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC6" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>110051</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO6" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ6" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BB6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y6" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA6" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB6" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC6" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>110053</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO6" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="BC6" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BF6" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ6" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BC6" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="BF6" s="31" t="s">
-        <v>298</v>
-      </c>
       <c r="BG6" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" ht="43.8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I7" s="1">
         <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>268</v>
+        <v>240</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y7" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA7" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB7" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC7" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>110052</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AO7" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ7" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB7" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y7" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA7" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB7" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC7" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>110053</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AO7" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="BC7" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="BF7" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ7" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BC7" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="BF7" s="31" t="s">
-        <v>298</v>
-      </c>
       <c r="BG7" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="44"/>
-      <c r="Y8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BC8" s="45"/>
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D0630A-DD7A-4589-9BBC-71143BEF4715}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
@@ -3844,7 +3921,43 @@
         <v>133</v>
       </c>
     </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{EB78B730-4B7C-49B0-9E70-0990F42B50BC}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A15F4FFB-CE90-4E55-B9D7-405575B8924A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3853,8 +3966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20210E06-3E75-475D-B896-50826558A690}">
   <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4070,76 +4183,76 @@
         <v>198</v>
       </c>
       <c r="BQ1" s="24" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="BR1" s="24" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="BS1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT1" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="BT1" s="24" t="s">
+      <c r="BV1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="BU1" s="24" t="s">
+      <c r="BW1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="BV1" s="24" t="s">
+      <c r="BX1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="BW1" s="24" t="s">
+      <c r="BY1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="BX1" s="24" t="s">
+      <c r="BZ1" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="BY1" s="24" t="s">
+      <c r="CA1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="BZ1" s="24" t="s">
+      <c r="CB1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="CA1" s="24" t="s">
+      <c r="CC1" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="CB1" s="24" t="s">
+      <c r="CD1" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="CC1" s="29" t="s">
+      <c r="CE1" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="CF1" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="CD1" s="29" t="s">
+      <c r="CG1" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="CE1" s="29" t="s">
+      <c r="CH1" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="CF1" s="29" t="s">
+      <c r="CI1" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="CG1" s="30" t="s">
+      <c r="CJ1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="CH1" s="30" t="s">
+      <c r="CK1" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="CI1" s="30" t="s">
+      <c r="CL1" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="CJ1" s="15" t="s">
+      <c r="CM1" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CN1" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="CL1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="CM1" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="CN1" s="15" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
@@ -4147,16 +4260,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>369</v>
       </c>
       <c r="D2" s="1">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -4174,7 +4287,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="L2" s="1">
         <v>1000</v>
@@ -4201,22 +4314,22 @@
         <v>700</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="V2" s="1">
         <v>12</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="Z2" s="1">
         <v>1000</v>
@@ -4243,22 +4356,22 @@
         <v>700</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="AJ2" s="1">
         <v>12</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="AN2" s="1">
         <v>1000</v>
@@ -4285,19 +4398,19 @@
         <v>700</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="AX2" s="1">
         <v>12</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="BA2" s="1">
         <v>300</v>
@@ -4306,22 +4419,22 @@
         <v>100</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="BE2" s="1">
         <v>10000</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="BI2" s="1">
         <v>5</v>
@@ -4330,31 +4443,31 @@
         <v>10000</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="BM2" s="1">
         <v>486426</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="BT2" s="1">
         <v>10</v>
@@ -4381,16 +4494,16 @@
         <v>1000</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="CF2" s="1">
         <v>2000</v>
@@ -4402,10 +4515,10 @@
         <v>1000</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="CK2" s="1">
         <v>10000</v>
@@ -4417,7 +4530,7 @@
         <v>2000</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4427,317 +4540,323 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CC76B-3EB4-4983-B402-C681A6237A86}">
-  <dimension ref="A1:CO2"/>
+  <dimension ref="A1:CO4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="12.6640625" style="1"/>
+    <col min="2" max="5" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:93" s="23" customFormat="1" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="13"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24"/>
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="30"/>
+      <c r="CI1" s="30"/>
+      <c r="CJ1" s="30"/>
+      <c r="CK1" s="15"/>
+      <c r="CL1" s="15"/>
+      <c r="CM1" s="15"/>
+      <c r="CN1" s="15"/>
+      <c r="CO1" s="15"/>
+    </row>
+    <row r="2" spans="1:93" s="23" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <v>2</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="13"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="24"/>
+      <c r="BS2" s="24"/>
+      <c r="BT2" s="24"/>
+      <c r="BU2" s="24"/>
+      <c r="BV2" s="24"/>
+      <c r="BW2" s="24"/>
+      <c r="BX2" s="24"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="24"/>
+      <c r="CD2" s="29"/>
+      <c r="CE2" s="29"/>
+      <c r="CF2" s="29"/>
+      <c r="CG2" s="29"/>
+      <c r="CH2" s="30"/>
+      <c r="CI2" s="30"/>
+      <c r="CJ2" s="30"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+    </row>
+    <row r="3" spans="1:93" s="23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB1" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC1" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF1" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG1" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL1" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP1" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ1" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR1" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS1" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT1" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU1" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV1" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW1" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX1" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY1" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ1" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA1" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC1" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="BD1" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="BE1" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="BF1" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="BG1" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH1" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI1" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ1" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK1" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL1" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="BM1" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="BN1" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BO1" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="BP1" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="BQ1" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="BR1" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="BS1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT1" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="BU1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV1" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="BW1" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX1" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="BY1" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="BZ1" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA1" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="CB1" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="CD1" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="CE1" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="CF1" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="CG1" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="CH1" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="CI1" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="CJ1" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="CK1" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="CL1" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="CM1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="CN1" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="CO1" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="F3" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="13"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="28"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CD3" s="29"/>
+      <c r="CE3" s="29"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="30"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
     </row>
-    <row r="2" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="4" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>232</v>
+      <c r="E4" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA8EAD-F333-48A6-9C2C-23DFF007319C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD94178-A255-4E30-9345-887BC3475F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
@@ -51,7 +51,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -60,7 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 1) New Members
@@ -84,7 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -93,7 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 1) &lt;00&gt;,&lt;00&gt;,... Update
@@ -120,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -129,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 New
@@ -146,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -155,7 +155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -230,7 +230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -239,7 +239,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 1) New
@@ -259,7 +259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -268,7 +268,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Mother:9455120514;Father:9455885272</t>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="308">
   <si>
     <t>App</t>
   </si>
@@ -951,6 +951,12 @@
     <t>513 Loan Disbursement Date</t>
   </si>
   <si>
+    <t>613 BankName</t>
+  </si>
+  <si>
+    <t>713 TransactionNumber</t>
+  </si>
+  <si>
     <t>813 ModeofReceipt</t>
   </si>
   <si>
@@ -981,6 +987,9 @@
     <t>1713 RepaymentFrequency</t>
   </si>
   <si>
+    <t>1613 Repayment Frequency</t>
+  </si>
+  <si>
     <t>014 Source(Fund Received)</t>
   </si>
   <si>
@@ -1035,458 +1044,245 @@
     <t>LokOS_2.0.31.apk</t>
   </si>
   <si>
+    <t>SHG Meetings</t>
+  </si>
+  <si>
+    <t>BALAJI MAHILA SHG</t>
+  </si>
+  <si>
+    <t>ALAWLA</t>
+  </si>
+  <si>
+    <t>25_01_2016</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Co-opted</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta</t>
+  </si>
+  <si>
+    <t>02_01_2012</t>
+  </si>
+  <si>
+    <t>05_06_2020</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Special Class</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes-External</t>
+  </si>
+  <si>
+    <t>Sulata Gupta</t>
+  </si>
+  <si>
+    <t>#9455885271</t>
+  </si>
+  <si>
+    <t>Horticulture Activities</t>
+  </si>
+  <si>
+    <t>Other livestock rearing</t>
+  </si>
+  <si>
+    <t>NTFP Collection</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Aaryaman Seth:9455120510</t>
+  </si>
+  <si>
+    <t>Transit Flats</t>
+  </si>
+  <si>
+    <t>Hudco Place</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta SHG</t>
+  </si>
+  <si>
+    <t>SBIN0000131</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA</t>
+  </si>
+  <si>
+    <t>Main Branch</t>
+  </si>
+  <si>
+    <t>#40256541490</t>
+  </si>
+  <si>
+    <t>23_02_2020</t>
+  </si>
+  <si>
+    <t>Aaryaman Seth</t>
+  </si>
+  <si>
+    <t>02_01_2022</t>
+  </si>
+  <si>
+    <t>Aaryaman  Sen</t>
+  </si>
+  <si>
+    <t>Aaryaman Two</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>New</t>
   </si>
   <si>
-    <t>02_02_2022</t>
+    <t>22_02_2022</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>04_7_2019</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Share Capital</t>
+  </si>
+  <si>
+    <t>Bank loan</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>04_07_2019</t>
+  </si>
+  <si>
+    <t>PSIB01401000025848</t>
+  </si>
+  <si>
+    <t>aaryamangupta123</t>
+  </si>
+  <si>
+    <t>VRF Grant</t>
+  </si>
+  <si>
+    <t>PSIBXXXXX848</t>
+  </si>
+  <si>
+    <t>CLF</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Entry each test case seperated by semicolon(;) and the last case should be a perfect value</t>
+  </si>
+  <si>
+    <t>Compulsory Savings</t>
+  </si>
+  <si>
+    <t>CHECK LATER</t>
+  </si>
+  <si>
+    <t>Loan Repayment</t>
   </si>
   <si>
     <t>MEERA MAHILA SHG</t>
   </si>
   <si>
-    <t>Aaryaman Gupta</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Sulata Gupta</t>
-  </si>
-  <si>
-    <t>Transit Flats</t>
-  </si>
-  <si>
-    <t>Hudco Place</t>
-  </si>
-  <si>
-    <t>Aaryaman Gupta SHG</t>
-  </si>
-  <si>
-    <t>STATE BANK OF INDIA</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Aaryaman</t>
-  </si>
-  <si>
-    <t>25_01_2002</t>
-  </si>
-  <si>
-    <t>03_02_2022</t>
-  </si>
-  <si>
-    <t>02_08_2019</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Bunty</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Mentally Challenged</t>
-  </si>
-  <si>
-    <t>Pulok Sen Gupta</t>
-  </si>
-  <si>
-    <t>Pinku</t>
-  </si>
-  <si>
-    <t>Care taker</t>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Regular New</t>
+  </si>
+  <si>
+    <t>200000;-100;99999;200</t>
+  </si>
+  <si>
+    <t>Approves or Rejects all members.</t>
+  </si>
+  <si>
+    <t>Receipt Type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Mode of Recept</t>
+  </si>
+  <si>
+    <t>Cheque number</t>
+  </si>
+  <si>
+    <t>Payment Type</t>
+  </si>
+  <si>
+    <t>Cheque number/ Transaction number</t>
+  </si>
+  <si>
+    <t>MCP link</t>
+  </si>
+  <si>
+    <t>Proposed Amount</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Sanction Amount</t>
+  </si>
+  <si>
+    <t>Fund Source</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Request Valid up to</t>
   </si>
   <si>
     <t>Null</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Hindu</t>
-  </si>
-  <si>
-    <t>Bachelors Degree</t>
-  </si>
-  <si>
-    <t>Trading - all types</t>
-  </si>
-  <si>
-    <t>Organic Agriculture Activities</t>
-  </si>
-  <si>
-    <t>Manufacturing - Food Processing</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>MAIN BRANCH - MAIN BRANCH</t>
-  </si>
-  <si>
-    <t>Aadhaar</t>
-  </si>
-  <si>
-    <t>#536311420011</t>
-  </si>
-  <si>
-    <t>MNREGA ID</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>MCP cadre</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>#40256541473</t>
-  </si>
-  <si>
-    <t>Aaryaman Seth</t>
-  </si>
-  <si>
-    <t>Mother:9455120518</t>
-  </si>
-  <si>
-    <t>SBIN0000129</t>
-  </si>
-  <si>
-    <t>23_02_2024</t>
-  </si>
-  <si>
-    <t>#8646502</t>
-  </si>
-  <si>
-    <t>05_08_2024</t>
-  </si>
-  <si>
-    <t>23_01_2028</t>
-  </si>
-  <si>
-    <t>26_03_2026</t>
-  </si>
-  <si>
-    <t>Aaryaman  Sen</t>
-  </si>
-  <si>
-    <t>SBIN0000130</t>
-  </si>
-  <si>
-    <t>26_03_2027</t>
-  </si>
-  <si>
-    <t>BALAJI MAHILA SHG</t>
-  </si>
-  <si>
-    <t>22_02_2022</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>04_07_2019</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>VO</t>
-  </si>
-  <si>
-    <t>Share Capital</t>
-  </si>
-  <si>
-    <t>04_7_2019</t>
-  </si>
-  <si>
-    <t>Bank loan</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>VRF Grant</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>613 Bank Name</t>
-  </si>
-  <si>
-    <t>713 Transaction Number</t>
-  </si>
-  <si>
-    <t>PSIB01401000025848</t>
-  </si>
-  <si>
-    <t>aaryamangupta123</t>
-  </si>
-  <si>
-    <t>PSIBXXXXX848</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>http://103.248.60.224:9090/</t>
-  </si>
-  <si>
-    <t>Block Program Manager</t>
-  </si>
-  <si>
-    <t>IHR_HRBPM1</t>
-  </si>
-  <si>
-    <t>BPM SHG Approval</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Dell\\eclipse-workspace\\TestLokOS\\msedgedriver.exe</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Dell\\eclipse-workspace\\TestLokOS\\chromedriver.exe</t>
-  </si>
-  <si>
-    <t>Pradhan Mantri Suraksha Bima Yojana (PMSBY)</t>
-  </si>
-  <si>
-    <t>Aaryaman One SHG</t>
-  </si>
-  <si>
-    <t>Aaryaman   Sen Gupta</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Mother:9455120510</t>
-  </si>
-  <si>
-    <t>SBIN0000125</t>
-  </si>
-  <si>
-    <t>#40256541475</t>
-  </si>
-  <si>
-    <t>23_02_2020</t>
-  </si>
-  <si>
-    <t>#8646498</t>
-  </si>
-  <si>
-    <t>05_08_2020</t>
-  </si>
-  <si>
-    <t>23_01_2024</t>
-  </si>
-  <si>
-    <t>26_03_2022</t>
-  </si>
-  <si>
-    <t>Aaryaman Two</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>No disability</t>
-  </si>
-  <si>
-    <t>Mother:9455120514;Father:9455885272</t>
-  </si>
-  <si>
-    <t>SBIN0000126</t>
-  </si>
-  <si>
-    <t>23_02_2021</t>
-  </si>
-  <si>
-    <t>#8646499</t>
-  </si>
-  <si>
-    <t>05_08_2021</t>
-  </si>
-  <si>
-    <t>23_01_2025</t>
-  </si>
-  <si>
-    <t>26_03_2023</t>
-  </si>
-  <si>
-    <t>Aaryaman Two SHG</t>
-  </si>
-  <si>
-    <t>Aaryaman  Bannerji</t>
-  </si>
-  <si>
-    <t>Mother:9455120515</t>
-  </si>
-  <si>
-    <t>SBIN0000127</t>
-  </si>
-  <si>
-    <t>23_02_2022</t>
-  </si>
-  <si>
-    <t>#8646500</t>
-  </si>
-  <si>
-    <t>05_08_2022</t>
-  </si>
-  <si>
-    <t>23_01_2026</t>
-  </si>
-  <si>
-    <t>26_03_2024</t>
-  </si>
-  <si>
-    <t>Aaryaman Sud</t>
-  </si>
-  <si>
-    <t>Mother:9455120519;Father:9455885272</t>
-  </si>
-  <si>
-    <t>SBIN0000128</t>
-  </si>
-  <si>
-    <t>23_02_2023</t>
-  </si>
-  <si>
-    <t>#8646501</t>
-  </si>
-  <si>
-    <t>05_08_2023</t>
-  </si>
-  <si>
-    <t>23_01_2027</t>
-  </si>
-  <si>
-    <t>26_03_2025</t>
-  </si>
-  <si>
-    <t>ALAWLA</t>
-  </si>
-  <si>
-    <t>25_01_2016</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Co-opted</t>
-  </si>
-  <si>
-    <t>02_01_2012</t>
-  </si>
-  <si>
-    <t>05_06_2020</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>Special Class</t>
-  </si>
-  <si>
-    <t>Fortnightly</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Yes-External</t>
-  </si>
-  <si>
-    <t>#9455885271</t>
-  </si>
-  <si>
-    <t>Horticulture Activities</t>
-  </si>
-  <si>
-    <t>Other livestock rearing</t>
-  </si>
-  <si>
-    <t>NTFP Collection</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>SBIN0000131</t>
-  </si>
-  <si>
-    <t>Main Branch</t>
-  </si>
-  <si>
-    <t>#40256541490</t>
-  </si>
-  <si>
-    <t>02_01_2022</t>
-  </si>
-  <si>
-    <t>Aaryaman Seth:9455120510</t>
-  </si>
-  <si>
-    <t>SHG Meetings</t>
-  </si>
-  <si>
-    <t>Cutoff New</t>
-  </si>
-  <si>
-    <t>005 New</t>
-  </si>
-  <si>
-    <t>Attendance</t>
-  </si>
-  <si>
-    <t>Field ID =&gt;</t>
-  </si>
-  <si>
-    <t>Field Entry Protocol=&gt;</t>
-  </si>
-  <si>
-    <t>Approves or Rejects all members.(Approve/Reject)</t>
-  </si>
-  <si>
-    <t>Entry each test case seperated by semicolon(;) and the last case should be a perfect value</t>
-  </si>
-  <si>
-    <t>Compulsory Savings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1522,6 +1318,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1546,25 +1355,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFE8EAED"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1661,8 +1520,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1791,12 +1656,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1861,16 +1741,16 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,19 +1797,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2253,12 +2204,12 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="17" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
@@ -2281,27 +2232,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2309,7 +2260,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{DA0900E5-EA58-4FF8-9A5B-543CB4D817C6}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{74AFFBF8-8FC9-4CBA-B534-F92FC713A667}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2318,21 +2269,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
-  <dimension ref="A1:BI4"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1"/>
-    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.21875" style="1"/>
+    <col min="2" max="16384" width="15.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="8" customFormat="1" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" s="8" customFormat="1" ht="84" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2517,66 +2466,66 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="29.4" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>291</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>289</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>347</v>
+        <v>234</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>350</v>
+        <v>236</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>238</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>351</v>
+        <v>239</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>352</v>
+        <v>240</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="U2" s="1">
         <v>15</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="Z2" s="1">
         <v>300</v>
@@ -2585,112 +2534,98 @@
         <v>12</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AC2" s="1">
         <v>10</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="AJ2" s="1">
         <v>14</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AP2" s="1">
         <v>110049</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="AX2"/>
       <c r="AY2" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="47"/>
-    </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2701,23 +2636,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2AFBE2-8906-498D-ACCA-04BB80549CA6}">
-  <dimension ref="A1:BH7"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:CN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
-    <col min="2" max="32" width="16.44140625" style="1"/>
-    <col min="33" max="33" width="17.77734375" style="1" customWidth="1"/>
-    <col min="34" max="57" width="16.44140625" style="1"/>
-    <col min="58" max="58" width="16.44140625" style="31"/>
-    <col min="59" max="16384" width="16.44140625" style="1"/>
+    <col min="1" max="16384" width="16.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="41" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" s="41" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
@@ -2889,7 +2819,7 @@
       <c r="BE1" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="BF1" s="45" t="s">
+      <c r="BF1" s="39" t="s">
         <v>122</v>
       </c>
       <c r="BG1" s="39" t="s">
@@ -2899,994 +2829,301 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:92" ht="48.6" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>239</v>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>200</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
       </c>
       <c r="I2" s="1">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>247</v>
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1">
+        <v>900</v>
+      </c>
+      <c r="O2" s="1">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>100</v>
+      </c>
+      <c r="R2" s="1">
+        <v>400</v>
+      </c>
+      <c r="S2" s="1">
+        <v>700</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>250</v>
+        <v>270</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC2" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="Z2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>900</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>400</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>700</v>
+      </c>
       <c r="AH2" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>233</v>
+        <v>270</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>12</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>110053</v>
+        <v>271</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AN2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>900</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>400</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>700</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AO2" s="44" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>300</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>486426</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BS2" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ2" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BT2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>18</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>12</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>500</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CB2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC2" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BE2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BF2" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="1">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y3" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA3" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB3" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC3" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>110053</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AO3" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+      <c r="CD2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CE2" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AU3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ3" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC3" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF3" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I4" s="1">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y4" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA4" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB4" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC4" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>110049</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AO4" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ4" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC4" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BF4" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" ht="43.8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="1">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y5" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA5" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB5" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC5" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>110050</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AO5" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ5" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC5" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="BF5" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" s="1">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y6" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA6" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB6" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC6" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>110051</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO6" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ6" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC6" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="BF6" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" ht="43.8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I7" s="1">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y7" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA7" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB7" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC7" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>110052</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AO7" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ7" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC7" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="BF7" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>344</v>
+      <c r="CF2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D0630A-DD7A-4589-9BBC-71143BEF4715}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="28.8">
       <c r="A1" s="9" t="s">
         <v>124</v>
       </c>
@@ -3921,63 +3158,26 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{EB78B730-4B7C-49B0-9E70-0990F42B50BC}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{A15F4FFB-CE90-4E55-B9D7-405575B8924A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20210E06-3E75-475D-B896-50826558A690}">
-  <dimension ref="A1:CN2"/>
+  <dimension ref="A1:CO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.77734375" style="1"/>
+    <col min="2" max="16384" width="17.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:93" s="23" customFormat="1" ht="49.2" customHeight="1" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -4183,93 +3383,96 @@
         <v>198</v>
       </c>
       <c r="BQ1" s="24" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="BR1" s="24" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="BS1" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT1" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BU1" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BV1" s="24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BW1" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BX1" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BY1" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BZ1" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="CA1" s="24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="CB1" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="CC1" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="CD1" s="29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="CE1" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="CF1" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="CG1" s="30" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="CG1" s="29" t="s">
+        <v>215</v>
       </c>
       <c r="CH1" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="CI1" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ1" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="CJ1" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="CK1" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="CL1" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="CM1" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="CN1" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="CO1" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:93">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>369</v>
+        <v>266</v>
       </c>
       <c r="D2" s="1">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -4287,250 +3490,139 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L2" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M2" s="1">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="O2" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1">
         <v>10</v>
       </c>
       <c r="Q2" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R2" s="1">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="S2" s="1">
-        <v>700</v>
+        <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="V2" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Z2" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB2" s="1">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="1">
         <v>10</v>
       </c>
       <c r="AE2" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF2" s="1">
-        <v>400</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>700</v>
+        <v>60</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>12</v>
+        <v>270</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>500</v>
       </c>
       <c r="AN2" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AP2" s="1">
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="AQ2" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AR2" s="1">
         <v>10</v>
       </c>
       <c r="AS2" s="1">
+        <v>60</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AZ2" s="1">
         <v>100</v>
       </c>
-      <c r="AT2" s="1">
-        <v>400</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>700</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>500</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>300</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>100</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>5</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>486426</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>10</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>18</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>12</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>7</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>500</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CM2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4540,319 +3632,208 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CC76B-3EB4-4983-B402-C681A6237A86}">
-  <dimension ref="A1:CO4"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="5" width="12.6640625" style="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="1" width="4.77734375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="46" customWidth="1"/>
+    <col min="10" max="17" width="8.88671875" style="46"/>
+    <col min="18" max="18" width="11.109375" style="46" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="23" customFormat="1" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="13"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="30"/>
-      <c r="CI1" s="30"/>
-      <c r="CJ1" s="30"/>
-      <c r="CK1" s="15"/>
-      <c r="CL1" s="15"/>
-      <c r="CM1" s="15"/>
-      <c r="CN1" s="15"/>
-      <c r="CO1" s="15"/>
+    <row r="1" spans="1:25" s="58" customFormat="1" ht="75.599999999999994" customHeight="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
-    <row r="2" spans="1:93" s="23" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="15">
+    <row r="2" spans="1:25" s="66" customFormat="1" ht="17.399999999999999">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60">
+        <v>0</v>
+      </c>
+      <c r="C2" s="61">
+        <v>0</v>
+      </c>
+      <c r="D2" s="61">
+        <v>0</v>
+      </c>
+      <c r="E2" s="61">
+        <v>0</v>
+      </c>
+      <c r="F2" s="62">
         <v>1</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="63">
         <v>2</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="13"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="24"/>
-      <c r="BW2" s="24"/>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="24"/>
-      <c r="CD2" s="29"/>
-      <c r="CE2" s="29"/>
-      <c r="CF2" s="29"/>
-      <c r="CG2" s="29"/>
-      <c r="CH2" s="30"/>
-      <c r="CI2" s="30"/>
-      <c r="CJ2" s="30"/>
-      <c r="CK2" s="15"/>
-      <c r="CL2" s="15"/>
-      <c r="CM2" s="15"/>
-      <c r="CN2" s="15"/>
-      <c r="CO2" s="15"/>
+      <c r="H2" s="64">
+        <v>3</v>
+      </c>
+      <c r="I2" s="65">
+        <v>4</v>
+      </c>
+      <c r="J2" s="65">
+        <v>104</v>
+      </c>
+      <c r="K2" s="65">
+        <v>204</v>
+      </c>
+      <c r="L2" s="65">
+        <v>304</v>
+      </c>
+      <c r="M2" s="65">
+        <v>404</v>
+      </c>
+      <c r="N2" s="66">
+        <v>5</v>
+      </c>
+      <c r="S2" s="66">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:93" s="23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:25" s="73" customFormat="1" ht="69">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="13"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="28"/>
-      <c r="BG3" s="28"/>
-      <c r="BH3" s="28"/>
-      <c r="BI3" s="28"/>
-      <c r="BJ3" s="28"/>
-      <c r="BQ3" s="24"/>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="24"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="24"/>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="24"/>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="24"/>
-      <c r="CB3" s="24"/>
-      <c r="CD3" s="29"/>
-      <c r="CE3" s="29"/>
-      <c r="CF3" s="29"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="15"/>
-      <c r="CL3" s="15"/>
-      <c r="CM3" s="15"/>
-      <c r="CN3" s="15"/>
-      <c r="CO3" s="15"/>
+      <c r="F3" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="O3" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="P3" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="T3" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="U3" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="V3" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="W3" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="X3" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y3" s="73" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:25" ht="27">
+      <c r="A4" s="47">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>228</v>
+      <c r="B4" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="50">
+        <v>1</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="I4" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="I5" s="46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="I6" s="46" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD94178-A255-4E30-9345-887BC3475F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C47C1B-D6F9-4607-81D1-AFAAE52E6CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="436">
   <si>
     <t>App</t>
   </si>
@@ -1224,12 +1224,6 @@
     <t>MEERA MAHILA SHG</t>
   </si>
   <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Regular New</t>
-  </si>
-  <si>
     <t>200000;-100;99999;200</t>
   </si>
   <si>
@@ -1276,13 +1270,403 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Expected Error Message</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2999</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3999</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>000 Test</t>
+  </si>
+  <si>
+    <t>Regular Update</t>
+  </si>
+  <si>
+    <t>Fill all Cells</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>6999</t>
+  </si>
+  <si>
+    <t>Just one perfect row required.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>7999</t>
+  </si>
+  <si>
+    <t>Demand (Amount)</t>
+  </si>
+  <si>
+    <t>Demand (Purpose)</t>
+  </si>
+  <si>
+    <t>Request Valid Upto</t>
+  </si>
+  <si>
+    <t>Proposed EMI Amount</t>
+  </si>
+  <si>
+    <t>ATTENDANCE</t>
+  </si>
+  <si>
+    <t>COMPULSORY SAVINGS</t>
+  </si>
+  <si>
+    <t>LOAN REPAYMENT</t>
+  </si>
+  <si>
+    <t>SHARE CAPITAL</t>
+  </si>
+  <si>
+    <t>OTHER PAYMENTS</t>
+  </si>
+  <si>
+    <t>LOAN REQUESTS(ADD DEMAND)</t>
+  </si>
+  <si>
+    <t>LOAN REQUESTS(MCP)</t>
+  </si>
+  <si>
+    <t>LOAN DISBURSEMENT</t>
+  </si>
+  <si>
+    <t>WITHDRAWAL</t>
+  </si>
+  <si>
+    <t>GROUP INVESTMENT</t>
+  </si>
+  <si>
+    <t>NEW BORROWINGS</t>
+  </si>
+  <si>
+    <t>RECEIPT AND INCOME</t>
+  </si>
+  <si>
+    <t>EXPENDITURE AND PAYMENT</t>
+  </si>
+  <si>
+    <t>Fill the number of rows in the red Cell. Compulsory field.</t>
+  </si>
+  <si>
+    <t>5999</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>8999</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>10999</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1311</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>12999</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13999</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>14999</t>
+  </si>
+  <si>
+    <t>Loan Purpose</t>
+  </si>
+  <si>
+    <t>Mode of Receipt</t>
+  </si>
+  <si>
+    <t>Period (Months)</t>
+  </si>
+  <si>
+    <t>Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>Moratorium Period</t>
+  </si>
+  <si>
+    <t>Loan Repayment Frequency</t>
+  </si>
+  <si>
+    <t>Investment at</t>
+  </si>
+  <si>
+    <t>Type of Saving</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Loan Account No</t>
+  </si>
+  <si>
+    <t>Disbursal Date</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Type of Loan</t>
+  </si>
+  <si>
+    <t>Amount Withdrawn</t>
+  </si>
+  <si>
+    <t>Interest Rate (Annualy)</t>
+  </si>
+  <si>
+    <t>Received from</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>Loan Repayments</t>
+  </si>
+  <si>
+    <t>Paid To</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Mode of Payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,43 +1739,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="-apple-system"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
       <family val="2"/>
     </font>
     <font>
@@ -1403,14 +1759,22 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Bahnschrift SemiBold"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Bahnschrift SemiBold"/>
       <family val="2"/>
@@ -1419,11 +1783,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift SemiBold"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,6 +1919,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,7 +2078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1803,84 +2205,146 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2272,7 +2736,7 @@
   <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4"/>
@@ -2474,7 +2938,7 @@
         <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>289</v>
@@ -3165,10 +3629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20210E06-3E75-475D-B896-50826558A690}">
-  <dimension ref="A1:CO2"/>
+  <dimension ref="A1:CO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4"/>
@@ -3625,6 +4089,9 @@
         <v>283</v>
       </c>
     </row>
+    <row r="6" spans="1:93">
+      <c r="E6" s="93"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3632,211 +4099,987 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CC76B-3EB4-4983-B402-C681A6237A86}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:CF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="46" customWidth="1"/>
-    <col min="10" max="17" width="8.88671875" style="46"/>
-    <col min="18" max="18" width="11.109375" style="46" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="46"/>
+    <col min="1" max="5" width="17.109375" style="70"/>
+    <col min="6" max="6" width="20.33203125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="70" customWidth="1"/>
+    <col min="8" max="29" width="17.109375" style="70"/>
+    <col min="30" max="34" width="17.109375" style="75"/>
+    <col min="35" max="16384" width="17.109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="58" customFormat="1" ht="75.599999999999994" customHeight="1">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+    <row r="1" spans="1:84" s="85" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" s="81"/>
+      <c r="K1" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="92" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="92"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="92"/>
+      <c r="BN1" s="92"/>
+      <c r="BO1" s="92"/>
+      <c r="BP1" s="92"/>
+      <c r="BQ1" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="82"/>
+      <c r="BV1" s="82"/>
+      <c r="BW1" s="82"/>
+      <c r="BX1" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="BY1" s="83"/>
+      <c r="BZ1" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="CA1" s="80"/>
+      <c r="CB1" s="80"/>
+      <c r="CC1" s="80"/>
+      <c r="CD1" s="80"/>
+      <c r="CE1" s="80"/>
+      <c r="CF1" s="80"/>
+    </row>
+    <row r="2" spans="1:84" s="84" customFormat="1" ht="75.599999999999994" customHeight="1">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="59"/>
+      <c r="I2" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="S2" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="T2" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="U2" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="54"/>
+      <c r="W2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="X2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AP2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR2" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS2" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AW2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AY2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="89"/>
+      <c r="BG2" s="89"/>
+      <c r="BH2" s="89"/>
+      <c r="BI2" s="89"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="48"/>
+      <c r="BR2" s="48"/>
+      <c r="BS2" s="48"/>
+      <c r="BT2" s="48"/>
+      <c r="BU2" s="48"/>
+      <c r="BV2" s="48"/>
+      <c r="BW2" s="48"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="54"/>
+      <c r="BZ2" s="59"/>
+      <c r="CA2" s="59"/>
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="59"/>
+      <c r="CD2" s="59"/>
+      <c r="CE2" s="59"/>
+      <c r="CF2" s="59"/>
+    </row>
+    <row r="3" spans="1:84" s="50" customFormat="1" ht="17.399999999999999">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="R3" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="S3" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="T3" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="U3" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="V3" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="W3" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="X3" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y3" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z3" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA3" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB3" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC3" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD3" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE3" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF3" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG3" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH3" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI3" s="86" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ3" s="88" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK3" s="88" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL3" s="88" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM3" s="88" t="s">
+        <v>369</v>
+      </c>
+      <c r="AN3" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO3" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP3" s="88" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ3" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR3" s="88" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS3" s="87" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT3" s="87" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU3" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV3" s="74" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW3" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX3" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="AY3" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ3" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA3" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="BB3" s="90" t="s">
+        <v>384</v>
+      </c>
+      <c r="BC3" s="90" t="s">
+        <v>385</v>
+      </c>
+      <c r="BD3" s="90" t="s">
+        <v>386</v>
+      </c>
+      <c r="BE3" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="BF3" s="90" t="s">
+        <v>388</v>
+      </c>
+      <c r="BG3" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="BH3" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="BI3" s="90" t="s">
+        <v>391</v>
+      </c>
+      <c r="BJ3" s="90" t="s">
+        <v>392</v>
+      </c>
+      <c r="BK3" s="90" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL3" s="90" t="s">
+        <v>394</v>
+      </c>
+      <c r="BM3" s="90" t="s">
+        <v>395</v>
+      </c>
+      <c r="BN3" s="90" t="s">
+        <v>396</v>
+      </c>
+      <c r="BO3" s="90" t="s">
+        <v>397</v>
+      </c>
+      <c r="BP3" s="90" t="s">
+        <v>398</v>
+      </c>
+      <c r="BQ3" s="88" t="s">
+        <v>399</v>
+      </c>
+      <c r="BR3" s="88" t="s">
+        <v>400</v>
+      </c>
+      <c r="BS3" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="BT3" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="BU3" s="88" t="s">
+        <v>403</v>
+      </c>
+      <c r="BV3" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="BW3" s="88" t="s">
+        <v>405</v>
+      </c>
+      <c r="BX3" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="BY3" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="BZ3" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="CA3" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="CB3" s="74" t="s">
+        <v>410</v>
+      </c>
+      <c r="CC3" s="74" t="s">
+        <v>411</v>
+      </c>
+      <c r="CD3" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="CE3" s="74" t="s">
+        <v>413</v>
+      </c>
+      <c r="CF3" s="74" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84" s="47" customFormat="1" ht="41.4">
+      <c r="A4" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="M4" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="U4" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="W4" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="X4" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y4" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z4" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA4" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB4" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC4" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD4" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE4" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF4" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG4" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH4" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI4" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="AJ4" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK4" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL4" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM4" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN4" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="AO4" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP4" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="AQ4" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR4" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS4" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT4" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU4" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="AV4" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="AW4" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="AX4" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY4" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="AZ4" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="BA4" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="BB4" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="BC4" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="BD4" s="91" t="s">
+        <v>425</v>
+      </c>
+      <c r="BE4" s="91" t="s">
+        <v>426</v>
+      </c>
+      <c r="BF4" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG4" s="91" t="s">
+        <v>427</v>
+      </c>
+      <c r="BH4" s="91" t="s">
+        <v>428</v>
+      </c>
+      <c r="BI4" s="91" t="s">
+        <v>429</v>
+      </c>
+      <c r="BJ4" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="BK4" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="BL4" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="BM4" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="BN4" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="BO4" s="91" t="s">
+        <v>297</v>
+      </c>
+      <c r="BP4" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ4" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="BR4" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="BS4" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="BT4" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="BU4" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="BV4" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="BW4" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="BX4" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="BY4" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="BZ4" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="CA4" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="CB4" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="CC4" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="CD4" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="CE4" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="CF4" s="63" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" s="66" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60">
-        <v>0</v>
-      </c>
-      <c r="C2" s="61">
-        <v>0</v>
-      </c>
-      <c r="D2" s="61">
-        <v>0</v>
-      </c>
-      <c r="E2" s="61">
-        <v>0</v>
-      </c>
-      <c r="F2" s="62">
+    <row r="5" spans="1:84" ht="28.2">
+      <c r="A5" s="64">
         <v>1</v>
       </c>
-      <c r="G2" s="63">
-        <v>2</v>
-      </c>
-      <c r="H2" s="64">
-        <v>3</v>
-      </c>
-      <c r="I2" s="65">
-        <v>4</v>
-      </c>
-      <c r="J2" s="65">
-        <v>104</v>
-      </c>
-      <c r="K2" s="65">
-        <v>204</v>
-      </c>
-      <c r="L2" s="65">
-        <v>304</v>
-      </c>
-      <c r="M2" s="65">
-        <v>404</v>
-      </c>
-      <c r="N2" s="66">
-        <v>5</v>
-      </c>
-      <c r="S2" s="66">
-        <v>6</v>
-      </c>
+      <c r="B5" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV5" s="71"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="71"/>
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="71"/>
+      <c r="BA5" s="71"/>
+      <c r="BB5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="BC5" s="71"/>
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="71"/>
+      <c r="BF5" s="71"/>
+      <c r="BG5" s="71"/>
+      <c r="BH5" s="71"/>
+      <c r="BI5" s="71"/>
+      <c r="BJ5" s="71"/>
+      <c r="BK5" s="71"/>
+      <c r="BL5" s="71"/>
+      <c r="BM5" s="71"/>
+      <c r="BN5" s="71"/>
+      <c r="BO5" s="71"/>
+      <c r="BP5" s="71"/>
+      <c r="BQ5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="BR5" s="71"/>
+      <c r="BS5" s="71"/>
+      <c r="BT5" s="71"/>
+      <c r="BU5" s="71"/>
+      <c r="BV5" s="71"/>
+      <c r="BW5" s="71"/>
+      <c r="BX5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY5" s="71"/>
+      <c r="BZ5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="CA5" s="71"/>
+      <c r="CB5" s="71"/>
+      <c r="CC5" s="71"/>
+      <c r="CD5" s="71"/>
+      <c r="CE5" s="71"/>
+      <c r="CF5" s="71"/>
     </row>
-    <row r="3" spans="1:25" s="73" customFormat="1" ht="69">
-      <c r="A3" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>294</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="L3" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="M3" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="N3" s="73" t="s">
-        <v>298</v>
-      </c>
-      <c r="O3" s="73" t="s">
-        <v>295</v>
-      </c>
-      <c r="P3" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q3" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="R3" s="73" t="s">
-        <v>299</v>
-      </c>
-      <c r="S3" s="73" t="s">
-        <v>300</v>
-      </c>
-      <c r="T3" s="73" t="s">
-        <v>301</v>
-      </c>
-      <c r="U3" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="V3" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="W3" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="X3" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y3" s="73" t="s">
-        <v>306</v>
-      </c>
+    <row r="6" spans="1:84" ht="16.8">
+      <c r="K6" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="R6" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="S6" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="W6" s="72"/>
     </row>
-    <row r="4" spans="1:25" ht="27">
-      <c r="A4" s="47">
-        <v>1</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="I4" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="I5" s="46" t="s">
+    <row r="7" spans="1:84" ht="16.8">
+      <c r="K7" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="M7" s="70" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="I6" s="46" t="s">
-        <v>276</v>
+      <c r="Q7" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="R7" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="S7" s="70" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="BX1:BY1"/>
+    <mergeCell ref="BZ1:CF1"/>
+    <mergeCell ref="AJ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BB1:BP1"/>
+    <mergeCell ref="BQ1:BW1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AE1:AI1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C47C1B-D6F9-4607-81D1-AFAAE52E6CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39739FAD-3D01-40D1-8E5D-6B496C5C9B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-19310" yWindow="-530" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="437">
   <si>
     <t>App</t>
   </si>
@@ -1660,6 +1660,9 @@
   </si>
   <si>
     <t>Mode of Payment</t>
+  </si>
+  <si>
+    <t>Source Bank</t>
   </si>
 </sst>
 </file>
@@ -2305,47 +2308,47 @@
     <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4090,7 +4093,7 @@
       </c>
     </row>
     <row r="6" spans="1:93">
-      <c r="E6" s="93"/>
+      <c r="E6" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4099,15 +4102,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CC76B-3EB4-4983-B402-C681A6237A86}">
-  <dimension ref="A1:CF7"/>
+  <dimension ref="A1:CH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="5" width="17.109375" style="70"/>
+    <col min="1" max="1" width="5.88671875" style="70" customWidth="1"/>
+    <col min="2" max="5" width="17.109375" style="70"/>
     <col min="6" max="6" width="20.33203125" style="70" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" style="70" customWidth="1"/>
     <col min="8" max="29" width="17.109375" style="70"/>
@@ -4115,7 +4119,7 @@
     <col min="35" max="16384" width="17.109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="85" customFormat="1" ht="25.8" customHeight="1">
+    <row r="1" spans="1:86" s="81" customFormat="1" ht="25.8" customHeight="1">
       <c r="A1" s="76"/>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -4124,76 +4128,76 @@
       <c r="F1" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82" t="s">
+      <c r="J1" s="93"/>
+      <c r="K1" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="83" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
       <c r="V1" s="78"/>
-      <c r="W1" s="80" t="s">
+      <c r="W1" s="90" t="s">
         <v>356</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
       <c r="AD1" s="79"/>
-      <c r="AE1" s="81" t="s">
+      <c r="AE1" s="93" t="s">
         <v>357</v>
       </c>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="82" t="s">
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="83" t="s">
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="80" t="s">
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="92" t="s">
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="92" t="s">
         <v>361</v>
       </c>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="92"/>
       <c r="BE1" s="92"/>
       <c r="BF1" s="92"/>
       <c r="BG1" s="92"/>
@@ -4206,30 +4210,32 @@
       <c r="BN1" s="92"/>
       <c r="BO1" s="92"/>
       <c r="BP1" s="92"/>
-      <c r="BQ1" s="82" t="s">
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="92"/>
+      <c r="BS1" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="82"/>
-      <c r="BT1" s="82"/>
-      <c r="BU1" s="82"/>
-      <c r="BV1" s="82"/>
-      <c r="BW1" s="82"/>
-      <c r="BX1" s="83" t="s">
+      <c r="BT1" s="91"/>
+      <c r="BU1" s="91"/>
+      <c r="BV1" s="91"/>
+      <c r="BW1" s="91"/>
+      <c r="BX1" s="91"/>
+      <c r="BY1" s="91"/>
+      <c r="BZ1" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="80" t="s">
+      <c r="CA1" s="89"/>
+      <c r="CB1" s="90" t="s">
         <v>363</v>
       </c>
-      <c r="CA1" s="80"/>
-      <c r="CB1" s="80"/>
-      <c r="CC1" s="80"/>
-      <c r="CD1" s="80"/>
-      <c r="CE1" s="80"/>
-      <c r="CF1" s="80"/>
+      <c r="CC1" s="90"/>
+      <c r="CD1" s="90"/>
+      <c r="CE1" s="90"/>
+      <c r="CF1" s="90"/>
+      <c r="CG1" s="90"/>
+      <c r="CH1" s="90"/>
     </row>
-    <row r="2" spans="1:84" s="84" customFormat="1" ht="75.599999999999994" customHeight="1">
+    <row r="2" spans="1:86" s="80" customFormat="1" ht="75.599999999999994" customHeight="1">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -4340,16 +4346,16 @@
       <c r="AR2" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="AS2" s="54" t="s">
+      <c r="AS2" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AT2" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="AV2" s="59" t="s">
+      <c r="AU2" s="54" t="s">
         <v>341</v>
       </c>
+      <c r="AV2" s="54"/>
       <c r="AW2" s="59" t="s">
         <v>341</v>
       </c>
@@ -4362,40 +4368,46 @@
       <c r="AZ2" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="89"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="89"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="89"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="89"/>
-      <c r="BM2" s="89"/>
-      <c r="BN2" s="89"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="89"/>
-      <c r="BQ2" s="48"/>
-      <c r="BR2" s="48"/>
+      <c r="BA2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="85"/>
+      <c r="BG2" s="85"/>
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="85"/>
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="85"/>
+      <c r="BL2" s="85"/>
+      <c r="BM2" s="85"/>
+      <c r="BN2" s="85"/>
+      <c r="BO2" s="85"/>
+      <c r="BP2" s="85"/>
+      <c r="BQ2" s="85"/>
+      <c r="BR2" s="85"/>
       <c r="BS2" s="48"/>
       <c r="BT2" s="48"/>
       <c r="BU2" s="48"/>
       <c r="BV2" s="48"/>
       <c r="BW2" s="48"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="54"/>
-      <c r="BZ2" s="59"/>
-      <c r="CA2" s="59"/>
+      <c r="BX2" s="48"/>
+      <c r="BY2" s="48"/>
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
       <c r="CB2" s="59"/>
       <c r="CC2" s="59"/>
       <c r="CD2" s="59"/>
       <c r="CE2" s="59"/>
       <c r="CF2" s="59"/>
+      <c r="CG2" s="59"/>
+      <c r="CH2" s="59"/>
     </row>
-    <row r="3" spans="1:84" s="50" customFormat="1" ht="17.399999999999999">
+    <row r="3" spans="1:86" s="50" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="45"/>
       <c r="B3" s="45" t="s">
         <v>309</v>
@@ -4496,158 +4508,164 @@
       <c r="AH3" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="AI3" s="86" t="s">
+      <c r="AI3" s="82" t="s">
         <v>346</v>
       </c>
-      <c r="AJ3" s="88" t="s">
+      <c r="AJ3" s="84" t="s">
         <v>366</v>
       </c>
-      <c r="AK3" s="88" t="s">
+      <c r="AK3" s="84" t="s">
         <v>367</v>
       </c>
-      <c r="AL3" s="88" t="s">
+      <c r="AL3" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="AM3" s="88" t="s">
+      <c r="AM3" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="AN3" s="88" t="s">
+      <c r="AN3" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="AO3" s="88" t="s">
+      <c r="AO3" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="AP3" s="88" t="s">
+      <c r="AP3" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="AQ3" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR3" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="AQ3" s="88" t="s">
+      <c r="AS3" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="AR3" s="88" t="s">
+      <c r="AT3" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="AS3" s="87" t="s">
+      <c r="AU3" s="83" t="s">
         <v>375</v>
       </c>
-      <c r="AT3" s="87" t="s">
+      <c r="AV3" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="AU3" s="74" t="s">
+      <c r="AW3" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="AV3" s="74" t="s">
+      <c r="AX3" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="AW3" s="74" t="s">
+      <c r="AY3" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="AX3" s="74" t="s">
+      <c r="AZ3" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="AY3" s="74" t="s">
+      <c r="BA3" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="AZ3" s="74" t="s">
+      <c r="BB3" s="74" t="s">
         <v>382</v>
       </c>
-      <c r="BA3" s="74" t="s">
+      <c r="BC3" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="BB3" s="90" t="s">
+      <c r="BD3" s="86" t="s">
         <v>384</v>
       </c>
-      <c r="BC3" s="90" t="s">
+      <c r="BE3" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="BD3" s="90" t="s">
+      <c r="BF3" s="86" t="s">
         <v>386</v>
       </c>
-      <c r="BE3" s="90" t="s">
+      <c r="BG3" s="86" t="s">
         <v>387</v>
       </c>
-      <c r="BF3" s="90" t="s">
+      <c r="BH3" s="86" t="s">
         <v>388</v>
       </c>
-      <c r="BG3" s="90" t="s">
+      <c r="BI3" s="86" t="s">
         <v>389</v>
       </c>
-      <c r="BH3" s="90" t="s">
+      <c r="BJ3" s="86" t="s">
         <v>390</v>
       </c>
-      <c r="BI3" s="90" t="s">
+      <c r="BK3" s="86" t="s">
         <v>391</v>
       </c>
-      <c r="BJ3" s="90" t="s">
+      <c r="BL3" s="86" t="s">
         <v>392</v>
       </c>
-      <c r="BK3" s="90" t="s">
+      <c r="BM3" s="86" t="s">
         <v>393</v>
       </c>
-      <c r="BL3" s="90" t="s">
+      <c r="BN3" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="BM3" s="90" t="s">
+      <c r="BO3" s="86" t="s">
         <v>395</v>
       </c>
-      <c r="BN3" s="90" t="s">
+      <c r="BP3" s="86" t="s">
         <v>396</v>
       </c>
-      <c r="BO3" s="90" t="s">
+      <c r="BQ3" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="BP3" s="90" t="s">
+      <c r="BR3" s="86" t="s">
         <v>398</v>
       </c>
-      <c r="BQ3" s="88" t="s">
+      <c r="BS3" s="84" t="s">
         <v>399</v>
       </c>
-      <c r="BR3" s="88" t="s">
+      <c r="BT3" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="BS3" s="88" t="s">
+      <c r="BU3" s="84" t="s">
         <v>401</v>
       </c>
-      <c r="BT3" s="88" t="s">
+      <c r="BV3" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="BU3" s="88" t="s">
+      <c r="BW3" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="BV3" s="88" t="s">
+      <c r="BX3" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="BW3" s="88" t="s">
+      <c r="BY3" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="BX3" s="87" t="s">
+      <c r="BZ3" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="BY3" s="87" t="s">
+      <c r="CA3" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="BZ3" s="74" t="s">
+      <c r="CB3" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="CA3" s="74" t="s">
+      <c r="CC3" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="CB3" s="74" t="s">
+      <c r="CD3" s="74" t="s">
         <v>410</v>
       </c>
-      <c r="CC3" s="74" t="s">
+      <c r="CE3" s="74" t="s">
         <v>411</v>
       </c>
-      <c r="CD3" s="74" t="s">
+      <c r="CF3" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="CE3" s="74" t="s">
+      <c r="CG3" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="CF3" s="74" t="s">
+      <c r="CH3" s="74" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:84" s="47" customFormat="1" ht="41.4">
+    <row r="4" spans="1:86" s="47" customFormat="1" ht="41.4">
       <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
@@ -4766,142 +4784,148 @@
         <v>416</v>
       </c>
       <c r="AN4" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO4" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP4" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="AO4" s="46" t="s">
+      <c r="AQ4" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="AP4" s="46" t="s">
+      <c r="AR4" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="AQ4" s="46" t="s">
+      <c r="AS4" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="AR4" s="46" t="s">
+      <c r="AT4" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="AS4" s="56" t="s">
+      <c r="AU4" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="AT4" s="56" t="s">
+      <c r="AV4" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="AU4" s="63" t="s">
+      <c r="AW4" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="AV4" s="63" t="s">
+      <c r="AX4" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="AW4" s="63" t="s">
+      <c r="AY4" s="63" t="s">
         <v>416</v>
       </c>
-      <c r="AX4" s="63" t="s">
+      <c r="AZ4" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="AY4" s="63" t="s">
+      <c r="BA4" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="AZ4" s="63" t="s">
+      <c r="BB4" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="BA4" s="63" t="s">
+      <c r="BC4" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="BB4" s="91" t="s">
+      <c r="BD4" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="BC4" s="91" t="s">
+      <c r="BE4" s="87" t="s">
         <v>424</v>
       </c>
-      <c r="BD4" s="91" t="s">
+      <c r="BF4" s="87" t="s">
         <v>425</v>
       </c>
-      <c r="BE4" s="91" t="s">
+      <c r="BG4" s="87" t="s">
         <v>426</v>
       </c>
-      <c r="BF4" s="91" t="s">
+      <c r="BH4" s="87" t="s">
         <v>302</v>
       </c>
-      <c r="BG4" s="91" t="s">
+      <c r="BI4" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="BH4" s="91" t="s">
+      <c r="BJ4" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="BI4" s="91" t="s">
+      <c r="BK4" s="87" t="s">
         <v>429</v>
       </c>
-      <c r="BJ4" s="91" t="s">
+      <c r="BL4" s="87" t="s">
         <v>417</v>
       </c>
-      <c r="BK4" s="91" t="s">
+      <c r="BM4" s="87" t="s">
         <v>419</v>
       </c>
-      <c r="BL4" s="91" t="s">
+      <c r="BN4" s="87" t="s">
         <v>420</v>
       </c>
-      <c r="BM4" s="91" t="s">
+      <c r="BO4" s="87" t="s">
         <v>416</v>
       </c>
-      <c r="BN4" s="91" t="s">
+      <c r="BP4" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="BO4" s="91" t="s">
+      <c r="BQ4" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="BP4" s="91" t="s">
+      <c r="BR4" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="BQ4" s="46" t="s">
+      <c r="BS4" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="BR4" s="46" t="s">
+      <c r="BT4" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="BS4" s="46" t="s">
+      <c r="BU4" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="BT4" s="46" t="s">
+      <c r="BV4" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="BU4" s="46" t="s">
+      <c r="BW4" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="BV4" s="46" t="s">
+      <c r="BX4" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="BW4" s="46" t="s">
+      <c r="BY4" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="BX4" s="56" t="s">
+      <c r="BZ4" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="BY4" s="56" t="s">
+      <c r="CA4" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="BZ4" s="63" t="s">
+      <c r="CB4" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="CA4" s="63" t="s">
+      <c r="CC4" s="63" t="s">
         <v>434</v>
       </c>
-      <c r="CB4" s="63" t="s">
+      <c r="CD4" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="CC4" s="63" t="s">
+      <c r="CE4" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="CD4" s="63" t="s">
+      <c r="CF4" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="CE4" s="63" t="s">
+      <c r="CG4" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="CF4" s="63" t="s">
+      <c r="CH4" s="63" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="28.2">
+    <row r="5" spans="1:86" ht="28.2">
       <c r="A5" s="64">
         <v>1</v>
       </c>
@@ -4970,24 +4994,24 @@
       <c r="AP5" s="71"/>
       <c r="AQ5" s="71"/>
       <c r="AR5" s="71"/>
-      <c r="AS5" s="66" t="s">
-        <v>310</v>
-      </c>
+      <c r="AS5" s="71"/>
       <c r="AT5" s="71"/>
       <c r="AU5" s="66" t="s">
         <v>310</v>
       </c>
       <c r="AV5" s="71"/>
-      <c r="AW5" s="71"/>
+      <c r="AW5" s="66" t="s">
+        <v>310</v>
+      </c>
       <c r="AX5" s="71"/>
       <c r="AY5" s="71"/>
       <c r="AZ5" s="71"/>
       <c r="BA5" s="71"/>
-      <c r="BB5" s="66" t="s">
+      <c r="BB5" s="71"/>
+      <c r="BC5" s="71"/>
+      <c r="BD5" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
       <c r="BE5" s="71"/>
       <c r="BF5" s="71"/>
       <c r="BG5" s="71"/>
@@ -5000,30 +5024,32 @@
       <c r="BN5" s="71"/>
       <c r="BO5" s="71"/>
       <c r="BP5" s="71"/>
-      <c r="BQ5" s="66" t="s">
+      <c r="BQ5" s="71"/>
+      <c r="BR5" s="71"/>
+      <c r="BS5" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="BR5" s="71"/>
-      <c r="BS5" s="71"/>
       <c r="BT5" s="71"/>
       <c r="BU5" s="71"/>
       <c r="BV5" s="71"/>
       <c r="BW5" s="71"/>
-      <c r="BX5" s="66" t="s">
-        <v>310</v>
-      </c>
+      <c r="BX5" s="71"/>
       <c r="BY5" s="71"/>
       <c r="BZ5" s="66" t="s">
         <v>310</v>
       </c>
       <c r="CA5" s="71"/>
-      <c r="CB5" s="71"/>
+      <c r="CB5" s="66" t="s">
+        <v>310</v>
+      </c>
       <c r="CC5" s="71"/>
       <c r="CD5" s="71"/>
       <c r="CE5" s="71"/>
       <c r="CF5" s="71"/>
+      <c r="CG5" s="71"/>
+      <c r="CH5" s="71"/>
     </row>
-    <row r="6" spans="1:84" ht="16.8">
+    <row r="6" spans="1:86" ht="16.8">
       <c r="K6" s="73" t="s">
         <v>322</v>
       </c>
@@ -5044,7 +5070,7 @@
       </c>
       <c r="W6" s="72"/>
     </row>
-    <row r="7" spans="1:84" ht="16.8">
+    <row r="7" spans="1:86" ht="16.8">
       <c r="K7" s="73" t="s">
         <v>323</v>
       </c>
@@ -5066,21 +5092,24 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BX1:BY1"/>
-    <mergeCell ref="BZ1:CF1"/>
-    <mergeCell ref="AJ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BB1:BP1"/>
-    <mergeCell ref="BQ1:BW1"/>
+    <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="BZ1:CA1"/>
+    <mergeCell ref="CB1:CH1"/>
+    <mergeCell ref="AJ1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="BD1:BR1"/>
+    <mergeCell ref="BS1:BY1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="BZ5 CB5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39739FAD-3D01-40D1-8E5D-6B496C5C9B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52E1D9D-8E26-4108-99AA-BC1C518C6FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-530" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,8 @@
  -&gt;Uploads on App and then goes to Web
 6) Status
  -&gt;Do not fill other fields
-7) SHG Meetings</t>
+7) SHG Meetings
+8) Web</t>
         </r>
       </text>
     </comment>
@@ -352,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="511">
   <si>
     <t>App</t>
   </si>
@@ -567,9 +568,6 @@
     <t>003 Gender</t>
   </si>
   <si>
-    <t>004 Is Member Date of Birth Availble</t>
-  </si>
-  <si>
     <t>104 DOB (Yes)</t>
   </si>
   <si>
@@ -1041,12 +1039,6 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>LokOS_2.0.31.apk</t>
-  </si>
-  <si>
-    <t>SHG Meetings</t>
-  </si>
-  <si>
     <t>BALAJI MAHILA SHG</t>
   </si>
   <si>
@@ -1110,9 +1102,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Aaryaman Seth:9455120510</t>
-  </si>
-  <si>
     <t>Transit Flats</t>
   </si>
   <si>
@@ -1143,9 +1132,6 @@
     <t>02_01_2022</t>
   </si>
   <si>
-    <t>Aaryaman  Sen</t>
-  </si>
-  <si>
     <t>Aaryaman Two</t>
   </si>
   <si>
@@ -1161,9 +1147,6 @@
     <t>RF</t>
   </si>
   <si>
-    <t>04_7_2019</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -1179,30 +1162,12 @@
     <t>Share Capital</t>
   </si>
   <si>
-    <t>Bank loan</t>
-  </si>
-  <si>
     <t>Bank</t>
   </si>
   <si>
-    <t>CCL</t>
-  </si>
-  <si>
     <t>04_07_2019</t>
   </si>
   <si>
-    <t>PSIB01401000025848</t>
-  </si>
-  <si>
-    <t>aaryamangupta123</t>
-  </si>
-  <si>
-    <t>VRF Grant</t>
-  </si>
-  <si>
-    <t>PSIBXXXXX848</t>
-  </si>
-  <si>
     <t>CLF</t>
   </si>
   <si>
@@ -1224,9 +1189,6 @@
     <t>MEERA MAHILA SHG</t>
   </si>
   <si>
-    <t>200000;-100;99999;200</t>
-  </si>
-  <si>
     <t>Approves or Rejects all members.</t>
   </si>
   <si>
@@ -1335,9 +1297,6 @@
     <t>000 Test</t>
   </si>
   <si>
-    <t>Regular Update</t>
-  </si>
-  <si>
     <t>Fill all Cells</t>
   </si>
   <si>
@@ -1663,13 +1622,277 @@
   </si>
   <si>
     <t>Source Bank</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>999999</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>http://103.248.60.224:9090/</t>
+  </si>
+  <si>
+    <t>Block Program Manager</t>
+  </si>
+  <si>
+    <t>IHR_HRBPM1</t>
+  </si>
+  <si>
+    <t>BPM SHG Approval</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Dell\\eclipse-workspace\\TestLokOS\\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>Approve SHG</t>
+  </si>
+  <si>
+    <t>C:\Users\Dell\eclipse-workspace\LokOSMain\WebDrivers\\msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>LokOS_2.0.32.1.apk</t>
+  </si>
+  <si>
+    <t>New SHG</t>
+  </si>
+  <si>
+    <t>Haryana Test SHG</t>
+  </si>
+  <si>
+    <t>Aaryaman</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>25_01_2002</t>
+  </si>
+  <si>
+    <t>03_02_2022</t>
+  </si>
+  <si>
+    <t>02_08_2019</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Bunty</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Mentally Challenged</t>
+  </si>
+  <si>
+    <t>Pulok Sen Gupta</t>
+  </si>
+  <si>
+    <t>Pinku</t>
+  </si>
+  <si>
+    <t>Care taker</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Bachelors Degree</t>
+  </si>
+  <si>
+    <t>Trading - all types</t>
+  </si>
+  <si>
+    <t>Organic Agriculture Activities</t>
+  </si>
+  <si>
+    <t>Manufacturing - Food Processing</t>
+  </si>
+  <si>
+    <t>Mother:9455120510</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>SBIN0000125</t>
+  </si>
+  <si>
+    <t>MAIN BRANCH - MAIN BRANCH</t>
+  </si>
+  <si>
+    <t>#40256541475</t>
+  </si>
+  <si>
+    <t>#536311420011</t>
+  </si>
+  <si>
+    <t>MNREGA ID</t>
+  </si>
+  <si>
+    <t>#8646498</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>MCP cadre</t>
+  </si>
+  <si>
+    <t>05_08_2020</t>
+  </si>
+  <si>
+    <t>23_01_2024</t>
+  </si>
+  <si>
+    <t>26_03_2022</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>No disability</t>
+  </si>
+  <si>
+    <t>Mother:9455120514;Father:9455885272</t>
+  </si>
+  <si>
+    <t>SBIN0000126</t>
+  </si>
+  <si>
+    <t>#40256541473</t>
+  </si>
+  <si>
+    <t>23_02_2021</t>
+  </si>
+  <si>
+    <t>#8646499</t>
+  </si>
+  <si>
+    <t>05_08_2021</t>
+  </si>
+  <si>
+    <t>23_01_2025</t>
+  </si>
+  <si>
+    <t>26_03_2023</t>
+  </si>
+  <si>
+    <t>Aaryaman  Bannerji</t>
+  </si>
+  <si>
+    <t>Mother:9455120515</t>
+  </si>
+  <si>
+    <t>SBIN0000127</t>
+  </si>
+  <si>
+    <t>23_02_2022</t>
+  </si>
+  <si>
+    <t>#8646500</t>
+  </si>
+  <si>
+    <t>05_08_2022</t>
+  </si>
+  <si>
+    <t>23_01_2026</t>
+  </si>
+  <si>
+    <t>26_03_2024</t>
+  </si>
+  <si>
+    <t>Aaryaman Sud</t>
+  </si>
+  <si>
+    <t>Mother:9455120519;Father:9455885272</t>
+  </si>
+  <si>
+    <t>SBIN0000128</t>
+  </si>
+  <si>
+    <t>23_02_2023</t>
+  </si>
+  <si>
+    <t>#8646501</t>
+  </si>
+  <si>
+    <t>05_08_2023</t>
+  </si>
+  <si>
+    <t>23_01_2027</t>
+  </si>
+  <si>
+    <t>26_03_2025</t>
+  </si>
+  <si>
+    <t>Mother:9455120518</t>
+  </si>
+  <si>
+    <t>SBIN0000129</t>
+  </si>
+  <si>
+    <t>23_02_2024</t>
+  </si>
+  <si>
+    <t>#8646502</t>
+  </si>
+  <si>
+    <t>05_08_2024</t>
+  </si>
+  <si>
+    <t>23_01_2028</t>
+  </si>
+  <si>
+    <t>26_03_2026</t>
+  </si>
+  <si>
+    <t>Aaryaman Sen Gupta</t>
+  </si>
+  <si>
+    <t>Aaryaman Sen Gupta:9455120510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004 Is Member Date of Birth Available    </t>
+  </si>
+  <si>
+    <t>VoterID</t>
+  </si>
+  <si>
+    <t>Pradhan Mantri Suraksha Bima Yojana (PMSBY)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1740,11 +1963,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="-apple-system"/>
     </font>
     <font>
       <i/>
@@ -1821,8 +2039,20 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1921,18 +2151,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2061,27 +2285,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2208,148 +2417,153 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2668,7 +2882,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
@@ -2699,27 +2913,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>228</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>229</v>
+        <v>436</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2738,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4"/>
@@ -2933,66 +3147,66 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="29.4" thickBot="1">
+    <row r="2" spans="1:61" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>437</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>289</v>
+        <v>434</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>438</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="O2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="P2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="U2" s="1">
         <v>15</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z2" s="1">
         <v>300</v>
@@ -3001,120 +3215,122 @@
         <v>12</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AC2" s="1">
         <v>10</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AJ2" s="1">
         <v>14</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>252</v>
+        <v>507</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AP2" s="1">
         <v>110049</v>
       </c>
       <c r="AQ2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="AX2"/>
       <c r="AY2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>261</v>
+        <v>506</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>264</v>
+        <v>483</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2AFBE2-8906-498D-ACCA-04BB80549CA6}">
-  <dimension ref="A1:CN2"/>
+  <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:CN2"/>
+      <selection activeCell="BF2" sqref="BF2:BF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="16.44140625" style="1"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="16.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="41" customFormat="1" ht="48.6" customHeight="1">
+    <row r="1" spans="1:60" s="41" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
@@ -3134,498 +3350,1067 @@
         <v>70</v>
       </c>
       <c r="G1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="W1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="X1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Z1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AA1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AB1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AC1" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AD1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AE1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AF1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AG1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AH1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AI1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AK1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AL1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" s="39" t="s">
+      <c r="AM1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="39" t="s">
+      <c r="AN1" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AO1" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AP1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AQ1" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AR1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="AS1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="39" t="s">
+      <c r="AT1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="AT1" s="39" t="s">
+      <c r="AU1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="AU1" s="39" t="s">
+      <c r="AV1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="AV1" s="39" t="s">
+      <c r="AW1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="AW1" s="39" t="s">
+      <c r="AX1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="AX1" s="39" t="s">
+      <c r="AY1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="AY1" s="39" t="s">
+      <c r="AZ1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="AZ1" s="39" t="s">
+      <c r="BA1" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="BA1" s="39" t="s">
+      <c r="BB1" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="BB1" s="39" t="s">
+      <c r="BC1" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="BC1" s="39" t="s">
+      <c r="BD1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="BD1" s="39" t="s">
+      <c r="BE1" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="BE1" s="39" t="s">
+      <c r="BF1" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="BF1" s="39" t="s">
+      <c r="BG1" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="BG1" s="39" t="s">
-        <v>123</v>
       </c>
       <c r="BH1" s="40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:92" ht="48.6" customHeight="1">
+    <row r="2" spans="1:60" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13</v>
+        <v>261</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
+        <v>439</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="I2" s="1">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K2" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y2" s="95" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA2" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB2" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC2" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AO2" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ2" s="95" t="s">
+        <v>465</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BC2" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="BF2" s="96" t="s">
+        <v>510</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" ht="43.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I3" s="1">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K3" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y3" s="95" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA3" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB3" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC3" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>110050</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AO3" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ3" s="95" t="s">
+        <v>465</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BC3" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="BF3" s="96" t="s">
+        <v>510</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" ht="28.8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="1">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y4" s="95" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA4" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB4" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC4" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>110051</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AO4" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ4" s="95" t="s">
+        <v>465</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BC4" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="BF4" s="96" t="s">
+        <v>510</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" ht="43.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" s="1">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K5" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y5" s="95" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA5" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB5" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC5" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>110052</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AO5" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ5" s="95" t="s">
+        <v>465</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BC5" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF5" s="96" t="s">
+        <v>510</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="28.8">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
-        <v>100</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1">
-        <v>900</v>
-      </c>
-      <c r="O2" s="1">
-        <v>200</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>100</v>
-      </c>
-      <c r="R2" s="1">
-        <v>400</v>
-      </c>
-      <c r="S2" s="1">
-        <v>700</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>900</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>200</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>400</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>700</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>900</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>200</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>400</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>700</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>300</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>100</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>5</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>486426</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>10</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>18</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>12</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>7</v>
-      </c>
-      <c r="BY2" s="1">
+      <c r="B6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I6" s="1">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K6" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y6" s="95" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA6" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB6" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC6" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>110053</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="BZ2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CM2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>278</v>
+      <c r="AO6" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ6" s="95" t="s">
+        <v>465</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BC6" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="BF6" s="96" t="s">
+        <v>510</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D0630A-DD7A-4589-9BBC-71143BEF4715}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="21.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="28.8">
+    <row r="1" spans="1:11" s="12" customFormat="1">
       <c r="A1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>133</v>
+    </row>
+    <row r="2" spans="1:11" ht="57.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{7815BB56-2F28-4BE0-BD2C-E89A9BCD1138}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{D8A0F470-BAA0-4739-8861-D854FD8EE06C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3655,274 +4440,274 @@
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AE1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AI1" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AK1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AL1" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AM1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="AP1" s="25" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="AQ1" s="25" t="s">
+      <c r="AR1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="AR1" s="25" t="s">
+      <c r="AS1" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="AS1" s="25" t="s">
+      <c r="AT1" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="AT1" s="25" t="s">
+      <c r="AU1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="AU1" s="25" t="s">
+      <c r="AV1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="AV1" s="25" t="s">
+      <c r="AW1" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="AW1" s="25" t="s">
+      <c r="AX1" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="AX1" s="25" t="s">
+      <c r="AY1" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AY1" s="25" t="s">
+      <c r="AZ1" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="AZ1" s="25" t="s">
+      <c r="BA1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="BA1" s="26" t="s">
+      <c r="BB1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BC1" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BD1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="BE1" s="27" t="s">
+      <c r="BF1" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="BF1" s="28" t="s">
+      <c r="BG1" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="BG1" s="28" t="s">
+      <c r="BH1" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="BH1" s="28" t="s">
+      <c r="BI1" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="BI1" s="28" t="s">
+      <c r="BJ1" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="BJ1" s="28" t="s">
+      <c r="BK1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BL1" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="BL1" s="23" t="s">
+      <c r="BM1" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BN1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="BN1" s="23" t="s">
+      <c r="BO1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="BO1" s="23" t="s">
+      <c r="BP1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="BP1" s="23" t="s">
+      <c r="BQ1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="BQ1" s="24" t="s">
+      <c r="BR1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="BR1" s="24" t="s">
+      <c r="BS1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="BS1" s="24" t="s">
+      <c r="BT1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="BT1" s="24" t="s">
+      <c r="BU1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="BU1" s="24" t="s">
+      <c r="BV1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="BV1" s="24" t="s">
+      <c r="BW1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="BW1" s="24" t="s">
+      <c r="BX1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="BX1" s="24" t="s">
+      <c r="BY1" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="BY1" s="24" t="s">
+      <c r="BZ1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="BZ1" s="24" t="s">
+      <c r="CA1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="CA1" s="24" t="s">
+      <c r="CB1" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="CB1" s="24" t="s">
+      <c r="CC1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="CC1" s="23" t="s">
+      <c r="CD1" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="CD1" s="29" t="s">
+      <c r="CE1" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="CE1" s="29" t="s">
+      <c r="CF1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="CF1" s="29" t="s">
+      <c r="CG1" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="CG1" s="29" t="s">
+      <c r="CH1" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="CH1" s="30" t="s">
+      <c r="CI1" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="CI1" s="30" t="s">
+      <c r="CJ1" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="CJ1" s="30" t="s">
+      <c r="CK1" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CL1" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="CL1" s="15" t="s">
+      <c r="CM1" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="CM1" s="15" t="s">
+      <c r="CN1" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="CN1" s="15" t="s">
+      <c r="CO1" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="CO1" s="15" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:93">
@@ -3930,16 +4715,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D2" s="1">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -3957,7 +4742,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L2" s="1">
         <v>500</v>
@@ -3981,22 +4766,22 @@
         <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="V2" s="1">
         <v>10</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Z2" s="1">
         <v>500</v>
@@ -4020,22 +4805,22 @@
         <v>60</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AI2" s="1">
         <v>10</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AM2" s="1">
         <v>500</v>
@@ -4059,19 +4844,19 @@
         <v>60</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AV2" s="1">
         <v>10</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AY2" s="1">
         <v>200</v>
@@ -4080,20 +4865,20 @@
         <v>100</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="BC2" s="1">
         <v>500</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:93">
-      <c r="E6" s="88"/>
+      <c r="E6" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4102,58 +4887,58 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CC76B-3EB4-4983-B402-C681A6237A86}">
-  <dimension ref="A1:CH7"/>
+  <dimension ref="A1:CH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="BO1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="70" customWidth="1"/>
-    <col min="2" max="5" width="17.109375" style="70"/>
-    <col min="6" max="6" width="20.33203125" style="70" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" style="70" customWidth="1"/>
-    <col min="8" max="29" width="17.109375" style="70"/>
-    <col min="30" max="34" width="17.109375" style="75"/>
-    <col min="35" max="16384" width="17.109375" style="70"/>
+    <col min="1" max="1" width="5.88671875" style="69" customWidth="1"/>
+    <col min="2" max="5" width="17.109375" style="69"/>
+    <col min="6" max="6" width="20.33203125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="69" customWidth="1"/>
+    <col min="8" max="29" width="17.109375" style="69"/>
+    <col min="30" max="34" width="17.109375" style="74"/>
+    <col min="35" max="16384" width="17.109375" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="81" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78" t="s">
-        <v>351</v>
+    <row r="1" spans="1:86" s="80" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
+        <v>337</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H1" s="90"/>
-      <c r="I1" s="93" t="s">
-        <v>353</v>
-      </c>
-      <c r="J1" s="93"/>
+      <c r="I1" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" s="89"/>
       <c r="K1" s="91" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="L1" s="91"/>
       <c r="M1" s="91"/>
       <c r="N1" s="91"/>
       <c r="O1" s="91"/>
       <c r="P1" s="91"/>
-      <c r="Q1" s="89" t="s">
-        <v>355</v>
-      </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="78"/>
+      <c r="Q1" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="90" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="X1" s="90"/>
       <c r="Y1" s="90"/>
@@ -4161,16 +4946,16 @@
       <c r="AA1" s="90"/>
       <c r="AB1" s="90"/>
       <c r="AC1" s="90"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="93" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="89" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
       <c r="AJ1" s="91" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="AK1" s="91"/>
       <c r="AL1" s="91"/>
@@ -4182,12 +4967,12 @@
       <c r="AR1" s="91"/>
       <c r="AS1" s="91"/>
       <c r="AT1" s="91"/>
-      <c r="AU1" s="89" t="s">
-        <v>359</v>
-      </c>
-      <c r="AV1" s="89"/>
+      <c r="AU1" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="AV1" s="92"/>
       <c r="AW1" s="90" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AX1" s="90"/>
       <c r="AY1" s="90"/>
@@ -4195,25 +4980,25 @@
       <c r="BA1" s="90"/>
       <c r="BB1" s="90"/>
       <c r="BC1" s="90"/>
-      <c r="BD1" s="92" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
-      <c r="BJ1" s="92"/>
-      <c r="BK1" s="92"/>
-      <c r="BL1" s="92"/>
-      <c r="BM1" s="92"/>
-      <c r="BN1" s="92"/>
-      <c r="BO1" s="92"/>
-      <c r="BP1" s="92"/>
-      <c r="BQ1" s="92"/>
-      <c r="BR1" s="92"/>
+      <c r="BD1" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
+      <c r="BJ1" s="93"/>
+      <c r="BK1" s="93"/>
+      <c r="BL1" s="93"/>
+      <c r="BM1" s="93"/>
+      <c r="BN1" s="93"/>
+      <c r="BO1" s="93"/>
+      <c r="BP1" s="93"/>
+      <c r="BQ1" s="93"/>
+      <c r="BR1" s="93"/>
       <c r="BS1" s="91" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="BT1" s="91"/>
       <c r="BU1" s="91"/>
@@ -4221,12 +5006,12 @@
       <c r="BW1" s="91"/>
       <c r="BX1" s="91"/>
       <c r="BY1" s="91"/>
-      <c r="BZ1" s="89" t="s">
-        <v>353</v>
-      </c>
-      <c r="CA1" s="89"/>
+      <c r="BZ1" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="CA1" s="92"/>
       <c r="CB1" s="90" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="CC1" s="90"/>
       <c r="CD1" s="90"/>
@@ -4235,869 +5020,885 @@
       <c r="CG1" s="90"/>
       <c r="CH1" s="90"/>
     </row>
-    <row r="2" spans="1:86" s="80" customFormat="1" ht="75.599999999999994" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="54" t="s">
+    <row r="2" spans="1:86" s="79" customFormat="1" ht="75.599999999999994" customHeight="1">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF2" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG2" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH2" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AR2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AS2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU2" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="AX2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="AY2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="BB2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="84"/>
+      <c r="BS2" s="47"/>
+      <c r="BT2" s="47"/>
+      <c r="BU2" s="47"/>
+      <c r="BV2" s="47"/>
+      <c r="BW2" s="47"/>
+      <c r="BX2" s="47"/>
+      <c r="BY2" s="47"/>
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58"/>
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58"/>
+      <c r="CF2" s="58"/>
+      <c r="CG2" s="58"/>
+      <c r="CH2" s="58"/>
+    </row>
+    <row r="3" spans="1:86" s="49" customFormat="1" ht="17.399999999999999">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="X3" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y3" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z3" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA3" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB3" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC3" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD3" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE3" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF3" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG3" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH3" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI3" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="AJ3" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK3" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL3" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM3" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="AN3" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="AO3" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP3" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ3" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="AR3" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS3" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT3" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU3" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV3" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW3" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="AX3" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="AY3" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ3" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA3" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="BB3" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="BC3" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="BD3" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="BE3" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="BF3" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="BG3" s="85" t="s">
+        <v>373</v>
+      </c>
+      <c r="BH3" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="BI3" s="85" t="s">
+        <v>375</v>
+      </c>
+      <c r="BJ3" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="BK3" s="85" t="s">
+        <v>377</v>
+      </c>
+      <c r="BL3" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="BM3" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="BN3" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="BO3" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="BP3" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ3" s="85" t="s">
+        <v>383</v>
+      </c>
+      <c r="BR3" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="BS3" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="BT3" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="BU3" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="BV3" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="BW3" s="83" t="s">
+        <v>389</v>
+      </c>
+      <c r="BX3" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="BY3" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="BZ3" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="CA3" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="CB3" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="CC3" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="CD3" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="CE3" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="CF3" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="CG3" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="CH3" s="73" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" s="46" customFormat="1" ht="41.4">
+      <c r="A4" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="R4" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="S4" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="W4" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="X4" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y4" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z4" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA4" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB4" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC4" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="G2" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="54" t="s">
-        <v>364</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="S2" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="T2" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="X2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AK2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AN2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AO2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AR2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AS2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AT2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="AU2" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="AX2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="AY2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="AZ2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="BB2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="85"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
-      <c r="BG2" s="85"/>
-      <c r="BH2" s="85"/>
-      <c r="BI2" s="85"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="85"/>
-      <c r="BL2" s="85"/>
-      <c r="BM2" s="85"/>
-      <c r="BN2" s="85"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="85"/>
-      <c r="BQ2" s="85"/>
-      <c r="BR2" s="85"/>
-      <c r="BS2" s="48"/>
-      <c r="BT2" s="48"/>
-      <c r="BU2" s="48"/>
-      <c r="BV2" s="48"/>
-      <c r="BW2" s="48"/>
-      <c r="BX2" s="48"/>
-      <c r="BY2" s="48"/>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="59"/>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="59"/>
-      <c r="CF2" s="59"/>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="59"/>
-    </row>
-    <row r="3" spans="1:86" s="50" customFormat="1" ht="17.399999999999999">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="O3" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="P3" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q3" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="R3" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="S3" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="T3" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="U3" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="V3" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="W3" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="X3" s="60" t="s">
+      <c r="AD4" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE4" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF4" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="Y3" s="60" t="s">
+      <c r="AG4" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="Z3" s="60" t="s">
+      <c r="AH4" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="AA3" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB3" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC3" s="74" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD3" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE3" s="52" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF3" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="AG3" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH3" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="AI3" s="82" t="s">
-        <v>346</v>
-      </c>
-      <c r="AJ3" s="84" t="s">
-        <v>366</v>
-      </c>
-      <c r="AK3" s="84" t="s">
-        <v>367</v>
-      </c>
-      <c r="AL3" s="84" t="s">
-        <v>368</v>
-      </c>
-      <c r="AM3" s="84" t="s">
-        <v>369</v>
-      </c>
-      <c r="AN3" s="84" t="s">
-        <v>370</v>
-      </c>
-      <c r="AO3" s="84" t="s">
-        <v>371</v>
-      </c>
-      <c r="AP3" s="84" t="s">
-        <v>370</v>
-      </c>
-      <c r="AQ3" s="84" t="s">
-        <v>371</v>
-      </c>
-      <c r="AR3" s="84" t="s">
-        <v>372</v>
-      </c>
-      <c r="AS3" s="84" t="s">
-        <v>373</v>
-      </c>
-      <c r="AT3" s="84" t="s">
-        <v>374</v>
-      </c>
-      <c r="AU3" s="83" t="s">
-        <v>375</v>
-      </c>
-      <c r="AV3" s="83" t="s">
-        <v>376</v>
-      </c>
-      <c r="AW3" s="74" t="s">
-        <v>377</v>
-      </c>
-      <c r="AX3" s="74" t="s">
-        <v>378</v>
-      </c>
-      <c r="AY3" s="74" t="s">
-        <v>379</v>
-      </c>
-      <c r="AZ3" s="74" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA3" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="BB3" s="74" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC3" s="74" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD3" s="86" t="s">
-        <v>384</v>
-      </c>
-      <c r="BE3" s="86" t="s">
-        <v>385</v>
-      </c>
-      <c r="BF3" s="86" t="s">
-        <v>386</v>
-      </c>
-      <c r="BG3" s="86" t="s">
-        <v>387</v>
-      </c>
-      <c r="BH3" s="86" t="s">
-        <v>388</v>
-      </c>
-      <c r="BI3" s="86" t="s">
-        <v>389</v>
-      </c>
-      <c r="BJ3" s="86" t="s">
-        <v>390</v>
-      </c>
-      <c r="BK3" s="86" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL3" s="86" t="s">
-        <v>392</v>
-      </c>
-      <c r="BM3" s="86" t="s">
-        <v>393</v>
-      </c>
-      <c r="BN3" s="86" t="s">
-        <v>394</v>
-      </c>
-      <c r="BO3" s="86" t="s">
-        <v>395</v>
-      </c>
-      <c r="BP3" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="BQ3" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="BR3" s="86" t="s">
-        <v>398</v>
-      </c>
-      <c r="BS3" s="84" t="s">
-        <v>399</v>
-      </c>
-      <c r="BT3" s="84" t="s">
-        <v>400</v>
-      </c>
-      <c r="BU3" s="84" t="s">
+      <c r="AI4" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ4" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK4" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL4" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="BV3" s="84" t="s">
+      <c r="AM4" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="BW3" s="84" t="s">
+      <c r="AN4" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO4" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP4" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="BX3" s="84" t="s">
+      <c r="AQ4" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="BY3" s="84" t="s">
+      <c r="AR4" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="BZ3" s="83" t="s">
+      <c r="AS4" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="CA3" s="83" t="s">
+      <c r="AT4" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="AU4" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="AV4" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW4" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="CB3" s="74" t="s">
+      <c r="AX4" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="CC3" s="74" t="s">
+      <c r="AY4" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="AZ4" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA4" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB4" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC4" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD4" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="CD3" s="74" t="s">
+      <c r="BE4" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="CE3" s="74" t="s">
+      <c r="BF4" s="86" t="s">
         <v>411</v>
       </c>
-      <c r="CF3" s="74" t="s">
+      <c r="BG4" s="86" t="s">
         <v>412</v>
       </c>
-      <c r="CG3" s="74" t="s">
+      <c r="BH4" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="BI4" s="86" t="s">
         <v>413</v>
       </c>
-      <c r="CH3" s="74" t="s">
+      <c r="BJ4" s="86" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:86" s="47" customFormat="1" ht="41.4">
-      <c r="A4" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="56" t="s">
+      <c r="BK4" s="86" t="s">
+        <v>415</v>
+      </c>
+      <c r="BL4" s="86" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM4" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="BN4" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="BO4" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="BP4" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="BQ4" s="86" t="s">
         <v>284</v>
       </c>
-      <c r="G4" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="N4" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="O4" s="46" t="s">
+      <c r="BR4" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="P4" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="V4" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="W4" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="X4" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y4" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z4" s="63" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA4" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB4" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC4" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD4" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE4" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF4" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="AG4" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="AH4" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="AI4" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="AJ4" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="AK4" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="AL4" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="AM4" s="46" t="s">
+      <c r="BS4" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="AN4" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="AO4" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP4" s="46" t="s">
+      <c r="BT4" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="AQ4" s="46" t="s">
+      <c r="BU4" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="BV4" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="BW4" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="BX4" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="BY4" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="BZ4" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="AR4" s="46" t="s">
+      <c r="CA4" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="CB4" s="62" t="s">
         <v>419</v>
       </c>
-      <c r="AS4" s="46" t="s">
+      <c r="CC4" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="AT4" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="AU4" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="AV4" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW4" s="63" t="s">
+      <c r="CD4" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="AX4" s="63" t="s">
-        <v>422</v>
-      </c>
-      <c r="AY4" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="AZ4" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="BA4" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="BB4" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="BC4" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="BD4" s="87" t="s">
-        <v>423</v>
-      </c>
-      <c r="BE4" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="BF4" s="87" t="s">
-        <v>425</v>
-      </c>
-      <c r="BG4" s="87" t="s">
-        <v>426</v>
-      </c>
-      <c r="BH4" s="87" t="s">
-        <v>302</v>
-      </c>
-      <c r="BI4" s="87" t="s">
-        <v>427</v>
-      </c>
-      <c r="BJ4" s="87" t="s">
-        <v>428</v>
-      </c>
-      <c r="BK4" s="87" t="s">
-        <v>429</v>
-      </c>
-      <c r="BL4" s="87" t="s">
-        <v>417</v>
-      </c>
-      <c r="BM4" s="87" t="s">
-        <v>419</v>
-      </c>
-      <c r="BN4" s="87" t="s">
-        <v>420</v>
-      </c>
-      <c r="BO4" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="BP4" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="BQ4" s="87" t="s">
-        <v>297</v>
-      </c>
-      <c r="BR4" s="87" t="s">
-        <v>308</v>
-      </c>
-      <c r="BS4" s="46" t="s">
-        <v>430</v>
-      </c>
-      <c r="BT4" s="46" t="s">
-        <v>431</v>
-      </c>
-      <c r="BU4" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="BV4" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="BW4" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX4" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="BY4" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ4" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="CA4" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="CB4" s="63" t="s">
-        <v>433</v>
-      </c>
-      <c r="CC4" s="63" t="s">
-        <v>434</v>
-      </c>
-      <c r="CD4" s="63" t="s">
-        <v>435</v>
-      </c>
-      <c r="CE4" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="CF4" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="CG4" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="CH4" s="63" t="s">
-        <v>308</v>
+      <c r="CE4" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="CF4" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="CG4" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="CH4" s="62" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:86" ht="28.2">
-      <c r="A5" s="64">
+      <c r="A5" s="63">
         <v>1</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>306</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="K5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="71"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="71"/>
-      <c r="AS5" s="71"/>
-      <c r="AT5" s="71"/>
-      <c r="AU5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="AX5" s="71"/>
-      <c r="AY5" s="71"/>
-      <c r="AZ5" s="71"/>
-      <c r="BA5" s="71"/>
-      <c r="BB5" s="71"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="71"/>
-      <c r="BG5" s="71"/>
-      <c r="BH5" s="71"/>
-      <c r="BI5" s="71"/>
-      <c r="BJ5" s="71"/>
-      <c r="BK5" s="71"/>
-      <c r="BL5" s="71"/>
-      <c r="BM5" s="71"/>
-      <c r="BN5" s="71"/>
-      <c r="BO5" s="71"/>
-      <c r="BP5" s="71"/>
-      <c r="BQ5" s="71"/>
-      <c r="BR5" s="71"/>
-      <c r="BS5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT5" s="71"/>
-      <c r="BU5" s="71"/>
-      <c r="BV5" s="71"/>
-      <c r="BW5" s="71"/>
-      <c r="BX5" s="71"/>
-      <c r="BY5" s="71"/>
-      <c r="BZ5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="CA5" s="71"/>
-      <c r="CB5" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="CC5" s="71"/>
-      <c r="CD5" s="71"/>
-      <c r="CE5" s="71"/>
-      <c r="CF5" s="71"/>
-      <c r="CG5" s="71"/>
-      <c r="CH5" s="71"/>
+      <c r="B5" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="70"/>
+      <c r="I5" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="70"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="70"/>
+      <c r="AZ5" s="70"/>
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="70"/>
+      <c r="BC5" s="70"/>
+      <c r="BD5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE5" s="70"/>
+      <c r="BF5" s="70"/>
+      <c r="BG5" s="70"/>
+      <c r="BH5" s="70"/>
+      <c r="BI5" s="70"/>
+      <c r="BJ5" s="70"/>
+      <c r="BK5" s="70"/>
+      <c r="BL5" s="70"/>
+      <c r="BM5" s="70"/>
+      <c r="BN5" s="70"/>
+      <c r="BO5" s="70"/>
+      <c r="BP5" s="70"/>
+      <c r="BQ5" s="70"/>
+      <c r="BR5" s="70"/>
+      <c r="BS5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="BT5" s="70"/>
+      <c r="BU5" s="70"/>
+      <c r="BV5" s="70"/>
+      <c r="BW5" s="70"/>
+      <c r="BX5" s="70"/>
+      <c r="BY5" s="70"/>
+      <c r="BZ5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="CA5" s="70"/>
+      <c r="CB5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="CC5" s="70"/>
+      <c r="CD5" s="70"/>
+      <c r="CE5" s="70"/>
+      <c r="CF5" s="70"/>
+      <c r="CG5" s="70"/>
+      <c r="CH5" s="70"/>
     </row>
     <row r="6" spans="1:86" ht="16.8">
-      <c r="K6" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="L6" s="72" t="s">
-        <v>324</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q6" s="70" t="s">
-        <v>323</v>
-      </c>
-      <c r="R6" s="72" t="s">
-        <v>324</v>
-      </c>
-      <c r="S6" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="W6" s="72"/>
+      <c r="G6" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="S6" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:86" ht="16.8">
-      <c r="K7" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="L7" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q7" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="R7" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="S7" s="70" t="s">
-        <v>270</v>
+      <c r="G7" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q7" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="R7" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="S7" s="69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86">
+      <c r="G8" s="69" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86">
+      <c r="G9" s="69" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86">
+      <c r="G10" s="69" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="W1:AC1"/>
     <mergeCell ref="BZ1:CA1"/>
     <mergeCell ref="CB1:CH1"/>
     <mergeCell ref="AJ1:AT1"/>
@@ -5105,6 +5906,12 @@
     <mergeCell ref="AW1:BC1"/>
     <mergeCell ref="BD1:BR1"/>
     <mergeCell ref="BS1:BY1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="W1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52E1D9D-8E26-4108-99AA-BC1C518C6FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66566733-55E8-442D-9353-54683DDE873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -60,7 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1) New Members
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -94,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1) &lt;00&gt;,&lt;00&gt;,... Update
@@ -121,7 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -130,7 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 New
@@ -147,7 +147,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -156,7 +156,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -231,7 +231,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -240,7 +240,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1) New
@@ -260,7 +260,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Dell:</t>
         </r>
@@ -269,7 +269,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mother:9455120514;Father:9455885272</t>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="532">
   <si>
     <t>App</t>
   </si>
@@ -1024,27 +1024,18 @@
     <t>416 Date of Balance taken</t>
   </si>
   <si>
-    <t>Haryana</t>
-  </si>
-  <si>
     <t>Hindi</t>
   </si>
   <si>
     <t>SHG Bookkeeper</t>
   </si>
   <si>
-    <t>HR_HRSHGBK1</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
     <t>BALAJI MAHILA SHG</t>
   </si>
   <si>
-    <t>ALAWLA</t>
-  </si>
-  <si>
     <t>25_01_2016</t>
   </si>
   <si>
@@ -1108,9 +1099,6 @@
     <t>Hudco Place</t>
   </si>
   <si>
-    <t>Aaryaman Gupta SHG</t>
-  </si>
-  <si>
     <t>SBIN0000131</t>
   </si>
   <si>
@@ -1126,15 +1114,6 @@
     <t>23_02_2020</t>
   </si>
   <si>
-    <t>Aaryaman Seth</t>
-  </si>
-  <si>
-    <t>02_01_2022</t>
-  </si>
-  <si>
-    <t>Aaryaman Two</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -1234,665 +1213,749 @@
     <t>Null</t>
   </si>
   <si>
-    <t>Absent</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>Expected Error Message</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>Fill all Cells</t>
+  </si>
+  <si>
+    <t>Just one perfect row required.</t>
+  </si>
+  <si>
+    <t>ATTENDANCE</t>
+  </si>
+  <si>
+    <t>COMPULSORY SAVINGS</t>
+  </si>
+  <si>
+    <t>LOAN REPAYMENT</t>
+  </si>
+  <si>
+    <t>SHARE CAPITAL</t>
+  </si>
+  <si>
+    <t>OTHER PAYMENTS</t>
+  </si>
+  <si>
+    <t>LOAN REQUESTS(ADD DEMAND)</t>
+  </si>
+  <si>
+    <t>LOAN DISBURSEMENT</t>
+  </si>
+  <si>
+    <t>WITHDRAWAL</t>
+  </si>
+  <si>
+    <t>GROUP INVESTMENT</t>
+  </si>
+  <si>
+    <t>NEW BORROWINGS</t>
+  </si>
+  <si>
+    <t>RECEIPT AND INCOME</t>
+  </si>
+  <si>
+    <t>EXPENDITURE AND PAYMENT</t>
+  </si>
+  <si>
+    <t>Fill the number of rows in the red Cell. Compulsory field.</t>
+  </si>
+  <si>
+    <t>Loan Purpose</t>
+  </si>
+  <si>
+    <t>Mode of Receipt</t>
+  </si>
+  <si>
+    <t>Period (Months)</t>
+  </si>
+  <si>
+    <t>Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>Moratorium Period</t>
+  </si>
+  <si>
+    <t>Loan Repayment Frequency</t>
+  </si>
+  <si>
+    <t>Investment at</t>
+  </si>
+  <si>
+    <t>Type of Saving</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Loan Account No</t>
+  </si>
+  <si>
+    <t>Disbursal Date</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Type of Loan</t>
+  </si>
+  <si>
+    <t>Amount Withdrawn</t>
+  </si>
+  <si>
+    <t>Interest Rate (Annualy)</t>
+  </si>
+  <si>
+    <t>Received from</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>Loan Repayments</t>
+  </si>
+  <si>
+    <t>Paid To</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Mode of Payment</t>
+  </si>
+  <si>
+    <t>Source Bank</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>999999</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>http://103.248.60.224:9090/</t>
+  </si>
+  <si>
+    <t>Block Program Manager</t>
+  </si>
+  <si>
+    <t>IHR_HRBPM1</t>
+  </si>
+  <si>
+    <t>BPM SHG Approval</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Dell\\eclipse-workspace\\TestLokOS\\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\Dell\eclipse-workspace\LokOSMain\WebDrivers\\msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>Aaryaman</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>25_01_2002</t>
+  </si>
+  <si>
+    <t>03_02_2022</t>
+  </si>
+  <si>
+    <t>02_08_2019</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Bunty</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Mentally Challenged</t>
+  </si>
+  <si>
+    <t>Pulok Sen Gupta</t>
+  </si>
+  <si>
+    <t>Pinku</t>
+  </si>
+  <si>
+    <t>Care taker</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Bachelors Degree</t>
+  </si>
+  <si>
+    <t>Trading - all types</t>
+  </si>
+  <si>
+    <t>Organic Agriculture Activities</t>
+  </si>
+  <si>
+    <t>Manufacturing - Food Processing</t>
+  </si>
+  <si>
+    <t>Mother:9455120510</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>SBIN0000125</t>
+  </si>
+  <si>
+    <t>MAIN BRANCH - MAIN BRANCH</t>
+  </si>
+  <si>
+    <t>#40256541475</t>
+  </si>
+  <si>
+    <t>#536311420011</t>
+  </si>
+  <si>
+    <t>MNREGA ID</t>
+  </si>
+  <si>
+    <t>#8646498</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>MCP cadre</t>
+  </si>
+  <si>
+    <t>05_08_2020</t>
+  </si>
+  <si>
+    <t>23_01_2024</t>
+  </si>
+  <si>
+    <t>26_03_2022</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>No disability</t>
+  </si>
+  <si>
+    <t>Mother:9455120514;Father:9455885272</t>
+  </si>
+  <si>
+    <t>SBIN0000126</t>
+  </si>
+  <si>
+    <t>#40256541473</t>
+  </si>
+  <si>
+    <t>23_02_2021</t>
+  </si>
+  <si>
+    <t>#8646499</t>
+  </si>
+  <si>
+    <t>05_08_2021</t>
+  </si>
+  <si>
+    <t>23_01_2025</t>
+  </si>
+  <si>
+    <t>26_03_2023</t>
+  </si>
+  <si>
+    <t>Mother:9455120515</t>
+  </si>
+  <si>
+    <t>SBIN0000127</t>
+  </si>
+  <si>
+    <t>23_02_2022</t>
+  </si>
+  <si>
+    <t>#8646500</t>
+  </si>
+  <si>
+    <t>05_08_2022</t>
+  </si>
+  <si>
+    <t>23_01_2026</t>
+  </si>
+  <si>
+    <t>26_03_2024</t>
+  </si>
+  <si>
+    <t>Mother:9455120519;Father:9455885272</t>
+  </si>
+  <si>
+    <t>SBIN0000128</t>
+  </si>
+  <si>
+    <t>23_02_2023</t>
+  </si>
+  <si>
+    <t>#8646501</t>
+  </si>
+  <si>
+    <t>05_08_2023</t>
+  </si>
+  <si>
+    <t>23_01_2027</t>
+  </si>
+  <si>
+    <t>26_03_2025</t>
+  </si>
+  <si>
+    <t>Mother:9455120518</t>
+  </si>
+  <si>
+    <t>SBIN0000129</t>
+  </si>
+  <si>
+    <t>23_02_2024</t>
+  </si>
+  <si>
+    <t>#8646502</t>
+  </si>
+  <si>
+    <t>05_08_2024</t>
+  </si>
+  <si>
+    <t>23_01_2028</t>
+  </si>
+  <si>
+    <t>26_03_2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004 Is Member Date of Birth Available    </t>
+  </si>
+  <si>
+    <t>Pradhan Mantri Suraksha Bima Yojana (PMSBY)</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Compulsory entry.</t>
+  </si>
+  <si>
+    <t>Compulsory entry(Mode of Payment: Bank,Online)</t>
+  </si>
+  <si>
+    <t>0n</t>
+  </si>
+  <si>
+    <t>2n</t>
+  </si>
+  <si>
+    <t>3n</t>
+  </si>
+  <si>
+    <t>4n</t>
+  </si>
+  <si>
+    <t>104n</t>
+  </si>
+  <si>
+    <t>204n</t>
+  </si>
+  <si>
+    <t>304n</t>
+  </si>
+  <si>
+    <t>404n</t>
+  </si>
+  <si>
+    <t>5n</t>
+  </si>
+  <si>
+    <t>105n</t>
+  </si>
+  <si>
+    <t>205n</t>
+  </si>
+  <si>
+    <t>305n</t>
+  </si>
+  <si>
+    <t>405n</t>
+  </si>
+  <si>
+    <t>6n</t>
+  </si>
+  <si>
+    <t>106n</t>
+  </si>
+  <si>
+    <t>206n</t>
+  </si>
+  <si>
+    <t>306n</t>
+  </si>
+  <si>
+    <t>406n</t>
+  </si>
+  <si>
+    <t>506n</t>
+  </si>
+  <si>
+    <t>606n</t>
+  </si>
+  <si>
+    <t>8n</t>
+  </si>
+  <si>
+    <t>108n</t>
+  </si>
+  <si>
+    <t>208n</t>
+  </si>
+  <si>
+    <t>308n</t>
+  </si>
+  <si>
+    <t>408n</t>
+  </si>
+  <si>
+    <t>508n</t>
+  </si>
+  <si>
+    <t>608n</t>
+  </si>
+  <si>
+    <t>708n</t>
+  </si>
+  <si>
+    <t>808n</t>
+  </si>
+  <si>
+    <t>908n</t>
+  </si>
+  <si>
+    <t>9n</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>110n</t>
+  </si>
+  <si>
+    <t>210n</t>
+  </si>
+  <si>
+    <t>310n</t>
+  </si>
+  <si>
+    <t>410n</t>
+  </si>
+  <si>
+    <t>510n</t>
+  </si>
+  <si>
+    <t>11n</t>
+  </si>
+  <si>
+    <t>111n</t>
+  </si>
+  <si>
+    <t>211n</t>
+  </si>
+  <si>
+    <t>311n</t>
+  </si>
+  <si>
+    <t>411n</t>
+  </si>
+  <si>
+    <t>511n</t>
+  </si>
+  <si>
+    <t>611n</t>
+  </si>
+  <si>
+    <t>711n</t>
+  </si>
+  <si>
+    <t>811n</t>
+  </si>
+  <si>
+    <t>911n</t>
+  </si>
+  <si>
+    <t>1011n</t>
+  </si>
+  <si>
+    <t>1111n</t>
+  </si>
+  <si>
+    <t>1211n</t>
+  </si>
+  <si>
+    <t>1311n</t>
+  </si>
+  <si>
+    <t>12n</t>
+  </si>
+  <si>
+    <t>112n</t>
+  </si>
+  <si>
+    <t>212n</t>
+  </si>
+  <si>
+    <t>312n</t>
+  </si>
+  <si>
+    <t>412n</t>
+  </si>
+  <si>
+    <t>512n</t>
+  </si>
+  <si>
+    <t>13n</t>
+  </si>
+  <si>
+    <t>14n</t>
+  </si>
+  <si>
+    <t>114n</t>
+  </si>
+  <si>
+    <t>214n</t>
+  </si>
+  <si>
+    <t>314n</t>
+  </si>
+  <si>
+    <t>414n</t>
+  </si>
+  <si>
+    <t>514n</t>
+  </si>
+  <si>
+    <t>Negetive/Positive</t>
+  </si>
+  <si>
+    <t>0nn</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>99999999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>Mode of payment</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CS-Debt swapping</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>04_07_019</t>
+  </si>
+  <si>
+    <t>04_07_020</t>
+  </si>
+  <si>
+    <t>04_07_021</t>
+  </si>
+  <si>
+    <t>04_07_022</t>
+  </si>
+  <si>
+    <t>04_07_023</t>
+  </si>
+  <si>
+    <t>04_07_024</t>
+  </si>
+  <si>
+    <t>30000000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2999</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3999</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>4999</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Contribution</t>
-  </si>
-  <si>
-    <t>Dividend</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>000 Test</t>
-  </si>
-  <si>
-    <t>Fill all Cells</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>6999</t>
-  </si>
-  <si>
-    <t>Just one perfect row required.</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>7999</t>
-  </si>
-  <si>
-    <t>Demand (Amount)</t>
-  </si>
-  <si>
-    <t>Demand (Purpose)</t>
-  </si>
-  <si>
-    <t>Request Valid Upto</t>
-  </si>
-  <si>
-    <t>Proposed EMI Amount</t>
-  </si>
-  <si>
-    <t>ATTENDANCE</t>
-  </si>
-  <si>
-    <t>COMPULSORY SAVINGS</t>
-  </si>
-  <si>
-    <t>LOAN REPAYMENT</t>
-  </si>
-  <si>
-    <t>SHARE CAPITAL</t>
-  </si>
-  <si>
-    <t>OTHER PAYMENTS</t>
-  </si>
-  <si>
-    <t>LOAN REQUESTS(ADD DEMAND)</t>
-  </si>
-  <si>
-    <t>LOAN REQUESTS(MCP)</t>
-  </si>
-  <si>
-    <t>LOAN DISBURSEMENT</t>
-  </si>
-  <si>
-    <t>WITHDRAWAL</t>
-  </si>
-  <si>
-    <t>GROUP INVESTMENT</t>
-  </si>
-  <si>
-    <t>NEW BORROWINGS</t>
-  </si>
-  <si>
-    <t>RECEIPT AND INCOME</t>
-  </si>
-  <si>
-    <t>EXPENDITURE AND PAYMENT</t>
-  </si>
-  <si>
-    <t>Fill the number of rows in the red Cell. Compulsory field.</t>
-  </si>
-  <si>
-    <t>5999</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>8999</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>9999</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Disbursed amount must be equal to or less than: 2000000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>-2</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>10999</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>1311</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>12999</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>13999</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>14999</t>
-  </si>
-  <si>
-    <t>Loan Purpose</t>
-  </si>
-  <si>
-    <t>Mode of Receipt</t>
-  </si>
-  <si>
-    <t>Period (Months)</t>
-  </si>
-  <si>
-    <t>Interest Rate(Annually)</t>
-  </si>
-  <si>
-    <t>Moratorium Period</t>
-  </si>
-  <si>
-    <t>Loan Repayment Frequency</t>
-  </si>
-  <si>
-    <t>Investment at</t>
-  </si>
-  <si>
-    <t>Type of Saving</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Loan Account No</t>
-  </si>
-  <si>
-    <t>Disbursal Date</t>
-  </si>
-  <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
-    <t>Type of Loan</t>
-  </si>
-  <si>
-    <t>Amount Withdrawn</t>
-  </si>
-  <si>
-    <t>Interest Rate (Annualy)</t>
-  </si>
-  <si>
-    <t>Received from</t>
-  </si>
-  <si>
-    <t>Receipt</t>
-  </si>
-  <si>
-    <t>Loan Repayments</t>
-  </si>
-  <si>
-    <t>Paid To</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Mode of Payment</t>
-  </si>
-  <si>
-    <t>Source Bank</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>999999</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>http://103.248.60.224:9090/</t>
-  </si>
-  <si>
-    <t>Block Program Manager</t>
-  </si>
-  <si>
-    <t>IHR_HRBPM1</t>
-  </si>
-  <si>
-    <t>BPM SHG Approval</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Dell\\eclipse-workspace\\TestLokOS\\chromedriver.exe</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>The withdrawn amount cannot be higher than the amount saved.</t>
+  </si>
+  <si>
+    <t>9 Test</t>
+  </si>
+  <si>
+    <t>LokOs 2.0.32.1(Pre).apk</t>
+  </si>
+  <si>
+    <t>New SHG</t>
   </si>
   <si>
     <t>Approve SHG</t>
   </si>
   <si>
-    <t>C:\Users\Dell\eclipse-workspace\LokOSMain\WebDrivers\\msedgedriver.exe</t>
-  </si>
-  <si>
-    <t>LokOS_2.0.32.1.apk</t>
-  </si>
-  <si>
-    <t>New SHG</t>
-  </si>
-  <si>
-    <t>Haryana Test SHG</t>
-  </si>
-  <si>
-    <t>Aaryaman</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>25_01_2002</t>
-  </si>
-  <si>
-    <t>03_02_2022</t>
-  </si>
-  <si>
-    <t>02_08_2019</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Bunty</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Mentally Challenged</t>
-  </si>
-  <si>
-    <t>Pulok Sen Gupta</t>
-  </si>
-  <si>
-    <t>Pinku</t>
-  </si>
-  <si>
-    <t>Care taker</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Hindu</t>
-  </si>
-  <si>
-    <t>Bachelors Degree</t>
-  </si>
-  <si>
-    <t>Trading - all types</t>
-  </si>
-  <si>
-    <t>Organic Agriculture Activities</t>
-  </si>
-  <si>
-    <t>Manufacturing - Food Processing</t>
-  </si>
-  <si>
-    <t>Mother:9455120510</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>SBIN0000125</t>
-  </si>
-  <si>
-    <t>MAIN BRANCH - MAIN BRANCH</t>
-  </si>
-  <si>
-    <t>#40256541475</t>
-  </si>
-  <si>
-    <t>#536311420011</t>
-  </si>
-  <si>
-    <t>MNREGA ID</t>
-  </si>
-  <si>
-    <t>#8646498</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>MCP cadre</t>
-  </si>
-  <si>
-    <t>05_08_2020</t>
-  </si>
-  <si>
-    <t>23_01_2024</t>
-  </si>
-  <si>
-    <t>26_03_2022</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>No disability</t>
-  </si>
-  <si>
-    <t>Mother:9455120514;Father:9455885272</t>
-  </si>
-  <si>
-    <t>SBIN0000126</t>
-  </si>
-  <si>
-    <t>#40256541473</t>
-  </si>
-  <si>
-    <t>23_02_2021</t>
-  </si>
-  <si>
-    <t>#8646499</t>
-  </si>
-  <si>
-    <t>05_08_2021</t>
-  </si>
-  <si>
-    <t>23_01_2025</t>
-  </si>
-  <si>
-    <t>26_03_2023</t>
-  </si>
-  <si>
-    <t>Aaryaman  Bannerji</t>
-  </si>
-  <si>
-    <t>Mother:9455120515</t>
-  </si>
-  <si>
-    <t>SBIN0000127</t>
-  </si>
-  <si>
-    <t>23_02_2022</t>
-  </si>
-  <si>
-    <t>#8646500</t>
-  </si>
-  <si>
-    <t>05_08_2022</t>
-  </si>
-  <si>
-    <t>23_01_2026</t>
-  </si>
-  <si>
-    <t>26_03_2024</t>
-  </si>
-  <si>
-    <t>Aaryaman Sud</t>
-  </si>
-  <si>
-    <t>Mother:9455120519;Father:9455885272</t>
-  </si>
-  <si>
-    <t>SBIN0000128</t>
-  </si>
-  <si>
-    <t>23_02_2023</t>
-  </si>
-  <si>
-    <t>#8646501</t>
-  </si>
-  <si>
-    <t>05_08_2023</t>
-  </si>
-  <si>
-    <t>23_01_2027</t>
-  </si>
-  <si>
-    <t>26_03_2025</t>
-  </si>
-  <si>
-    <t>Mother:9455120518</t>
-  </si>
-  <si>
-    <t>SBIN0000129</t>
-  </si>
-  <si>
-    <t>23_02_2024</t>
-  </si>
-  <si>
-    <t>#8646502</t>
-  </si>
-  <si>
-    <t>05_08_2024</t>
-  </si>
-  <si>
-    <t>23_01_2028</t>
-  </si>
-  <si>
-    <t>26_03_2026</t>
-  </si>
-  <si>
-    <t>Aaryaman Sen Gupta</t>
-  </si>
-  <si>
-    <t>Aaryaman Sen Gupta:9455120510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004 Is Member Date of Birth Available    </t>
-  </si>
-  <si>
-    <t>VoterID</t>
-  </si>
-  <si>
-    <t>Pradhan Mantri Suraksha Bima Yojana (PMSBY)</t>
+    <t>ASSAM TEST SHG</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>Gautam</t>
+  </si>
+  <si>
+    <t>Ria</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Rahul:9455120510</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>#40256541474</t>
+  </si>
+  <si>
+    <t>#40256541476</t>
+  </si>
+  <si>
+    <t>#40256541478</t>
+  </si>
+  <si>
+    <t>20_04_2022</t>
+  </si>
+  <si>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>GUJARAT TEST SHG</t>
+  </si>
+  <si>
+    <t>ALHADPURA</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>GJ_GJBK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1922,19 +1985,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1987,14 +2037,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Bahnschrift SemiBold"/>
@@ -2019,20 +2061,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2050,6 +2078,18 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2151,12 +2191,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2285,12 +2325,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2355,16 +2546,16 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,159 +2602,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2881,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAFDE49-6EC4-411F-AEDE-4DE32D140FEF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
@@ -2917,23 +3092,23 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="87" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>227</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>436</v>
+        <v>512</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2941,7 +3116,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{74AFFBF8-8FC9-4CBA-B534-F92FC713A667}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2B392741-677C-4D09-BE8A-3DB3918B61E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2950,16 +3125,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="15.21875" style="1"/>
+    <col min="2" max="2" width="15.21875" style="1"/>
+    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="15.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="8" customFormat="1" ht="84" customHeight="1" thickBot="1">
@@ -3147,66 +3324,66 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="43.2">
+    <row r="2" spans="1:61" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>438</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>229</v>
+        <v>513</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" t="s">
+        <v>529</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="O2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="P2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="U2" s="1">
         <v>15</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z2" s="1">
         <v>300</v>
@@ -3215,98 +3392,106 @@
         <v>12</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AC2" s="1">
         <v>10</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AJ2" s="1">
         <v>14</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AP2" s="1">
         <v>110049</v>
       </c>
       <c r="AQ2" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="AX2"/>
       <c r="AY2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>258</v>
+        <v>526</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>259</v>
+        <v>517</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>258</v>
+        <v>526</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>258</v>
+        <v>526</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -3321,13 +3506,14 @@
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2:BF6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="16.44140625" style="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="16.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="41" customFormat="1" ht="48.6" customHeight="1">
@@ -3350,7 +3536,7 @@
         <v>70</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>508</v>
+        <v>404</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>71</v>
@@ -3516,796 +3702,796 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>438</v>
+      <c r="B2" s="60" t="s">
+        <v>528</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="I2" s="1">
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K2" s="94" t="s">
-        <v>443</v>
+        <v>342</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>444</v>
+        <v>344</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>449</v>
+        <v>349</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y2" s="95" t="s">
-        <v>454</v>
+        <v>353</v>
+      </c>
+      <c r="Y2" s="62" t="s">
+        <v>354</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA2" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="AB2" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC2" s="95" t="s">
-        <v>457</v>
+        <v>238</v>
+      </c>
+      <c r="AA2" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB2" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC2" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>458</v>
+        <v>358</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL2" s="1">
         <v>110049</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AO2" s="95" t="s">
-        <v>253</v>
+        <v>361</v>
+      </c>
+      <c r="AO2" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ2" s="95" t="s">
-        <v>465</v>
+        <v>364</v>
+      </c>
+      <c r="AZ2" s="62" t="s">
+        <v>365</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="BC2" s="95" t="s">
-        <v>468</v>
+        <v>367</v>
+      </c>
+      <c r="BC2" s="62" t="s">
+        <v>368</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="BF2" s="96" t="s">
-        <v>510</v>
+        <v>370</v>
+      </c>
+      <c r="BF2" s="63" t="s">
+        <v>405</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="43.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>438</v>
+      <c r="B3" s="60" t="s">
+        <v>528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>259</v>
+        <v>517</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="I3" s="1">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K3" s="94" t="s">
-        <v>443</v>
+        <v>342</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>474</v>
+        <v>374</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y3" s="95" t="s">
-        <v>454</v>
+        <v>353</v>
+      </c>
+      <c r="Y3" s="62" t="s">
+        <v>354</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA3" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="AB3" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC3" s="95" t="s">
-        <v>457</v>
+        <v>238</v>
+      </c>
+      <c r="AA3" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB3" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC3" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL3" s="1">
         <v>110050</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>259</v>
+        <v>517</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AO3" s="95" t="s">
-        <v>253</v>
+        <v>376</v>
+      </c>
+      <c r="AO3" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>478</v>
+        <v>378</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ3" s="95" t="s">
-        <v>465</v>
+        <v>364</v>
+      </c>
+      <c r="AZ3" s="62" t="s">
+        <v>365</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>479</v>
+        <v>379</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="BC3" s="95" t="s">
-        <v>468</v>
+        <v>367</v>
+      </c>
+      <c r="BC3" s="62" t="s">
+        <v>368</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="BF3" s="96" t="s">
-        <v>510</v>
+        <v>381</v>
+      </c>
+      <c r="BF3" s="63" t="s">
+        <v>405</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="28.8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>438</v>
+      <c r="B4" s="60" t="s">
+        <v>528</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="I4" s="1">
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K4" s="94" t="s">
-        <v>443</v>
+        <v>342</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>444</v>
+        <v>344</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>449</v>
+        <v>349</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y4" s="95" t="s">
-        <v>454</v>
+        <v>353</v>
+      </c>
+      <c r="Y4" s="62" t="s">
+        <v>354</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA4" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="AB4" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC4" s="95" t="s">
-        <v>457</v>
+        <v>238</v>
+      </c>
+      <c r="AA4" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB4" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC4" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL4" s="1">
         <v>110051</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="AO4" s="95" t="s">
-        <v>253</v>
+        <v>384</v>
+      </c>
+      <c r="AO4" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>486</v>
+        <v>385</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ4" s="95" t="s">
-        <v>465</v>
+        <v>364</v>
+      </c>
+      <c r="AZ4" s="62" t="s">
+        <v>365</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>487</v>
+        <v>386</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="BC4" s="95" t="s">
-        <v>468</v>
+        <v>367</v>
+      </c>
+      <c r="BC4" s="62" t="s">
+        <v>368</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="BF4" s="96" t="s">
-        <v>510</v>
+        <v>388</v>
+      </c>
+      <c r="BF4" s="63" t="s">
+        <v>405</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="43.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>438</v>
+      <c r="B5" s="60" t="s">
+        <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="I5" s="1">
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K5" s="94" t="s">
-        <v>443</v>
+        <v>342</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>474</v>
+        <v>374</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y5" s="95" t="s">
-        <v>454</v>
+        <v>353</v>
+      </c>
+      <c r="Y5" s="62" t="s">
+        <v>354</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA5" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="AB5" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC5" s="95" t="s">
-        <v>457</v>
+        <v>253</v>
+      </c>
+      <c r="AA5" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB5" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC5" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL5" s="1">
         <v>110052</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AO5" s="95" t="s">
-        <v>253</v>
+        <v>391</v>
+      </c>
+      <c r="AO5" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ5" s="95" t="s">
-        <v>465</v>
+        <v>364</v>
+      </c>
+      <c r="AZ5" s="62" t="s">
+        <v>365</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="BC5" s="95" t="s">
-        <v>468</v>
+        <v>367</v>
+      </c>
+      <c r="BC5" s="62" t="s">
+        <v>368</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>496</v>
+        <v>394</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="BF5" s="96" t="s">
-        <v>510</v>
+        <v>395</v>
+      </c>
+      <c r="BF5" s="63" t="s">
+        <v>405</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>498</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="28.8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>438</v>
+      <c r="B6" s="60" t="s">
+        <v>528</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>257</v>
+        <v>520</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="I6" s="1">
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K6" s="94" t="s">
-        <v>443</v>
+        <v>342</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>444</v>
+        <v>344</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>449</v>
+        <v>349</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y6" s="95" t="s">
-        <v>454</v>
+        <v>353</v>
+      </c>
+      <c r="Y6" s="62" t="s">
+        <v>354</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA6" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="AB6" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC6" s="95" t="s">
-        <v>457</v>
+        <v>253</v>
+      </c>
+      <c r="AA6" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB6" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC6" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>499</v>
+        <v>397</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL6" s="1">
         <v>110053</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>257</v>
+        <v>520</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="AO6" s="95" t="s">
-        <v>253</v>
+        <v>398</v>
+      </c>
+      <c r="AO6" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ6" s="95" t="s">
-        <v>465</v>
+        <v>364</v>
+      </c>
+      <c r="AZ6" s="62" t="s">
+        <v>365</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>502</v>
+        <v>400</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="BC6" s="95" t="s">
-        <v>468</v>
+        <v>367</v>
+      </c>
+      <c r="BC6" s="62" t="s">
+        <v>368</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>503</v>
+        <v>401</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="BF6" s="96" t="s">
-        <v>510</v>
+        <v>402</v>
+      </c>
+      <c r="BF6" s="63" t="s">
+        <v>405</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>505</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4379,31 +4565,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>430</v>
+        <v>334</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>431</v>
+        <v>335</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>435</v>
+        <v>338</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -4420,7 +4606,7 @@
   <dimension ref="A1:CO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4"/>
@@ -4715,16 +4901,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -4742,7 +4928,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L2" s="1">
         <v>500</v>
@@ -4766,22 +4952,22 @@
         <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="V2" s="1">
         <v>10</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Z2" s="1">
         <v>500</v>
@@ -4805,22 +4991,22 @@
         <v>60</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AI2" s="1">
         <v>10</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AM2" s="1">
         <v>500</v>
@@ -4844,19 +5030,19 @@
         <v>60</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AV2" s="1">
         <v>10</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AY2" s="1">
         <v>200</v>
@@ -4865,20 +5051,20 @@
         <v>100</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="BC2" s="1">
         <v>500</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:93">
-      <c r="E6" s="87"/>
+      <c r="E6" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4887,1036 +5073,2040 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CC76B-3EB4-4983-B402-C681A6237A86}">
-  <dimension ref="A1:CH10"/>
+  <dimension ref="A1:EQ11"/>
   <sheetViews>
-    <sheetView topLeftCell="BO1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="69" customWidth="1"/>
-    <col min="2" max="5" width="17.109375" style="69"/>
-    <col min="6" max="6" width="20.33203125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" style="69" customWidth="1"/>
-    <col min="8" max="29" width="17.109375" style="69"/>
-    <col min="30" max="34" width="17.109375" style="74"/>
-    <col min="35" max="16384" width="17.109375" style="69"/>
+    <col min="1" max="1" width="5.88671875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="55" customWidth="1"/>
+    <col min="3" max="5" width="17.109375" style="55"/>
+    <col min="6" max="6" width="20.33203125" style="55" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="55" customWidth="1"/>
+    <col min="8" max="29" width="17.109375" style="55"/>
+    <col min="30" max="34" width="17.109375" style="57"/>
+    <col min="35" max="16384" width="17.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="80" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>338</v>
-      </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="89" t="s">
-        <v>339</v>
-      </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="91" t="s">
-        <v>340</v>
-      </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="92" t="s">
-        <v>341</v>
-      </c>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="90" t="s">
-        <v>342</v>
-      </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
+    <row r="1" spans="1:147" s="86" customFormat="1" ht="25.8" customHeight="1" thickBot="1">
+      <c r="A1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" s="90"/>
+      <c r="J1" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="89"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
       <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="89" t="s">
-        <v>343</v>
-      </c>
+      <c r="AA1" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
       <c r="AF1" s="89"/>
       <c r="AG1" s="89"/>
       <c r="AH1" s="89"/>
       <c r="AI1" s="89"/>
-      <c r="AJ1" s="91" t="s">
-        <v>344</v>
-      </c>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="92" t="s">
-        <v>345</v>
-      </c>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="90" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
       <c r="AZ1" s="90"/>
-      <c r="BA1" s="90"/>
-      <c r="BB1" s="90"/>
-      <c r="BC1" s="90"/>
-      <c r="BD1" s="93" t="s">
-        <v>347</v>
-      </c>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
-      <c r="BJ1" s="93"/>
-      <c r="BK1" s="93"/>
-      <c r="BL1" s="93"/>
-      <c r="BM1" s="93"/>
-      <c r="BN1" s="93"/>
-      <c r="BO1" s="93"/>
-      <c r="BP1" s="93"/>
-      <c r="BQ1" s="93"/>
-      <c r="BR1" s="93"/>
-      <c r="BS1" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="BT1" s="91"/>
-      <c r="BU1" s="91"/>
-      <c r="BV1" s="91"/>
-      <c r="BW1" s="91"/>
-      <c r="BX1" s="91"/>
-      <c r="BY1" s="91"/>
-      <c r="BZ1" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="CA1" s="92"/>
-      <c r="CB1" s="90" t="s">
-        <v>349</v>
-      </c>
-      <c r="CC1" s="90"/>
-      <c r="CD1" s="90"/>
-      <c r="CE1" s="90"/>
-      <c r="CF1" s="90"/>
-      <c r="CG1" s="90"/>
-      <c r="CH1" s="90"/>
+      <c r="BA1" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="89"/>
+      <c r="BN1" s="89"/>
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="89"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
+      <c r="BT1" s="89"/>
+      <c r="BU1" s="90"/>
+      <c r="BV1" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="BW1" s="89"/>
+      <c r="BX1" s="90"/>
+      <c r="BY1" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="BZ1" s="89"/>
+      <c r="CA1" s="89"/>
+      <c r="CB1" s="89"/>
+      <c r="CC1" s="89"/>
+      <c r="CD1" s="89"/>
+      <c r="CE1" s="89"/>
+      <c r="CF1" s="89"/>
+      <c r="CG1" s="89"/>
+      <c r="CH1" s="89"/>
+      <c r="CI1" s="89"/>
+      <c r="CJ1" s="89"/>
+      <c r="CK1" s="90"/>
+      <c r="CL1" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="CM1" s="89"/>
+      <c r="CN1" s="89"/>
+      <c r="CO1" s="89"/>
+      <c r="CP1" s="89"/>
+      <c r="CQ1" s="89"/>
+      <c r="CR1" s="89"/>
+      <c r="CS1" s="89"/>
+      <c r="CT1" s="89"/>
+      <c r="CU1" s="89"/>
+      <c r="CV1" s="89"/>
+      <c r="CW1" s="89"/>
+      <c r="CX1" s="89"/>
+      <c r="CY1" s="89"/>
+      <c r="CZ1" s="89"/>
+      <c r="DA1" s="89"/>
+      <c r="DB1" s="89"/>
+      <c r="DC1" s="89"/>
+      <c r="DD1" s="89"/>
+      <c r="DE1" s="89"/>
+      <c r="DF1" s="89"/>
+      <c r="DG1" s="89"/>
+      <c r="DH1" s="89"/>
+      <c r="DI1" s="89"/>
+      <c r="DJ1" s="89"/>
+      <c r="DK1" s="89"/>
+      <c r="DL1" s="89"/>
+      <c r="DM1" s="89"/>
+      <c r="DN1" s="90"/>
+      <c r="DO1" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP1" s="89"/>
+      <c r="DQ1" s="89"/>
+      <c r="DR1" s="89"/>
+      <c r="DS1" s="89"/>
+      <c r="DT1" s="89"/>
+      <c r="DU1" s="89"/>
+      <c r="DV1" s="89"/>
+      <c r="DW1" s="89"/>
+      <c r="DX1" s="89"/>
+      <c r="DY1" s="89"/>
+      <c r="DZ1" s="89"/>
+      <c r="EA1" s="90"/>
+      <c r="EB1" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="EC1" s="89"/>
+      <c r="ED1" s="90"/>
+      <c r="EE1" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="EF1" s="89"/>
+      <c r="EG1" s="89"/>
+      <c r="EH1" s="89"/>
+      <c r="EI1" s="89"/>
+      <c r="EJ1" s="89"/>
+      <c r="EK1" s="89"/>
+      <c r="EL1" s="89"/>
+      <c r="EM1" s="89"/>
+      <c r="EN1" s="89"/>
+      <c r="EO1" s="89"/>
+      <c r="EP1" s="89"/>
+      <c r="EQ1" s="90"/>
     </row>
-    <row r="2" spans="1:86" s="79" customFormat="1" ht="75.599999999999994" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="53" t="s">
+    <row r="2" spans="1:147" s="58" customFormat="1" ht="75.599999999999994" customHeight="1" thickBot="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BB2" s="65"/>
+      <c r="BC2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ2" s="65"/>
+      <c r="BK2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BL2" s="65"/>
+      <c r="BM2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BN2" s="65"/>
+      <c r="BO2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BP2" s="65"/>
+      <c r="BQ2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BR2" s="65"/>
+      <c r="BS2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BT2" s="65"/>
+      <c r="BU2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BV2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BW2" s="65"/>
+      <c r="BX2" s="65"/>
+      <c r="BY2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ2" s="65"/>
+      <c r="CA2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="CB2" s="65"/>
+      <c r="CC2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="CD2" s="65"/>
+      <c r="CE2" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="CF2" s="65"/>
+      <c r="CG2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="CH2" s="64"/>
+      <c r="CI2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="CJ2" s="64"/>
+      <c r="CK2" s="64"/>
+      <c r="CL2" s="64"/>
+      <c r="CM2" s="64"/>
+      <c r="CN2" s="64"/>
+      <c r="CO2" s="64"/>
+      <c r="CP2" s="64"/>
+      <c r="CQ2" s="64"/>
+      <c r="CR2" s="64"/>
+      <c r="CS2" s="64"/>
+      <c r="CT2" s="64"/>
+      <c r="CU2" s="64"/>
+      <c r="CV2" s="64"/>
+      <c r="CW2" s="64"/>
+      <c r="CX2" s="64"/>
+      <c r="CY2" s="64"/>
+      <c r="CZ2" s="64"/>
+      <c r="DA2" s="64"/>
+      <c r="DB2" s="64"/>
+      <c r="DC2" s="64"/>
+      <c r="DD2" s="64"/>
+      <c r="DE2" s="64"/>
+      <c r="DF2" s="64"/>
+      <c r="DG2" s="64"/>
+      <c r="DH2" s="64"/>
+      <c r="DI2" s="64"/>
+      <c r="DJ2" s="64"/>
+      <c r="DK2" s="64"/>
+      <c r="DL2" s="64"/>
+      <c r="DM2" s="64"/>
+      <c r="DN2" s="64"/>
+      <c r="DO2" s="64"/>
+      <c r="DP2" s="64"/>
+      <c r="DQ2" s="64"/>
+      <c r="DR2" s="64"/>
+      <c r="DS2" s="64"/>
+      <c r="DT2" s="64"/>
+      <c r="DU2" s="64"/>
+      <c r="DV2" s="64"/>
+      <c r="DW2" s="64"/>
+      <c r="DX2" s="64"/>
+      <c r="DY2" s="64"/>
+      <c r="DZ2" s="64"/>
+      <c r="EA2" s="64"/>
+      <c r="EB2" s="64"/>
+      <c r="EC2" s="64"/>
+      <c r="ED2" s="64"/>
+      <c r="EE2" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="EF2" s="64"/>
+      <c r="EG2" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="EH2" s="64"/>
+      <c r="EI2" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="EJ2" s="64"/>
+      <c r="EK2" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="EL2" s="64"/>
+      <c r="EM2" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="EN2" s="64"/>
+      <c r="EO2" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="EP2" s="64"/>
+      <c r="EQ2" s="64"/>
+    </row>
+    <row r="3" spans="1:147" s="46" customFormat="1" ht="18" thickBot="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="79">
+        <v>0</v>
+      </c>
+      <c r="C3" s="80">
+        <v>0</v>
+      </c>
+      <c r="D3" s="80">
+        <v>0</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" s="80">
+        <v>0</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3" s="66">
+        <v>1</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="J3" s="66">
+        <v>2</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="L3" s="66">
+        <v>2999</v>
+      </c>
+      <c r="M3" s="66">
+        <v>3</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="O3" s="66">
+        <v>3999</v>
+      </c>
+      <c r="P3" s="66">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>415</v>
+      </c>
+      <c r="R3" s="66">
+        <v>104</v>
+      </c>
+      <c r="S3" s="66" t="s">
+        <v>416</v>
+      </c>
+      <c r="T3" s="66">
+        <v>204</v>
+      </c>
+      <c r="U3" s="66" t="s">
+        <v>417</v>
+      </c>
+      <c r="V3" s="66">
+        <v>304</v>
+      </c>
+      <c r="W3" s="66" t="s">
+        <v>418</v>
+      </c>
+      <c r="X3" s="66">
+        <v>404</v>
+      </c>
+      <c r="Y3" s="66" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z3" s="66">
+        <v>4999</v>
+      </c>
+      <c r="AA3" s="66">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC3" s="66">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE3" s="66">
+        <v>205</v>
+      </c>
+      <c r="AF3" s="66" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG3" s="66">
+        <v>305</v>
+      </c>
+      <c r="AH3" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI3" s="66">
+        <v>405</v>
+      </c>
+      <c r="AJ3" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK3" s="66">
+        <v>5999</v>
+      </c>
+      <c r="AL3" s="66">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN3" s="66">
+        <v>106</v>
+      </c>
+      <c r="AO3" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="AP3" s="66">
+        <v>206</v>
+      </c>
+      <c r="AQ3" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR3" s="66">
+        <v>306</v>
+      </c>
+      <c r="AS3" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="AT3" s="66">
+        <v>406</v>
+      </c>
+      <c r="AU3" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="AV3" s="66">
+        <v>506</v>
+      </c>
+      <c r="AW3" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="AX3" s="66">
+        <v>606</v>
+      </c>
+      <c r="AY3" s="66" t="s">
+        <v>431</v>
+      </c>
+      <c r="AZ3" s="66">
+        <v>6999</v>
+      </c>
+      <c r="BA3" s="66">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="66" t="s">
+        <v>432</v>
+      </c>
+      <c r="BC3" s="66">
+        <v>108</v>
+      </c>
+      <c r="BD3" s="66" t="s">
+        <v>433</v>
+      </c>
+      <c r="BE3" s="66">
+        <v>208</v>
+      </c>
+      <c r="BF3" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="BG3" s="66">
+        <v>308</v>
+      </c>
+      <c r="BH3" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI3" s="66">
+        <v>408</v>
+      </c>
+      <c r="BJ3" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="BK3" s="66">
+        <v>508</v>
+      </c>
+      <c r="BL3" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="BM3" s="66">
+        <v>608</v>
+      </c>
+      <c r="BN3" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="BO3" s="66">
+        <v>708</v>
+      </c>
+      <c r="BP3" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="BQ3" s="66">
+        <v>808</v>
+      </c>
+      <c r="BR3" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="BS3" s="66">
+        <v>908</v>
+      </c>
+      <c r="BT3" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="BU3" s="66">
+        <v>8999</v>
+      </c>
+      <c r="BV3" s="66">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="BX3" s="66">
+        <v>9999</v>
+      </c>
+      <c r="BY3" s="66">
+        <v>10</v>
+      </c>
+      <c r="BZ3" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="CA3" s="66">
+        <v>110</v>
+      </c>
+      <c r="CB3" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="CC3" s="66">
+        <v>210</v>
+      </c>
+      <c r="CD3" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="CE3" s="66">
+        <v>310</v>
+      </c>
+      <c r="CF3" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="CG3" s="66">
+        <v>410</v>
+      </c>
+      <c r="CH3" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="CI3" s="66">
+        <v>510</v>
+      </c>
+      <c r="CJ3" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="CK3" s="66">
+        <v>10999</v>
+      </c>
+      <c r="CL3" s="66">
+        <v>11</v>
+      </c>
+      <c r="CM3" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="CN3" s="66">
+        <v>111</v>
+      </c>
+      <c r="CO3" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="CP3" s="66">
+        <v>211</v>
+      </c>
+      <c r="CQ3" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="CR3" s="66">
+        <v>311</v>
+      </c>
+      <c r="CS3" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="CT3" s="66">
+        <v>411</v>
+      </c>
+      <c r="CU3" s="66" t="s">
+        <v>453</v>
+      </c>
+      <c r="CV3" s="66">
+        <v>511</v>
+      </c>
+      <c r="CW3" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="CX3" s="66">
+        <v>611</v>
+      </c>
+      <c r="CY3" s="66" t="s">
+        <v>455</v>
+      </c>
+      <c r="CZ3" s="66">
+        <v>711</v>
+      </c>
+      <c r="DA3" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="DB3" s="66">
+        <v>811</v>
+      </c>
+      <c r="DC3" s="66" t="s">
+        <v>457</v>
+      </c>
+      <c r="DD3" s="66">
+        <v>911</v>
+      </c>
+      <c r="DE3" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="DF3" s="66">
+        <v>1011</v>
+      </c>
+      <c r="DG3" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="DH3" s="66">
+        <v>1111</v>
+      </c>
+      <c r="DI3" s="66" t="s">
+        <v>460</v>
+      </c>
+      <c r="DJ3" s="66">
+        <v>1211</v>
+      </c>
+      <c r="DK3" s="66" t="s">
+        <v>461</v>
+      </c>
+      <c r="DL3" s="66">
+        <v>1311</v>
+      </c>
+      <c r="DM3" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="DN3" s="66">
+        <v>11999</v>
+      </c>
+      <c r="DO3" s="66">
+        <v>12</v>
+      </c>
+      <c r="DP3" s="66" t="s">
+        <v>463</v>
+      </c>
+      <c r="DQ3" s="66">
+        <v>112</v>
+      </c>
+      <c r="DR3" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="DS3" s="66">
+        <v>212</v>
+      </c>
+      <c r="DT3" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="DU3" s="66">
+        <v>312</v>
+      </c>
+      <c r="DV3" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="DW3" s="66">
+        <v>412</v>
+      </c>
+      <c r="DX3" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="DY3" s="66">
+        <v>512</v>
+      </c>
+      <c r="DZ3" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="EA3" s="66">
+        <v>12999</v>
+      </c>
+      <c r="EB3" s="66">
+        <v>13</v>
+      </c>
+      <c r="EC3" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="ED3" s="66">
+        <v>13999</v>
+      </c>
+      <c r="EE3" s="66">
+        <v>14</v>
+      </c>
+      <c r="EF3" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="EG3" s="66">
+        <v>114</v>
+      </c>
+      <c r="EH3" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="EI3" s="66">
+        <v>214</v>
+      </c>
+      <c r="EJ3" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="EK3" s="66">
+        <v>314</v>
+      </c>
+      <c r="EL3" s="66" t="s">
+        <v>473</v>
+      </c>
+      <c r="EM3" s="66">
+        <v>414</v>
+      </c>
+      <c r="EN3" s="66" t="s">
+        <v>474</v>
+      </c>
+      <c r="EO3" s="66">
+        <v>514</v>
+      </c>
+      <c r="EP3" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="EQ3" s="66">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:147" s="45" customFormat="1" ht="42" thickBot="1">
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>476</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="S4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="T4" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="U4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="V4" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="W4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="X4" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z4" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA4" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC4" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE4" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AG4" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI4" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AK4" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL4" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="AM4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AN4" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="AO4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AP4" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AR4" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="AS4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT4" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV4" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AX4" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AZ4" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="BA4" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="BB4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BC4" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L2" s="47" t="s">
+      <c r="BD4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BE4" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="BF4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BG4" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="BH4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BI4" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="BJ4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BK4" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="BL4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BM4" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BO4" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="BP4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BQ4" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="BR4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BS4" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BU4" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="BV4" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="BW4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="BX4" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="BY4" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="BZ4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="CA4" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="CB4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="CC4" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="CD4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="CE4" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="CF4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="CG4" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="CH4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CI4" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="CJ4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CK4" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="CL4" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="CM4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CN4" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="M2" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="R2" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="U2" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="58" t="s">
+      <c r="CO4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CP4" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="CQ4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CR4" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="CS4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CT4" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="CU4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CV4" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="CW4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CX4" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="CY4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="CZ4" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="DA4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DB4" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="DC4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DD4" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="DE4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DF4" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="DG4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DH4" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="DI4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DJ4" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="DK4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DL4" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="DM4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DN4" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="DO4" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DQ4" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="DR4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DS4" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="DT4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DU4" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="DV4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DW4" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="DX4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="DY4" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="DZ4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="EA4" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="EB4" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="EC4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="ED4" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="EE4" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="EF4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="EG4" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="EH4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="EI4" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="EJ4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="EK4" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="EL4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="EM4" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="EN4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="EO4" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="EP4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="EQ4" s="73" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:147" ht="31.8" customHeight="1" thickBot="1">
+      <c r="A5" s="49">
+        <v>1</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75">
+        <v>2</v>
+      </c>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="74"/>
+      <c r="BH5" s="74"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74"/>
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="74"/>
+      <c r="BP5" s="74"/>
+      <c r="BQ5" s="74"/>
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="74"/>
+      <c r="BV5" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="BW5" s="74"/>
+      <c r="BX5" s="74"/>
+      <c r="BY5" s="75">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="74"/>
+      <c r="CA5" s="74"/>
+      <c r="CB5" s="74"/>
+      <c r="CC5" s="74"/>
+      <c r="CD5" s="74"/>
+      <c r="CE5" s="74"/>
+      <c r="CF5" s="74"/>
+      <c r="CG5" s="74"/>
+      <c r="CH5" s="74"/>
+      <c r="CI5" s="74"/>
+      <c r="CJ5" s="74"/>
+      <c r="CK5" s="74"/>
+      <c r="CL5" s="75">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="74"/>
+      <c r="CN5" s="74"/>
+      <c r="CO5" s="74"/>
+      <c r="CP5" s="74"/>
+      <c r="CQ5" s="74"/>
+      <c r="CR5" s="74"/>
+      <c r="CS5" s="74"/>
+      <c r="CT5" s="74"/>
+      <c r="CU5" s="74"/>
+      <c r="CV5" s="74"/>
+      <c r="CW5" s="74"/>
+      <c r="CX5" s="74"/>
+      <c r="CY5" s="74"/>
+      <c r="CZ5" s="74"/>
+      <c r="DA5" s="74"/>
+      <c r="DB5" s="74"/>
+      <c r="DC5" s="74"/>
+      <c r="DD5" s="74"/>
+      <c r="DE5" s="74"/>
+      <c r="DF5" s="74"/>
+      <c r="DG5" s="74"/>
+      <c r="DH5" s="74"/>
+      <c r="DI5" s="74"/>
+      <c r="DJ5" s="74"/>
+      <c r="DK5" s="74"/>
+      <c r="DL5" s="74"/>
+      <c r="DM5" s="74"/>
+      <c r="DN5" s="74"/>
+      <c r="DO5" s="75">
+        <v>2</v>
+      </c>
+      <c r="DP5" s="74"/>
+      <c r="DQ5" s="74"/>
+      <c r="DR5" s="74"/>
+      <c r="DS5" s="74"/>
+      <c r="DT5" s="74"/>
+      <c r="DU5" s="74"/>
+      <c r="DV5" s="74"/>
+      <c r="DW5" s="74"/>
+      <c r="DX5" s="74"/>
+      <c r="DY5" s="74"/>
+      <c r="DZ5" s="74"/>
+      <c r="EA5" s="74"/>
+      <c r="EB5" s="75">
+        <v>2</v>
+      </c>
+      <c r="EC5" s="74"/>
+      <c r="ED5" s="74"/>
+      <c r="EE5" s="75" t="s">
+        <v>491</v>
+      </c>
+      <c r="EF5" s="74"/>
+      <c r="EG5" s="74"/>
+      <c r="EH5" s="74"/>
+      <c r="EI5" s="74"/>
+      <c r="EJ5" s="74"/>
+      <c r="EK5" s="74"/>
+      <c r="EL5" s="74"/>
+      <c r="EM5" s="74"/>
+      <c r="EN5" s="74"/>
+      <c r="EO5" s="74"/>
+      <c r="EP5" s="74"/>
+      <c r="EQ5" s="74"/>
+    </row>
+    <row r="6" spans="1:147">
+      <c r="J6" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="X2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF2" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="AG2" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH2" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AL2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AM2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AN2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AR2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AS2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AT2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU2" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="AX2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="AY2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="AZ2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="BA2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="BB2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="47"/>
-      <c r="BT2" s="47"/>
-      <c r="BU2" s="47"/>
-      <c r="BV2" s="47"/>
-      <c r="BW2" s="47"/>
-      <c r="BX2" s="47"/>
-      <c r="BY2" s="47"/>
-      <c r="BZ2" s="53"/>
-      <c r="CA2" s="53"/>
-      <c r="CB2" s="58"/>
-      <c r="CC2" s="58"/>
-      <c r="CD2" s="58"/>
-      <c r="CE2" s="58"/>
-      <c r="CF2" s="58"/>
-      <c r="CG2" s="58"/>
-      <c r="CH2" s="58"/>
+      <c r="K6" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="P6" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="R6" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="S6" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="W6" s="56"/>
+      <c r="AA6" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC6" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD6" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE6" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL6" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN6" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP6" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR6" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="AT6" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV6" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="AW6" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="AX6" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA6" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="BC6" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="BD6" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BE6" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="BG6" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM6" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="BN6" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BO6" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="BP6" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BQ6" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="BS6" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV6" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="BX6" s="55" t="s">
+        <v>510</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="P3" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q3" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="R3" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="T3" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="U3" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="V3" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="W3" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="X3" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y3" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z3" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA3" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB3" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC3" s="73" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD3" s="59" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE3" s="51" t="s">
+    <row r="7" spans="1:147">
+      <c r="J7" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="K7" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="S7" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="T7" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA7" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC7" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD7" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE7" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL7" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN7" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP7" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR7" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="AT7" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV7" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="AX7" s="55" t="s">
+        <v>494</v>
+      </c>
+      <c r="BA7" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="BC7" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="BD7" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BE7" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="BG7" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM7" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="BN7" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BO7" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="BP7" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BQ7" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="BS7" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV7" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="BX7" s="55" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:147">
+      <c r="J8" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="S8" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="T8" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA8" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC8" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD8" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE8" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL8" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN8" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="AP8" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR8" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="AT8" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV8" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW8" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="AX8" s="55" t="s">
+        <v>495</v>
+      </c>
+      <c r="BA8" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="BC8" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD8" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BE8" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="BG8" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM8" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="BO8" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="BP8" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BQ8" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="BS8" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV8" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="BX8" s="55" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:147">
+      <c r="J9" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="AG3" s="51" t="s">
+      <c r="K9" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="S9" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA9" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC9" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD9" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE9" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL9" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN9" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="AP9" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR9" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="AT9" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV9" s="55" t="s">
+        <v>490</v>
+      </c>
+      <c r="AW9" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="AX9" s="55" t="s">
+        <v>496</v>
+      </c>
+      <c r="BA9" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="BC9" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="BD9" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BE9" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="BG9" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM9" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="BO9" s="55" t="s">
+        <v>508</v>
+      </c>
+      <c r="BP9" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="BQ9" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="BS9" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="BU9" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="BV9" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="BX9" s="55" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:147">
+      <c r="J10" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="AH3" s="51" t="s">
+      <c r="P10" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="T10" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA10" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC10" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE10" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL10" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN10" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="AP10" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR10" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="AT10" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV10" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="AX10" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="BA10" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="BC10" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="BE10" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="BG10" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM10" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="BO10" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="BQ10" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="BS10" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV10" s="55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:147">
+      <c r="J11" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="AI3" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="AJ3" s="83" t="s">
-        <v>352</v>
-      </c>
-      <c r="AK3" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="AL3" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="AM3" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="AN3" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="AO3" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="AP3" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="AQ3" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="AR3" s="83" t="s">
-        <v>358</v>
-      </c>
-      <c r="AS3" s="83" t="s">
-        <v>359</v>
-      </c>
-      <c r="AT3" s="83" t="s">
-        <v>360</v>
-      </c>
-      <c r="AU3" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="AV3" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="AW3" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="AX3" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="AY3" s="73" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ3" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="BA3" s="73" t="s">
-        <v>367</v>
-      </c>
-      <c r="BB3" s="73" t="s">
-        <v>368</v>
-      </c>
-      <c r="BC3" s="73" t="s">
-        <v>369</v>
-      </c>
-      <c r="BD3" s="85" t="s">
-        <v>370</v>
-      </c>
-      <c r="BE3" s="85" t="s">
-        <v>371</v>
-      </c>
-      <c r="BF3" s="85" t="s">
-        <v>372</v>
-      </c>
-      <c r="BG3" s="85" t="s">
-        <v>373</v>
-      </c>
-      <c r="BH3" s="85" t="s">
-        <v>374</v>
-      </c>
-      <c r="BI3" s="85" t="s">
-        <v>375</v>
-      </c>
-      <c r="BJ3" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="BK3" s="85" t="s">
-        <v>377</v>
-      </c>
-      <c r="BL3" s="85" t="s">
-        <v>378</v>
-      </c>
-      <c r="BM3" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="BN3" s="85" t="s">
-        <v>380</v>
-      </c>
-      <c r="BO3" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="BP3" s="85" t="s">
-        <v>382</v>
-      </c>
-      <c r="BQ3" s="85" t="s">
-        <v>383</v>
-      </c>
-      <c r="BR3" s="85" t="s">
-        <v>384</v>
-      </c>
-      <c r="BS3" s="83" t="s">
-        <v>385</v>
-      </c>
-      <c r="BT3" s="83" t="s">
-        <v>386</v>
-      </c>
-      <c r="BU3" s="83" t="s">
-        <v>387</v>
-      </c>
-      <c r="BV3" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="BW3" s="83" t="s">
-        <v>389</v>
-      </c>
-      <c r="BX3" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="BY3" s="83" t="s">
-        <v>391</v>
-      </c>
-      <c r="BZ3" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="CA3" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="CB3" s="73" t="s">
-        <v>394</v>
-      </c>
-      <c r="CC3" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="CD3" s="73" t="s">
-        <v>396</v>
-      </c>
-      <c r="CE3" s="73" t="s">
-        <v>397</v>
-      </c>
-      <c r="CF3" s="73" t="s">
-        <v>398</v>
-      </c>
-      <c r="CG3" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="CH3" s="73" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:86" s="46" customFormat="1" ht="41.4">
-      <c r="A4" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="K4" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="L4" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="R4" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="S4" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="T4" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="U4" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="V4" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="W4" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="X4" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y4" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z4" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA4" s="62" t="s">
+      <c r="P11" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="AB4" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC4" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD4" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="AE4" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF4" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG4" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH4" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="AI4" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="AJ4" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK4" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL4" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="AM4" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="AN4" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="AO4" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP4" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="AQ4" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="AR4" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="AS4" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="AT4" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="AU4" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="AV4" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW4" s="62" t="s">
-        <v>407</v>
-      </c>
-      <c r="AX4" s="62" t="s">
-        <v>408</v>
-      </c>
-      <c r="AY4" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="AZ4" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="BA4" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB4" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="BC4" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD4" s="86" t="s">
-        <v>409</v>
-      </c>
-      <c r="BE4" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="BF4" s="86" t="s">
-        <v>411</v>
-      </c>
-      <c r="BG4" s="86" t="s">
-        <v>412</v>
-      </c>
-      <c r="BH4" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="BI4" s="86" t="s">
-        <v>413</v>
-      </c>
-      <c r="BJ4" s="86" t="s">
-        <v>414</v>
-      </c>
-      <c r="BK4" s="86" t="s">
-        <v>415</v>
-      </c>
-      <c r="BL4" s="86" t="s">
-        <v>403</v>
-      </c>
-      <c r="BM4" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="BN4" s="86" t="s">
-        <v>406</v>
-      </c>
-      <c r="BO4" s="86" t="s">
-        <v>402</v>
-      </c>
-      <c r="BP4" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="BQ4" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="BR4" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS4" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="BT4" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="BU4" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="BV4" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="BW4" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="BX4" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="BY4" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="BZ4" s="55" t="s">
-        <v>418</v>
-      </c>
-      <c r="CA4" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="CB4" s="62" t="s">
-        <v>419</v>
-      </c>
-      <c r="CC4" s="62" t="s">
-        <v>420</v>
-      </c>
-      <c r="CD4" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="CE4" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="CF4" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="CG4" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="CH4" s="62" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:86" ht="28.2">
-      <c r="A5" s="63">
-        <v>1</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="68" t="s">
-        <v>292</v>
-      </c>
-      <c r="K5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="BE5" s="70"/>
-      <c r="BF5" s="70"/>
-      <c r="BG5" s="70"/>
-      <c r="BH5" s="70"/>
-      <c r="BI5" s="70"/>
-      <c r="BJ5" s="70"/>
-      <c r="BK5" s="70"/>
-      <c r="BL5" s="70"/>
-      <c r="BM5" s="70"/>
-      <c r="BN5" s="70"/>
-      <c r="BO5" s="70"/>
-      <c r="BP5" s="70"/>
-      <c r="BQ5" s="70"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="BT5" s="70"/>
-      <c r="BU5" s="70"/>
-      <c r="BV5" s="70"/>
-      <c r="BW5" s="70"/>
-      <c r="BX5" s="70"/>
-      <c r="BY5" s="70"/>
-      <c r="BZ5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="CA5" s="70"/>
-      <c r="CB5" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="CC5" s="70"/>
-      <c r="CD5" s="70"/>
-      <c r="CE5" s="70"/>
-      <c r="CF5" s="70"/>
-      <c r="CG5" s="70"/>
-      <c r="CH5" s="70"/>
-    </row>
-    <row r="6" spans="1:86" ht="16.8">
-      <c r="G6" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="K6" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="L6" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q6" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="R6" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="S6" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="W6" s="71"/>
-    </row>
-    <row r="7" spans="1:86" ht="16.8">
-      <c r="G7" s="69" t="s">
-        <v>424</v>
-      </c>
-      <c r="K7" s="72" t="s">
-        <v>310</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="M7" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q7" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="R7" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="S7" s="69" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:86">
-      <c r="G8" s="69" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:86">
-      <c r="G9" s="69" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:86">
-      <c r="G10" s="69" t="s">
-        <v>427</v>
+      <c r="R11" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="T11" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA11" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC11" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE11" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL11" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN11" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP11" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR11" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT11" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV11" s="55" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX11" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="BA11" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="BC11" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE11" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="BG11" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM11" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="BO11" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="BQ11" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="BS11" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV11" s="55" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BZ1:CA1"/>
-    <mergeCell ref="CB1:CH1"/>
-    <mergeCell ref="AJ1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:BC1"/>
-    <mergeCell ref="BD1:BR1"/>
-    <mergeCell ref="BS1:BY1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="CL1:DN1"/>
+    <mergeCell ref="DO1:EA1"/>
+    <mergeCell ref="EB1:ED1"/>
+    <mergeCell ref="EE1:EQ1"/>
+    <mergeCell ref="AA1:AK1"/>
+    <mergeCell ref="AL1:AZ1"/>
+    <mergeCell ref="BA1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CK1"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="BZ5 CB5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66566733-55E8-442D-9353-54683DDE873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978FD19-50EE-4E58-B1F1-5452545C032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,8 @@
 7) Cutoff Update(Do not use)
 8) Regular New
 9) Regular Update(Do not use)
-</t>
+10) &lt;00&gt;,&lt;00&gt;,... Migration
+ -&gt;Works on migrated data.</t>
         </r>
       </text>
     </comment>
@@ -247,8 +248,8 @@
 2) &lt;00&gt;,&lt;00&gt;,... Update
  -&gt;Should be ascending order
  -&gt;'Update can be changed to any message without space.
-3)&lt;00&gt;,&lt;00&gt;,... Check
- -&gt;Negetive Testing</t>
+3)&lt;00&gt;,&lt;00&gt;,... Check -&gt;Negetive Testing
+4) &lt;00&gt;,&lt;00&gt;,... Migration -&gt;Works on migrated data.</t>
         </r>
       </text>
     </comment>
@@ -353,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="554">
   <si>
     <t>App</t>
   </si>
@@ -1921,34 +1922,100 @@
     <t>Rahul:9455120510</t>
   </si>
   <si>
+    <t>#40256541474</t>
+  </si>
+  <si>
+    <t>#40256541476</t>
+  </si>
+  <si>
+    <t>#40256541478</t>
+  </si>
+  <si>
+    <t>20_04_2022</t>
+  </si>
+  <si>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>GUJARAT TEST SHG</t>
+  </si>
+  <si>
+    <t>ALHADPURA</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>GJ_GJBK</t>
+  </si>
+  <si>
+    <t>19 Mobile Number</t>
+  </si>
+  <si>
+    <t>20 Address</t>
+  </si>
+  <si>
+    <t>21 Bank</t>
+  </si>
+  <si>
+    <t>22 President</t>
+  </si>
+  <si>
+    <t>23 Tresurar</t>
+  </si>
+  <si>
+    <t>24 Secretary</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Do Not Add</t>
+  </si>
+  <si>
     <t>Submit</t>
   </si>
   <si>
-    <t>#40256541474</t>
-  </si>
-  <si>
-    <t>#40256541476</t>
-  </si>
-  <si>
-    <t>#40256541478</t>
-  </si>
-  <si>
-    <t>20_04_2022</t>
-  </si>
-  <si>
-    <t>Aadhaar</t>
-  </si>
-  <si>
-    <t>GUJARAT TEST SHG</t>
-  </si>
-  <si>
-    <t>ALHADPURA</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>GJ_GJBK</t>
+    <t>40256541490</t>
+  </si>
+  <si>
+    <t>40256541495</t>
+  </si>
+  <si>
+    <t>110049</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9455885271</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>BHADSON</t>
+  </si>
+  <si>
+    <t>HARYANA TEST SHG</t>
+  </si>
+  <si>
+    <t>40256541494</t>
+  </si>
+  <si>
+    <t>40256541493</t>
+  </si>
+  <si>
+    <t>40256541491</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2730,13 +2797,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3056,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAFDE49-6EC4-411F-AEDE-4DE32D140FEF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3093,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
         <v>223</v>
@@ -3102,7 +3171,7 @@
         <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>225</v>
@@ -3125,10 +3194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
-  <dimension ref="A1:BI3"/>
+  <dimension ref="A1:BO15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4"/>
@@ -3136,10 +3205,11 @@
     <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="1"/>
     <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.21875" style="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="15.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="8" customFormat="1" ht="84" customHeight="1" thickBot="1">
+    <row r="1" spans="1:67" s="8" customFormat="1" ht="84" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3323,8 +3393,26 @@
       <c r="BI1" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="BJ1" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="BM1" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN1" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" ht="28.8">
+    <row r="2" spans="1:67" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3335,13 +3423,13 @@
         <v>514</v>
       </c>
       <c r="D2" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" t="s">
         <v>528</v>
       </c>
-      <c r="E2" t="s">
-        <v>529</v>
-      </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -3462,7 +3550,7 @@
         <v>516</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>238</v>
@@ -3471,7 +3559,7 @@
         <v>517</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>238</v>
@@ -3480,18 +3568,1498 @@
         <v>518</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="BJ2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="3" spans="1:61">
+    <row r="3" spans="1:67" ht="28.8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>522</v>
+      <c r="B3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U3" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX3"/>
+      <c r="AY3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" ht="28.8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U4" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX4"/>
+      <c r="AY4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" ht="28.8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U5" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX5"/>
+      <c r="AY5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" ht="28.8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E6" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U6" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX6"/>
+      <c r="AY6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" s="59" customFormat="1">
+      <c r="B7" s="88" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="G7" s="88"/>
+      <c r="AX7" s="88"/>
+    </row>
+    <row r="8" spans="1:67" s="59" customFormat="1" ht="28.8">
+      <c r="A8" s="59">
+        <v>2</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>553</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="S8" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="U8" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y8" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z8" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA8" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB8" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC8" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD8" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE8" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF8" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG8" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH8" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI8" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ8" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL8" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM8" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN8" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO8" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP8" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ8" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR8" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS8" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT8" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU8" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="AV8" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="AW8" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY8" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ8" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA8" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB8" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC8" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="BD8" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE8" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF8" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="BG8" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH8" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ8" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK8" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL8" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BM8" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN8" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO8" s="59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" s="59" customFormat="1">
+      <c r="B9" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="G9" s="88"/>
+    </row>
+    <row r="10" spans="1:67" s="59" customFormat="1" ht="28.8">
+      <c r="A10" s="59">
+        <v>3</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="N10" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="S10" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="U10" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y10" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z10" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA10" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB10" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC10" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD10" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE10" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF10" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG10" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH10" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI10" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ10" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL10" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM10" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN10" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO10" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP10" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ10" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR10" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS10" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT10" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU10" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="AV10" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="AW10" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY10" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ10" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA10" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB10" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC10" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="BD10" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE10" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF10" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="BG10" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH10" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ10" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK10" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL10" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BM10" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN10" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO10" s="59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" s="59" customFormat="1">
+      <c r="B11" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="1:67" s="59" customFormat="1" ht="28.8">
+      <c r="A12" s="59">
+        <v>4</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>547</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="S12" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="U12" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y12" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z12" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA12" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB12" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC12" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD12" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE12" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF12" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG12" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH12" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI12" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ12" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL12" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM12" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN12" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO12" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP12" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ12" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR12" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS12" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT12" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU12" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="AV12" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="AW12" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY12" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ12" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA12" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB12" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC12" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="BD12" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE12" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF12" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="BG12" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH12" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ12" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK12" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL12" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="BM12" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN12" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO12" s="59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" s="59" customFormat="1">
+      <c r="B13" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="G13" s="88"/>
+    </row>
+    <row r="14" spans="1:67" s="59" customFormat="1" ht="28.8">
+      <c r="A14" s="59">
+        <v>5</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>547</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="N14" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="S14" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="U14" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y14" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z14" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA14" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB14" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC14" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD14" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE14" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF14" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG14" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH14" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI14" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ14" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL14" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM14" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN14" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO14" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP14" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ14" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR14" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS14" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT14" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU14" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="AV14" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="AW14" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY14" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ14" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA14" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB14" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC14" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="BD14" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE14" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF14" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="BG14" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH14" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ14" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BK14" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL14" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="BM14" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="BN14" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="BO14" s="59" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" s="59" customFormat="1">
+      <c r="B15" s="59" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +5074,7 @@
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1"/>
@@ -3703,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>254</v>
@@ -3832,7 +5400,7 @@
         <v>238</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>364</v>
@@ -3867,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>254</v>
@@ -3984,7 +5552,7 @@
         <v>238</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>364</v>
@@ -4019,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>254</v>
@@ -4136,10 +5704,10 @@
         <v>362</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>385</v>
@@ -4148,7 +5716,7 @@
         <v>238</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>364</v>
@@ -4183,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>254</v>
@@ -4288,10 +5856,10 @@
         <v>362</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>392</v>
@@ -4300,7 +5868,7 @@
         <v>238</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AW5" s="1" t="s">
         <v>364</v>
@@ -4335,7 +5903,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>254</v>
@@ -4452,10 +6020,10 @@
         <v>362</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>399</v>
@@ -4464,7 +6032,7 @@
         <v>238</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AW6" s="1" t="s">
         <v>364</v>
@@ -5099,172 +6667,172 @@
       <c r="E1" s="85"/>
       <c r="F1" s="85"/>
       <c r="G1" s="85"/>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="88" t="s">
+      <c r="I1" s="91"/>
+      <c r="J1" s="90" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="88" t="s">
+      <c r="K1" s="92"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="90" t="s">
         <v>294</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="88" t="s">
+      <c r="N1" s="92"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="90" t="s">
         <v>295</v>
       </c>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="88" t="s">
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="88" t="s">
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="90" t="s">
         <v>297</v>
       </c>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="88" t="s">
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
-      <c r="BK1" s="89"/>
-      <c r="BL1" s="89"/>
-      <c r="BM1" s="89"/>
-      <c r="BN1" s="89"/>
-      <c r="BO1" s="89"/>
-      <c r="BP1" s="89"/>
-      <c r="BQ1" s="89"/>
-      <c r="BR1" s="89"/>
-      <c r="BS1" s="89"/>
-      <c r="BT1" s="89"/>
-      <c r="BU1" s="90"/>
-      <c r="BV1" s="88" t="s">
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="92"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="92"/>
+      <c r="BN1" s="92"/>
+      <c r="BO1" s="92"/>
+      <c r="BP1" s="92"/>
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="92"/>
+      <c r="BS1" s="92"/>
+      <c r="BT1" s="92"/>
+      <c r="BU1" s="91"/>
+      <c r="BV1" s="90" t="s">
         <v>299</v>
       </c>
-      <c r="BW1" s="89"/>
-      <c r="BX1" s="90"/>
-      <c r="BY1" s="88" t="s">
+      <c r="BW1" s="92"/>
+      <c r="BX1" s="91"/>
+      <c r="BY1" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="BZ1" s="89"/>
-      <c r="CA1" s="89"/>
-      <c r="CB1" s="89"/>
-      <c r="CC1" s="89"/>
-      <c r="CD1" s="89"/>
-      <c r="CE1" s="89"/>
-      <c r="CF1" s="89"/>
-      <c r="CG1" s="89"/>
-      <c r="CH1" s="89"/>
-      <c r="CI1" s="89"/>
-      <c r="CJ1" s="89"/>
-      <c r="CK1" s="90"/>
-      <c r="CL1" s="88" t="s">
+      <c r="BZ1" s="92"/>
+      <c r="CA1" s="92"/>
+      <c r="CB1" s="92"/>
+      <c r="CC1" s="92"/>
+      <c r="CD1" s="92"/>
+      <c r="CE1" s="92"/>
+      <c r="CF1" s="92"/>
+      <c r="CG1" s="92"/>
+      <c r="CH1" s="92"/>
+      <c r="CI1" s="92"/>
+      <c r="CJ1" s="92"/>
+      <c r="CK1" s="91"/>
+      <c r="CL1" s="90" t="s">
         <v>301</v>
       </c>
-      <c r="CM1" s="89"/>
-      <c r="CN1" s="89"/>
-      <c r="CO1" s="89"/>
-      <c r="CP1" s="89"/>
-      <c r="CQ1" s="89"/>
-      <c r="CR1" s="89"/>
-      <c r="CS1" s="89"/>
-      <c r="CT1" s="89"/>
-      <c r="CU1" s="89"/>
-      <c r="CV1" s="89"/>
-      <c r="CW1" s="89"/>
-      <c r="CX1" s="89"/>
-      <c r="CY1" s="89"/>
-      <c r="CZ1" s="89"/>
-      <c r="DA1" s="89"/>
-      <c r="DB1" s="89"/>
-      <c r="DC1" s="89"/>
-      <c r="DD1" s="89"/>
-      <c r="DE1" s="89"/>
-      <c r="DF1" s="89"/>
-      <c r="DG1" s="89"/>
-      <c r="DH1" s="89"/>
-      <c r="DI1" s="89"/>
-      <c r="DJ1" s="89"/>
-      <c r="DK1" s="89"/>
-      <c r="DL1" s="89"/>
-      <c r="DM1" s="89"/>
-      <c r="DN1" s="90"/>
-      <c r="DO1" s="88" t="s">
+      <c r="CM1" s="92"/>
+      <c r="CN1" s="92"/>
+      <c r="CO1" s="92"/>
+      <c r="CP1" s="92"/>
+      <c r="CQ1" s="92"/>
+      <c r="CR1" s="92"/>
+      <c r="CS1" s="92"/>
+      <c r="CT1" s="92"/>
+      <c r="CU1" s="92"/>
+      <c r="CV1" s="92"/>
+      <c r="CW1" s="92"/>
+      <c r="CX1" s="92"/>
+      <c r="CY1" s="92"/>
+      <c r="CZ1" s="92"/>
+      <c r="DA1" s="92"/>
+      <c r="DB1" s="92"/>
+      <c r="DC1" s="92"/>
+      <c r="DD1" s="92"/>
+      <c r="DE1" s="92"/>
+      <c r="DF1" s="92"/>
+      <c r="DG1" s="92"/>
+      <c r="DH1" s="92"/>
+      <c r="DI1" s="92"/>
+      <c r="DJ1" s="92"/>
+      <c r="DK1" s="92"/>
+      <c r="DL1" s="92"/>
+      <c r="DM1" s="92"/>
+      <c r="DN1" s="91"/>
+      <c r="DO1" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="DP1" s="89"/>
-      <c r="DQ1" s="89"/>
-      <c r="DR1" s="89"/>
-      <c r="DS1" s="89"/>
-      <c r="DT1" s="89"/>
-      <c r="DU1" s="89"/>
-      <c r="DV1" s="89"/>
-      <c r="DW1" s="89"/>
-      <c r="DX1" s="89"/>
-      <c r="DY1" s="89"/>
-      <c r="DZ1" s="89"/>
-      <c r="EA1" s="90"/>
-      <c r="EB1" s="88" t="s">
+      <c r="DP1" s="92"/>
+      <c r="DQ1" s="92"/>
+      <c r="DR1" s="92"/>
+      <c r="DS1" s="92"/>
+      <c r="DT1" s="92"/>
+      <c r="DU1" s="92"/>
+      <c r="DV1" s="92"/>
+      <c r="DW1" s="92"/>
+      <c r="DX1" s="92"/>
+      <c r="DY1" s="92"/>
+      <c r="DZ1" s="92"/>
+      <c r="EA1" s="91"/>
+      <c r="EB1" s="90" t="s">
         <v>294</v>
       </c>
-      <c r="EC1" s="89"/>
-      <c r="ED1" s="90"/>
-      <c r="EE1" s="88" t="s">
+      <c r="EC1" s="92"/>
+      <c r="ED1" s="91"/>
+      <c r="EE1" s="90" t="s">
         <v>303</v>
       </c>
-      <c r="EF1" s="89"/>
-      <c r="EG1" s="89"/>
-      <c r="EH1" s="89"/>
-      <c r="EI1" s="89"/>
-      <c r="EJ1" s="89"/>
-      <c r="EK1" s="89"/>
-      <c r="EL1" s="89"/>
-      <c r="EM1" s="89"/>
-      <c r="EN1" s="89"/>
-      <c r="EO1" s="89"/>
-      <c r="EP1" s="89"/>
-      <c r="EQ1" s="90"/>
+      <c r="EF1" s="92"/>
+      <c r="EG1" s="92"/>
+      <c r="EH1" s="92"/>
+      <c r="EI1" s="92"/>
+      <c r="EJ1" s="92"/>
+      <c r="EK1" s="92"/>
+      <c r="EL1" s="92"/>
+      <c r="EM1" s="92"/>
+      <c r="EN1" s="92"/>
+      <c r="EO1" s="92"/>
+      <c r="EP1" s="92"/>
+      <c r="EQ1" s="91"/>
     </row>
     <row r="2" spans="1:147" s="58" customFormat="1" ht="75.599999999999994" customHeight="1" thickBot="1">
       <c r="A2" s="47"/>
@@ -7091,11 +8659,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="CL1:DN1"/>
     <mergeCell ref="DO1:EA1"/>
     <mergeCell ref="EB1:ED1"/>
     <mergeCell ref="EE1:EQ1"/>
@@ -7104,6 +8667,11 @@
     <mergeCell ref="BA1:BU1"/>
     <mergeCell ref="BV1:BX1"/>
     <mergeCell ref="BY1:CK1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="CL1:DN1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XLS Data/SHG.xlsx
+++ b/XLS Data/SHG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978FD19-50EE-4E58-B1F1-5452545C032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1BA218-60FE-4329-B9FD-3744CEA9BF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="558">
   <si>
     <t>App</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t>Sulata Gupta</t>
   </si>
   <si>
-    <t>#9455885271</t>
-  </si>
-  <si>
     <t>Horticulture Activities</t>
   </si>
   <si>
@@ -1109,9 +1106,6 @@
     <t>Main Branch</t>
   </si>
   <si>
-    <t>#40256541490</t>
-  </si>
-  <si>
     <t>23_02_2020</t>
   </si>
   <si>
@@ -1940,9 +1934,6 @@
     <t>GUJARAT TEST SHG</t>
   </si>
   <si>
-    <t>ALHADPURA</t>
-  </si>
-  <si>
     <t>Gujarat</t>
   </si>
   <si>
@@ -2016,6 +2007,27 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Vinay:9455120510</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Reject SHG</t>
+  </si>
+  <si>
+    <t>Accept only 5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>New Members</t>
   </si>
 </sst>
 </file>
@@ -2548,7 +2560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2670,9 +2682,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3161,8 +3170,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>529</v>
+      <c r="B2" s="86" t="s">
+        <v>526</v>
       </c>
       <c r="C2" t="s">
         <v>223</v>
@@ -3171,13 +3180,13 @@
         <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>225</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -3194,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
-  <dimension ref="A1:BO15"/>
+  <dimension ref="A1:BO17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4"/>
@@ -3394,1672 +3403,1531 @@
         <v>66</v>
       </c>
       <c r="BJ1" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="BM1" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="BM1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:67" s="58" customFormat="1" ht="28.8">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>544</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC2" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD2" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE2" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG2" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH2" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI2" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL2" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM2" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="AN2" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO2" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP2" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ2" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR2" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS2" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT2" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU2" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AV2" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW2" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ2" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="BA2" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BB2" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC2" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD2" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE2" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF2" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG2" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH2" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ2" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BK2" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BL2" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BM2" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN2" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BO2" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="BO1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:67" s="58" customFormat="1">
+      <c r="A3" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>536</v>
       </c>
+      <c r="D3" s="88"/>
+      <c r="G3" s="87"/>
+      <c r="AX3" s="87"/>
     </row>
-    <row r="2" spans="1:67" ht="28.8">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:67" s="58" customFormat="1" ht="28.8">
+      <c r="A4" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC4" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD4" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE4" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF4" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG4" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH4" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI4" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ4" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL4" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM4" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN4" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO4" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP4" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ4" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="AR4" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS4" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT4" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU4" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="AV4" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW4" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY4" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ4" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F2" t="s">
-        <v>528</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="BA4" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BB4" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC4" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD4" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE4" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF4" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG4" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH4" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ4" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BK4" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BL4" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BM4" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN4" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BO4" s="58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" s="58" customFormat="1">
+      <c r="A5" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" spans="1:67" s="58" customFormat="1" ht="28.8">
+      <c r="A6" s="58" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I6" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J6" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K6" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L6" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M6" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N6" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O6" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P6" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q6" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S6" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U6" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y6" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z6" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA6" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB6" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC6" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD6" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE6" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF6" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG6" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH6" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI6" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ6" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL6" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM6" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN6" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO6" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP6" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ6" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR6" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS6" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT6" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU6" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV6" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW6" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY6" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ6" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="BA6" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BB6" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC6" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD6" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE6" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF6" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG6" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH6" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ6" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BK6" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BL6" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BM6" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN6" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BO6" s="58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" s="58" customFormat="1">
+      <c r="A7" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:67" s="58" customFormat="1" ht="28.8">
+      <c r="B8" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>544</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="U8" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y8" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z8" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA8" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB8" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC8" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD8" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE8" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF8" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG8" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH8" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI8" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ8" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL8" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM8" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN8" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO8" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP8" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ8" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR8" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS8" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT8" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU8" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV8" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW8" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY8" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ8" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="BA8" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BB8" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC8" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD8" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE8" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF8" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG8" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH8" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ8" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BK8" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BL8" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="BM8" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN8" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BO8" s="58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" s="58" customFormat="1">
+      <c r="A9" s="58" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="G9" s="87"/>
+    </row>
+    <row r="10" spans="1:67" s="58" customFormat="1" ht="28.8">
+      <c r="A10" s="58" t="s">
+        <v>552</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>544</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q10" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="S10" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="U10" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y10" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z10" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA10" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB10" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC10" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD10" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE10" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF10" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG10" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH10" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI10" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ10" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL10" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM10" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN10" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO10" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP10" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ10" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR10" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS10" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT10" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU10" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="AV10" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW10" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY10" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ10" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="BA10" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BB10" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC10" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD10" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE10" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF10" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG10" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH10" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ10" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BK10" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BL10" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BM10" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="BN10" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="BO10" s="58" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" s="58" customFormat="1">
+      <c r="A11" s="58" t="s">
+        <v>553</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" s="58" customFormat="1" ht="28.8">
+      <c r="A12" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>544</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="S12" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="U12" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y12" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z12" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA12" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB12" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC12" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD12" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE12" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF12" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG12" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH12" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI12" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ12" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL12" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM12" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="AN12" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO12" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP12" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ12" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR12" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS12" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT12" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU12" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AV12" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW12" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ12" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="BA12" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BB12" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC12" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD12" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE12" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF12" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG12" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH12" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ12" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BK12" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BL12" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BM12" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN12" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BO12" s="58" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" s="58" customFormat="1">
+      <c r="A13" s="58" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="G13" s="87"/>
+      <c r="AX13" s="87"/>
+    </row>
+    <row r="14" spans="1:67" s="58" customFormat="1" ht="28.8">
+      <c r="A14" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="S14" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="U14" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y14" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z14" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA14" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB14" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC14" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD14" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE14" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF14" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG14" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH14" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI14" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ14" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL14" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM14" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="AN14" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO14" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP14" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ14" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR14" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS14" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT14" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU14" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AV14" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW14" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ14" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="BA14" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BB14" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC14" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD14" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE14" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF14" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG14" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH14" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ14" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BK14" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BL14" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BM14" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN14" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BO14" s="58" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" s="58" customFormat="1" ht="28.8">
+      <c r="A16" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="S16" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="U16" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y16" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z16" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA16" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB16" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC16" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD16" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE16" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF16" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG16" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH16" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI16" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ16" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL16" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM16" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="AN16" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO16" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP16" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ16" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR16" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS16" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT16" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU16" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AV16" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW16" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ16" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="BA16" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BB16" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC16" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD16" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE16" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF16" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG16" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH16" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ16" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BK16" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BL16" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BM16" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN16" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="BO16" s="58" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>300</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>14</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>110049</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX2"/>
-      <c r="AY2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:67" ht="28.8">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" t="s">
-        <v>528</v>
-      </c>
-      <c r="F3" t="s">
-        <v>528</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U3" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>300</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>14</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>110049</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX3"/>
-      <c r="AY3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:67" ht="28.8">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>527</v>
-      </c>
-      <c r="E4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U4" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>300</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>14</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>110049</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX4"/>
-      <c r="AY4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:67" ht="28.8">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F5" t="s">
-        <v>528</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U5" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>300</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>14</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>110049</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX5"/>
-      <c r="AY5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:67" ht="28.8">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>527</v>
-      </c>
-      <c r="E6" t="s">
-        <v>528</v>
-      </c>
-      <c r="F6" t="s">
-        <v>528</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U6" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>300</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>14</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>110049</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX6"/>
-      <c r="AY6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:67" s="59" customFormat="1">
-      <c r="B7" s="88" t="s">
-        <v>539</v>
-      </c>
-      <c r="D7" s="89"/>
-      <c r="G7" s="88"/>
-      <c r="AX7" s="88"/>
-    </row>
-    <row r="8" spans="1:67" s="59" customFormat="1" ht="28.8">
-      <c r="A8" s="59">
-        <v>2</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>549</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>553</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="P8" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q8" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="S8" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="U8" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y8" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z8" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA8" s="59" t="s">
-        <v>545</v>
-      </c>
-      <c r="AB8" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC8" s="59" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD8" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE8" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF8" s="59" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG8" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH8" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI8" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ8" s="59" t="s">
-        <v>543</v>
-      </c>
-      <c r="AL8" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM8" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN8" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO8" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP8" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="AQ8" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR8" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS8" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT8" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU8" s="59" t="s">
-        <v>552</v>
-      </c>
-      <c r="AV8" s="59" t="s">
-        <v>540</v>
-      </c>
-      <c r="AW8" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY8" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ8" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA8" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB8" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC8" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD8" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE8" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF8" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG8" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH8" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ8" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK8" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL8" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BM8" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BN8" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BO8" s="59" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67" s="59" customFormat="1">
-      <c r="B9" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="10" spans="1:67" s="59" customFormat="1" ht="28.8">
-      <c r="A10" s="59">
-        <v>3</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="D10" s="89" t="s">
-        <v>549</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="G10" s="88" t="s">
-        <v>288</v>
-      </c>
-      <c r="H10" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="M10" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="N10" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="O10" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="P10" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q10" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="S10" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="U10" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y10" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z10" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA10" s="59" t="s">
-        <v>545</v>
-      </c>
-      <c r="AB10" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC10" s="59" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD10" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE10" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF10" s="59" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG10" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH10" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI10" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ10" s="59" t="s">
-        <v>543</v>
-      </c>
-      <c r="AL10" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM10" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN10" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO10" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP10" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="AQ10" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR10" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS10" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT10" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU10" s="59" t="s">
-        <v>551</v>
-      </c>
-      <c r="AV10" s="59" t="s">
-        <v>540</v>
-      </c>
-      <c r="AW10" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY10" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ10" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA10" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB10" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC10" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD10" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE10" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF10" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG10" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH10" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ10" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK10" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL10" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BM10" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BN10" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BO10" s="59" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:67" s="59" customFormat="1">
-      <c r="B11" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="D11" s="89"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:67" s="59" customFormat="1" ht="28.8">
-      <c r="A12" s="59">
-        <v>4</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="D12" s="89" t="s">
-        <v>549</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>547</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="L12" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="N12" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="P12" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q12" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="S12" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="U12" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y12" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z12" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA12" s="59" t="s">
-        <v>545</v>
-      </c>
-      <c r="AB12" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC12" s="59" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD12" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE12" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF12" s="59" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG12" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH12" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI12" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ12" s="59" t="s">
-        <v>543</v>
-      </c>
-      <c r="AL12" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM12" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN12" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO12" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP12" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="AQ12" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR12" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS12" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT12" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU12" s="59" t="s">
-        <v>550</v>
-      </c>
-      <c r="AV12" s="59" t="s">
-        <v>540</v>
-      </c>
-      <c r="AW12" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY12" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ12" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA12" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB12" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC12" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD12" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE12" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF12" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG12" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH12" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ12" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK12" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL12" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="BM12" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BN12" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BO12" s="59" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:67" s="59" customFormat="1">
-      <c r="B13" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="D13" s="89"/>
-      <c r="G13" s="88"/>
-    </row>
-    <row r="14" spans="1:67" s="59" customFormat="1" ht="28.8">
-      <c r="A14" s="59">
-        <v>5</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="D14" s="89" t="s">
-        <v>549</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>547</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="I14" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K14" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="M14" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="N14" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="P14" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="U14" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y14" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z14" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA14" s="59" t="s">
-        <v>545</v>
-      </c>
-      <c r="AB14" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC14" s="59" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD14" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE14" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF14" s="59" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG14" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH14" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI14" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ14" s="59" t="s">
-        <v>543</v>
-      </c>
-      <c r="AL14" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM14" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN14" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO14" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP14" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="AQ14" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR14" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS14" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT14" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU14" s="59" t="s">
-        <v>541</v>
-      </c>
-      <c r="AV14" s="59" t="s">
-        <v>540</v>
-      </c>
-      <c r="AW14" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY14" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ14" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA14" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB14" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC14" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD14" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE14" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF14" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG14" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH14" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ14" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK14" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL14" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="BM14" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="BN14" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="BO14" s="59" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:67" s="59" customFormat="1">
-      <c r="B15" s="59" t="s">
-        <v>539</v>
+      <c r="B17" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -5104,7 +4972,7 @@
         <v>70</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>71</v>
@@ -5270,796 +5138,796 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>527</v>
+      <c r="B2" s="59" t="s">
+        <v>525</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>238</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I2" s="1">
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="61" t="s">
         <v>352</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y2" s="62" t="s">
-        <v>354</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AA2" s="62" t="s">
+      <c r="AA2" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC2" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AH2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="AJ2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL2" s="1">
         <v>110049</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AO2" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AO2" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="AR2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AW2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ2" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AZ2" s="62" t="s">
+      <c r="BB2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BC2" s="62" t="s">
+      <c r="BE2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="BF2" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="43.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>527</v>
+      <c r="B3" s="59" t="s">
+        <v>525</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="I3" s="1">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>341</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>238</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y3" s="61" t="s">
         <v>352</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y3" s="62" t="s">
-        <v>354</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AA3" s="62" t="s">
+      <c r="AA3" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB3" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC3" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="AB3" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC3" s="62" t="s">
+      <c r="AF3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AI3" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL3" s="1">
         <v>110050</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AN3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO3" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="AO3" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ3" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ3" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BC3" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BC3" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BF3" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="BF3" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="28.8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>527</v>
+      <c r="B4" s="59" t="s">
+        <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>238</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I4" s="1">
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="61" t="s">
         <v>352</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y4" s="62" t="s">
-        <v>354</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AA4" s="62" t="s">
+      <c r="AA4" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB4" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC4" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="AB4" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC4" s="62" t="s">
+      <c r="AF4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AI4" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL4" s="1">
         <v>110051</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AO4" s="62" t="s">
-        <v>249</v>
+        <v>382</v>
+      </c>
+      <c r="AO4" s="61" t="s">
+        <v>248</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ4" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ4" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BC4" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE4" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BB4" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BC4" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BF4" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG4" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BF4" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="43.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>527</v>
+      <c r="B5" s="59" t="s">
+        <v>525</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="I5" s="1">
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>341</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>238</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y5" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA5" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="Y5" s="62" t="s">
+      <c r="AB5" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA5" s="62" t="s">
+      <c r="AC5" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="AB5" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC5" s="62" t="s">
+      <c r="AF5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AI5" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL5" s="1">
         <v>110052</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AO5" s="62" t="s">
-        <v>249</v>
+        <v>389</v>
+      </c>
+      <c r="AO5" s="61" t="s">
+        <v>248</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ5" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ5" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BB5" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BC5" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BE5" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BB5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BC5" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BF5" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG5" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="BF5" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="28.8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>527</v>
+      <c r="B6" s="59" t="s">
+        <v>525</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>238</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I6" s="1">
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA6" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="Y6" s="62" t="s">
+      <c r="AB6" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA6" s="62" t="s">
+      <c r="AC6" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="AB6" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC6" s="62" t="s">
+      <c r="AF6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AI6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL6" s="1">
         <v>110053</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AO6" s="62" t="s">
-        <v>249</v>
+        <v>396</v>
+      </c>
+      <c r="AO6" s="61" t="s">
+        <v>248</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ6" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ6" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BB6" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BC6" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BE6" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="BB6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BC6" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BF6" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG6" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="BF6" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -6133,31 +6001,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>225</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6472,13 +6340,13 @@
         <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -6496,7 +6364,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L2" s="1">
         <v>500</v>
@@ -6520,22 +6388,22 @@
         <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V2" s="1">
         <v>10</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="1">
         <v>500</v>
@@ -6559,22 +6427,22 @@
         <v>60</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AI2" s="1">
         <v>10</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM2" s="1">
         <v>500</v>
@@ -6598,19 +6466,19 @@
         <v>60</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AV2" s="1">
         <v>10</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AY2" s="1">
         <v>200</v>
@@ -6619,20 +6487,20 @@
         <v>100</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BC2" s="1">
         <v>500</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:93">
-      <c r="E6" s="59"/>
+      <c r="E6" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6649,2012 +6517,2012 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="55" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="55" customWidth="1"/>
-    <col min="3" max="5" width="17.109375" style="55"/>
-    <col min="6" max="6" width="20.33203125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" style="55" customWidth="1"/>
-    <col min="8" max="29" width="17.109375" style="55"/>
-    <col min="30" max="34" width="17.109375" style="57"/>
-    <col min="35" max="16384" width="17.109375" style="55"/>
+    <col min="1" max="1" width="5.88671875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="54" customWidth="1"/>
+    <col min="3" max="5" width="17.109375" style="54"/>
+    <col min="6" max="6" width="20.33203125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="54" customWidth="1"/>
+    <col min="8" max="29" width="17.109375" style="54"/>
+    <col min="30" max="34" width="17.109375" style="56"/>
+    <col min="35" max="16384" width="17.109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" s="86" customFormat="1" ht="25.8" customHeight="1" thickBot="1">
-      <c r="A1" s="83"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="90" t="s">
+    <row r="1" spans="1:147" s="85" customFormat="1" ht="25.8" customHeight="1" thickBot="1">
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="90"/>
+      <c r="J1" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="91"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="90" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="89" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="92"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="90" t="s">
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="90" t="s">
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="90" t="s">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="91"/>
+      <c r="BJ1" s="91"/>
+      <c r="BK1" s="91"/>
+      <c r="BL1" s="91"/>
+      <c r="BM1" s="91"/>
+      <c r="BN1" s="91"/>
+      <c r="BO1" s="91"/>
+      <c r="BP1" s="91"/>
+      <c r="BQ1" s="91"/>
+      <c r="BR1" s="91"/>
+      <c r="BS1" s="91"/>
+      <c r="BT1" s="91"/>
+      <c r="BU1" s="90"/>
+      <c r="BV1" s="89" t="s">
         <v>297</v>
       </c>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="91"/>
-      <c r="BA1" s="90" t="s">
+      <c r="BW1" s="91"/>
+      <c r="BX1" s="90"/>
+      <c r="BY1" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="BB1" s="92"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="92"/>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
-      <c r="BJ1" s="92"/>
-      <c r="BK1" s="92"/>
-      <c r="BL1" s="92"/>
-      <c r="BM1" s="92"/>
-      <c r="BN1" s="92"/>
-      <c r="BO1" s="92"/>
-      <c r="BP1" s="92"/>
-      <c r="BQ1" s="92"/>
-      <c r="BR1" s="92"/>
-      <c r="BS1" s="92"/>
-      <c r="BT1" s="92"/>
-      <c r="BU1" s="91"/>
-      <c r="BV1" s="90" t="s">
+      <c r="BZ1" s="91"/>
+      <c r="CA1" s="91"/>
+      <c r="CB1" s="91"/>
+      <c r="CC1" s="91"/>
+      <c r="CD1" s="91"/>
+      <c r="CE1" s="91"/>
+      <c r="CF1" s="91"/>
+      <c r="CG1" s="91"/>
+      <c r="CH1" s="91"/>
+      <c r="CI1" s="91"/>
+      <c r="CJ1" s="91"/>
+      <c r="CK1" s="90"/>
+      <c r="CL1" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="BW1" s="92"/>
-      <c r="BX1" s="91"/>
-      <c r="BY1" s="90" t="s">
+      <c r="CM1" s="91"/>
+      <c r="CN1" s="91"/>
+      <c r="CO1" s="91"/>
+      <c r="CP1" s="91"/>
+      <c r="CQ1" s="91"/>
+      <c r="CR1" s="91"/>
+      <c r="CS1" s="91"/>
+      <c r="CT1" s="91"/>
+      <c r="CU1" s="91"/>
+      <c r="CV1" s="91"/>
+      <c r="CW1" s="91"/>
+      <c r="CX1" s="91"/>
+      <c r="CY1" s="91"/>
+      <c r="CZ1" s="91"/>
+      <c r="DA1" s="91"/>
+      <c r="DB1" s="91"/>
+      <c r="DC1" s="91"/>
+      <c r="DD1" s="91"/>
+      <c r="DE1" s="91"/>
+      <c r="DF1" s="91"/>
+      <c r="DG1" s="91"/>
+      <c r="DH1" s="91"/>
+      <c r="DI1" s="91"/>
+      <c r="DJ1" s="91"/>
+      <c r="DK1" s="91"/>
+      <c r="DL1" s="91"/>
+      <c r="DM1" s="91"/>
+      <c r="DN1" s="90"/>
+      <c r="DO1" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="BZ1" s="92"/>
-      <c r="CA1" s="92"/>
-      <c r="CB1" s="92"/>
-      <c r="CC1" s="92"/>
-      <c r="CD1" s="92"/>
-      <c r="CE1" s="92"/>
-      <c r="CF1" s="92"/>
-      <c r="CG1" s="92"/>
-      <c r="CH1" s="92"/>
-      <c r="CI1" s="92"/>
-      <c r="CJ1" s="92"/>
-      <c r="CK1" s="91"/>
-      <c r="CL1" s="90" t="s">
+      <c r="DP1" s="91"/>
+      <c r="DQ1" s="91"/>
+      <c r="DR1" s="91"/>
+      <c r="DS1" s="91"/>
+      <c r="DT1" s="91"/>
+      <c r="DU1" s="91"/>
+      <c r="DV1" s="91"/>
+      <c r="DW1" s="91"/>
+      <c r="DX1" s="91"/>
+      <c r="DY1" s="91"/>
+      <c r="DZ1" s="91"/>
+      <c r="EA1" s="90"/>
+      <c r="EB1" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="EC1" s="91"/>
+      <c r="ED1" s="90"/>
+      <c r="EE1" s="89" t="s">
         <v>301</v>
       </c>
-      <c r="CM1" s="92"/>
-      <c r="CN1" s="92"/>
-      <c r="CO1" s="92"/>
-      <c r="CP1" s="92"/>
-      <c r="CQ1" s="92"/>
-      <c r="CR1" s="92"/>
-      <c r="CS1" s="92"/>
-      <c r="CT1" s="92"/>
-      <c r="CU1" s="92"/>
-      <c r="CV1" s="92"/>
-      <c r="CW1" s="92"/>
-      <c r="CX1" s="92"/>
-      <c r="CY1" s="92"/>
-      <c r="CZ1" s="92"/>
-      <c r="DA1" s="92"/>
-      <c r="DB1" s="92"/>
-      <c r="DC1" s="92"/>
-      <c r="DD1" s="92"/>
-      <c r="DE1" s="92"/>
-      <c r="DF1" s="92"/>
-      <c r="DG1" s="92"/>
-      <c r="DH1" s="92"/>
-      <c r="DI1" s="92"/>
-      <c r="DJ1" s="92"/>
-      <c r="DK1" s="92"/>
-      <c r="DL1" s="92"/>
-      <c r="DM1" s="92"/>
-      <c r="DN1" s="91"/>
-      <c r="DO1" s="90" t="s">
+      <c r="EF1" s="91"/>
+      <c r="EG1" s="91"/>
+      <c r="EH1" s="91"/>
+      <c r="EI1" s="91"/>
+      <c r="EJ1" s="91"/>
+      <c r="EK1" s="91"/>
+      <c r="EL1" s="91"/>
+      <c r="EM1" s="91"/>
+      <c r="EN1" s="91"/>
+      <c r="EO1" s="91"/>
+      <c r="EP1" s="91"/>
+      <c r="EQ1" s="90"/>
+    </row>
+    <row r="2" spans="1:147" s="57" customFormat="1" ht="75.599999999999994" customHeight="1" thickBot="1">
+      <c r="A2" s="46"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="DP1" s="92"/>
-      <c r="DQ1" s="92"/>
-      <c r="DR1" s="92"/>
-      <c r="DS1" s="92"/>
-      <c r="DT1" s="92"/>
-      <c r="DU1" s="92"/>
-      <c r="DV1" s="92"/>
-      <c r="DW1" s="92"/>
-      <c r="DX1" s="92"/>
-      <c r="DY1" s="92"/>
-      <c r="DZ1" s="92"/>
-      <c r="EA1" s="91"/>
-      <c r="EB1" s="90" t="s">
-        <v>294</v>
-      </c>
-      <c r="EC1" s="92"/>
-      <c r="ED1" s="91"/>
-      <c r="EE1" s="90" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BV2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BW2" s="64"/>
+      <c r="BX2" s="64"/>
+      <c r="BY2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="BZ2" s="64"/>
+      <c r="CA2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="CB2" s="64"/>
+      <c r="CC2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="CD2" s="64"/>
+      <c r="CE2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="CF2" s="64"/>
+      <c r="CG2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="CH2" s="63"/>
+      <c r="CI2" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="CJ2" s="63"/>
+      <c r="CK2" s="63"/>
+      <c r="CL2" s="63"/>
+      <c r="CM2" s="63"/>
+      <c r="CN2" s="63"/>
+      <c r="CO2" s="63"/>
+      <c r="CP2" s="63"/>
+      <c r="CQ2" s="63"/>
+      <c r="CR2" s="63"/>
+      <c r="CS2" s="63"/>
+      <c r="CT2" s="63"/>
+      <c r="CU2" s="63"/>
+      <c r="CV2" s="63"/>
+      <c r="CW2" s="63"/>
+      <c r="CX2" s="63"/>
+      <c r="CY2" s="63"/>
+      <c r="CZ2" s="63"/>
+      <c r="DA2" s="63"/>
+      <c r="DB2" s="63"/>
+      <c r="DC2" s="63"/>
+      <c r="DD2" s="63"/>
+      <c r="DE2" s="63"/>
+      <c r="DF2" s="63"/>
+      <c r="DG2" s="63"/>
+      <c r="DH2" s="63"/>
+      <c r="DI2" s="63"/>
+      <c r="DJ2" s="63"/>
+      <c r="DK2" s="63"/>
+      <c r="DL2" s="63"/>
+      <c r="DM2" s="63"/>
+      <c r="DN2" s="63"/>
+      <c r="DO2" s="63"/>
+      <c r="DP2" s="63"/>
+      <c r="DQ2" s="63"/>
+      <c r="DR2" s="63"/>
+      <c r="DS2" s="63"/>
+      <c r="DT2" s="63"/>
+      <c r="DU2" s="63"/>
+      <c r="DV2" s="63"/>
+      <c r="DW2" s="63"/>
+      <c r="DX2" s="63"/>
+      <c r="DY2" s="63"/>
+      <c r="DZ2" s="63"/>
+      <c r="EA2" s="63"/>
+      <c r="EB2" s="63"/>
+      <c r="EC2" s="63"/>
+      <c r="ED2" s="63"/>
+      <c r="EE2" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="EF2" s="63"/>
+      <c r="EG2" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="EH2" s="63"/>
+      <c r="EI2" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="EJ2" s="63"/>
+      <c r="EK2" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="EL2" s="63"/>
+      <c r="EM2" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="EN2" s="63"/>
+      <c r="EO2" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="EP2" s="63"/>
+      <c r="EQ2" s="63"/>
+    </row>
+    <row r="3" spans="1:147" s="45" customFormat="1" ht="18" thickBot="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="78">
+        <v>0</v>
+      </c>
+      <c r="C3" s="79">
+        <v>0</v>
+      </c>
+      <c r="D3" s="79">
+        <v>0</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="79">
+        <v>0</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3" s="65">
+        <v>1</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="65">
+        <v>2</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="L3" s="65">
+        <v>2999</v>
+      </c>
+      <c r="M3" s="65">
+        <v>3</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="O3" s="65">
+        <v>3999</v>
+      </c>
+      <c r="P3" s="65">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="R3" s="65">
+        <v>104</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="T3" s="65">
+        <v>204</v>
+      </c>
+      <c r="U3" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="V3" s="65">
+        <v>304</v>
+      </c>
+      <c r="W3" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="X3" s="65">
+        <v>404</v>
+      </c>
+      <c r="Y3" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z3" s="65">
+        <v>4999</v>
+      </c>
+      <c r="AA3" s="65">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC3" s="65">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="65" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE3" s="65">
+        <v>205</v>
+      </c>
+      <c r="AF3" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG3" s="65">
+        <v>305</v>
+      </c>
+      <c r="AH3" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI3" s="65">
+        <v>405</v>
+      </c>
+      <c r="AJ3" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK3" s="65">
+        <v>5999</v>
+      </c>
+      <c r="AL3" s="65">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN3" s="65">
+        <v>106</v>
+      </c>
+      <c r="AO3" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP3" s="65">
+        <v>206</v>
+      </c>
+      <c r="AQ3" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="AR3" s="65">
+        <v>306</v>
+      </c>
+      <c r="AS3" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="AT3" s="65">
+        <v>406</v>
+      </c>
+      <c r="AU3" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="AV3" s="65">
+        <v>506</v>
+      </c>
+      <c r="AW3" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="AX3" s="65">
+        <v>606</v>
+      </c>
+      <c r="AY3" s="65" t="s">
+        <v>429</v>
+      </c>
+      <c r="AZ3" s="65">
+        <v>6999</v>
+      </c>
+      <c r="BA3" s="65">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="BC3" s="65">
+        <v>108</v>
+      </c>
+      <c r="BD3" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="BE3" s="65">
+        <v>208</v>
+      </c>
+      <c r="BF3" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="BG3" s="65">
+        <v>308</v>
+      </c>
+      <c r="BH3" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="BI3" s="65">
+        <v>408</v>
+      </c>
+      <c r="BJ3" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="BK3" s="65">
+        <v>508</v>
+      </c>
+      <c r="BL3" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="BM3" s="65">
+        <v>608</v>
+      </c>
+      <c r="BN3" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="BO3" s="65">
+        <v>708</v>
+      </c>
+      <c r="BP3" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="BQ3" s="65">
+        <v>808</v>
+      </c>
+      <c r="BR3" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="BS3" s="65">
+        <v>908</v>
+      </c>
+      <c r="BT3" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="BU3" s="65">
+        <v>8999</v>
+      </c>
+      <c r="BV3" s="65">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="BX3" s="65">
+        <v>9999</v>
+      </c>
+      <c r="BY3" s="65">
+        <v>10</v>
+      </c>
+      <c r="BZ3" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="CA3" s="65">
+        <v>110</v>
+      </c>
+      <c r="CB3" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="CC3" s="65">
+        <v>210</v>
+      </c>
+      <c r="CD3" s="65" t="s">
+        <v>443</v>
+      </c>
+      <c r="CE3" s="65">
+        <v>310</v>
+      </c>
+      <c r="CF3" s="65" t="s">
+        <v>444</v>
+      </c>
+      <c r="CG3" s="65">
+        <v>410</v>
+      </c>
+      <c r="CH3" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="CI3" s="65">
+        <v>510</v>
+      </c>
+      <c r="CJ3" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="CK3" s="65">
+        <v>10999</v>
+      </c>
+      <c r="CL3" s="65">
+        <v>11</v>
+      </c>
+      <c r="CM3" s="65" t="s">
+        <v>447</v>
+      </c>
+      <c r="CN3" s="65">
+        <v>111</v>
+      </c>
+      <c r="CO3" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="CP3" s="65">
+        <v>211</v>
+      </c>
+      <c r="CQ3" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="CR3" s="65">
+        <v>311</v>
+      </c>
+      <c r="CS3" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="CT3" s="65">
+        <v>411</v>
+      </c>
+      <c r="CU3" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="CV3" s="65">
+        <v>511</v>
+      </c>
+      <c r="CW3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="CX3" s="65">
+        <v>611</v>
+      </c>
+      <c r="CY3" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="CZ3" s="65">
+        <v>711</v>
+      </c>
+      <c r="DA3" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="DB3" s="65">
+        <v>811</v>
+      </c>
+      <c r="DC3" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="DD3" s="65">
+        <v>911</v>
+      </c>
+      <c r="DE3" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="DF3" s="65">
+        <v>1011</v>
+      </c>
+      <c r="DG3" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="DH3" s="65">
+        <v>1111</v>
+      </c>
+      <c r="DI3" s="65" t="s">
+        <v>458</v>
+      </c>
+      <c r="DJ3" s="65">
+        <v>1211</v>
+      </c>
+      <c r="DK3" s="65" t="s">
+        <v>459</v>
+      </c>
+      <c r="DL3" s="65">
+        <v>1311</v>
+      </c>
+      <c r="DM3" s="65" t="s">
+        <v>460</v>
+      </c>
+      <c r="DN3" s="65">
+        <v>11999</v>
+      </c>
+      <c r="DO3" s="65">
+        <v>12</v>
+      </c>
+      <c r="DP3" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="DQ3" s="65">
+        <v>112</v>
+      </c>
+      <c r="DR3" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="DS3" s="65">
+        <v>212</v>
+      </c>
+      <c r="DT3" s="65" t="s">
+        <v>463</v>
+      </c>
+      <c r="DU3" s="65">
+        <v>312</v>
+      </c>
+      <c r="DV3" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="DW3" s="65">
+        <v>412</v>
+      </c>
+      <c r="DX3" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="DY3" s="65">
+        <v>512</v>
+      </c>
+      <c r="DZ3" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="EA3" s="65">
+        <v>12999</v>
+      </c>
+      <c r="EB3" s="65">
+        <v>13</v>
+      </c>
+      <c r="EC3" s="65" t="s">
+        <v>467</v>
+      </c>
+      <c r="ED3" s="65">
+        <v>13999</v>
+      </c>
+      <c r="EE3" s="65">
+        <v>14</v>
+      </c>
+      <c r="EF3" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="EG3" s="65">
+        <v>114</v>
+      </c>
+      <c r="EH3" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="EI3" s="65">
+        <v>214</v>
+      </c>
+      <c r="EJ3" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="EK3" s="65">
+        <v>314</v>
+      </c>
+      <c r="EL3" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="EM3" s="65">
+        <v>414</v>
+      </c>
+      <c r="EN3" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="EO3" s="65">
+        <v>514</v>
+      </c>
+      <c r="EP3" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="EQ3" s="65">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:147" s="44" customFormat="1" ht="42" thickBot="1">
+      <c r="A4" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>474</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="T4" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="U4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="V4" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="W4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="X4" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z4" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA4" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC4" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE4" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AG4" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI4" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AK4" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL4" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AN4" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AP4" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AR4" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="AS4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT4" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AV4" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AX4" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="AZ4" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="BA4" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BC4" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BE4" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="EF1" s="92"/>
-      <c r="EG1" s="92"/>
-      <c r="EH1" s="92"/>
-      <c r="EI1" s="92"/>
-      <c r="EJ1" s="92"/>
-      <c r="EK1" s="92"/>
-      <c r="EL1" s="92"/>
-      <c r="EM1" s="92"/>
-      <c r="EN1" s="92"/>
-      <c r="EO1" s="92"/>
-      <c r="EP1" s="92"/>
-      <c r="EQ1" s="91"/>
-    </row>
-    <row r="2" spans="1:147" s="58" customFormat="1" ht="75.599999999999994" customHeight="1" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="64" t="s">
+      <c r="BF4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BG4" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BI4" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BK4" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="BL4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BM4" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BO4" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="BP4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BQ4" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="BR4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BS4" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BU4" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="BV4" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64" t="s">
+      <c r="BW4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="BX4" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="BY4" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="CA4" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="CB4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="CC4" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64" t="s">
+      <c r="CD4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="CE4" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="CF4" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="CG4" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CI4" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="CJ4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CK4" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="CL4" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="CM4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CN4" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="CO4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CP4" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="CQ4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CR4" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="CS4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CT4" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="CU4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CV4" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="CW4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CX4" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="CY4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="CZ4" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="DA4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DB4" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="DC4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DD4" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="DE4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DF4" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="DG4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DH4" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ2" s="65"/>
-      <c r="BK2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BR2" s="65"/>
-      <c r="BS2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BT2" s="65"/>
-      <c r="BU2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BV2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BW2" s="65"/>
-      <c r="BX2" s="65"/>
-      <c r="BY2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BZ2" s="65"/>
-      <c r="CA2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="CB2" s="65"/>
-      <c r="CC2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="CD2" s="65"/>
-      <c r="CE2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="CF2" s="65"/>
-      <c r="CG2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="CH2" s="64"/>
-      <c r="CI2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="CJ2" s="64"/>
-      <c r="CK2" s="64"/>
-      <c r="CL2" s="64"/>
-      <c r="CM2" s="64"/>
-      <c r="CN2" s="64"/>
-      <c r="CO2" s="64"/>
-      <c r="CP2" s="64"/>
-      <c r="CQ2" s="64"/>
-      <c r="CR2" s="64"/>
-      <c r="CS2" s="64"/>
-      <c r="CT2" s="64"/>
-      <c r="CU2" s="64"/>
-      <c r="CV2" s="64"/>
-      <c r="CW2" s="64"/>
-      <c r="CX2" s="64"/>
-      <c r="CY2" s="64"/>
-      <c r="CZ2" s="64"/>
-      <c r="DA2" s="64"/>
-      <c r="DB2" s="64"/>
-      <c r="DC2" s="64"/>
-      <c r="DD2" s="64"/>
-      <c r="DE2" s="64"/>
-      <c r="DF2" s="64"/>
-      <c r="DG2" s="64"/>
-      <c r="DH2" s="64"/>
-      <c r="DI2" s="64"/>
-      <c r="DJ2" s="64"/>
-      <c r="DK2" s="64"/>
-      <c r="DL2" s="64"/>
-      <c r="DM2" s="64"/>
-      <c r="DN2" s="64"/>
-      <c r="DO2" s="64"/>
-      <c r="DP2" s="64"/>
-      <c r="DQ2" s="64"/>
-      <c r="DR2" s="64"/>
-      <c r="DS2" s="64"/>
-      <c r="DT2" s="64"/>
-      <c r="DU2" s="64"/>
-      <c r="DV2" s="64"/>
-      <c r="DW2" s="64"/>
-      <c r="DX2" s="64"/>
-      <c r="DY2" s="64"/>
-      <c r="DZ2" s="64"/>
-      <c r="EA2" s="64"/>
-      <c r="EB2" s="64"/>
-      <c r="EC2" s="64"/>
-      <c r="ED2" s="64"/>
-      <c r="EE2" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="EF2" s="64"/>
-      <c r="EG2" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="EH2" s="64"/>
-      <c r="EI2" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="EJ2" s="64"/>
-      <c r="EK2" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="EL2" s="64"/>
-      <c r="EM2" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="EN2" s="64"/>
-      <c r="EO2" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="EP2" s="64"/>
-      <c r="EQ2" s="64"/>
-    </row>
-    <row r="3" spans="1:147" s="46" customFormat="1" ht="18" thickBot="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="79">
-        <v>0</v>
-      </c>
-      <c r="C3" s="80">
-        <v>0</v>
-      </c>
-      <c r="D3" s="80">
-        <v>0</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>412</v>
-      </c>
-      <c r="F3" s="80">
-        <v>0</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>477</v>
-      </c>
-      <c r="H3" s="66">
-        <v>1</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="J3" s="66">
-        <v>2</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="L3" s="66">
-        <v>2999</v>
-      </c>
-      <c r="M3" s="66">
-        <v>3</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="O3" s="66">
-        <v>3999</v>
-      </c>
-      <c r="P3" s="66">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="66" t="s">
-        <v>415</v>
-      </c>
-      <c r="R3" s="66">
-        <v>104</v>
-      </c>
-      <c r="S3" s="66" t="s">
-        <v>416</v>
-      </c>
-      <c r="T3" s="66">
-        <v>204</v>
-      </c>
-      <c r="U3" s="66" t="s">
-        <v>417</v>
-      </c>
-      <c r="V3" s="66">
+      <c r="DI4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DJ4" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="DK4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DL4" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DN4" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="DO4" s="72" t="s">
+        <v>318</v>
+      </c>
+      <c r="DP4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DQ4" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="DR4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DS4" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="W3" s="66" t="s">
-        <v>418</v>
-      </c>
-      <c r="X3" s="66">
-        <v>404</v>
-      </c>
-      <c r="Y3" s="66" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z3" s="66">
-        <v>4999</v>
-      </c>
-      <c r="AA3" s="66">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="66" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC3" s="66">
-        <v>105</v>
-      </c>
-      <c r="AD3" s="66" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE3" s="66">
-        <v>205</v>
-      </c>
-      <c r="AF3" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG3" s="66">
-        <v>305</v>
-      </c>
-      <c r="AH3" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI3" s="66">
-        <v>405</v>
-      </c>
-      <c r="AJ3" s="66" t="s">
-        <v>424</v>
-      </c>
-      <c r="AK3" s="66">
-        <v>5999</v>
-      </c>
-      <c r="AL3" s="66">
-        <v>6</v>
-      </c>
-      <c r="AM3" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="AN3" s="66">
-        <v>106</v>
-      </c>
-      <c r="AO3" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="AP3" s="66">
-        <v>206</v>
-      </c>
-      <c r="AQ3" s="66" t="s">
-        <v>427</v>
-      </c>
-      <c r="AR3" s="66">
-        <v>306</v>
-      </c>
-      <c r="AS3" s="66" t="s">
-        <v>428</v>
-      </c>
-      <c r="AT3" s="66">
-        <v>406</v>
-      </c>
-      <c r="AU3" s="66" t="s">
-        <v>429</v>
-      </c>
-      <c r="AV3" s="66">
-        <v>506</v>
-      </c>
-      <c r="AW3" s="66" t="s">
-        <v>430</v>
-      </c>
-      <c r="AX3" s="66">
-        <v>606</v>
-      </c>
-      <c r="AY3" s="66" t="s">
-        <v>431</v>
-      </c>
-      <c r="AZ3" s="66">
-        <v>6999</v>
-      </c>
-      <c r="BA3" s="66">
-        <v>8</v>
-      </c>
-      <c r="BB3" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="BC3" s="66">
-        <v>108</v>
-      </c>
-      <c r="BD3" s="66" t="s">
-        <v>433</v>
-      </c>
-      <c r="BE3" s="66">
-        <v>208</v>
-      </c>
-      <c r="BF3" s="66" t="s">
-        <v>434</v>
-      </c>
-      <c r="BG3" s="66">
-        <v>308</v>
-      </c>
-      <c r="BH3" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="BI3" s="66">
-        <v>408</v>
-      </c>
-      <c r="BJ3" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="BK3" s="66">
-        <v>508</v>
-      </c>
-      <c r="BL3" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="BM3" s="66">
-        <v>608</v>
-      </c>
-      <c r="BN3" s="66" t="s">
-        <v>438</v>
-      </c>
-      <c r="BO3" s="66">
-        <v>708</v>
-      </c>
-      <c r="BP3" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="BQ3" s="66">
-        <v>808</v>
-      </c>
-      <c r="BR3" s="66" t="s">
-        <v>440</v>
-      </c>
-      <c r="BS3" s="66">
-        <v>908</v>
-      </c>
-      <c r="BT3" s="66" t="s">
-        <v>441</v>
-      </c>
-      <c r="BU3" s="66">
-        <v>8999</v>
-      </c>
-      <c r="BV3" s="66">
-        <v>9</v>
-      </c>
-      <c r="BW3" s="66" t="s">
-        <v>442</v>
-      </c>
-      <c r="BX3" s="66">
-        <v>9999</v>
-      </c>
-      <c r="BY3" s="66">
-        <v>10</v>
-      </c>
-      <c r="BZ3" s="66" t="s">
-        <v>443</v>
-      </c>
-      <c r="CA3" s="66">
-        <v>110</v>
-      </c>
-      <c r="CB3" s="66" t="s">
-        <v>444</v>
-      </c>
-      <c r="CC3" s="66">
-        <v>210</v>
-      </c>
-      <c r="CD3" s="66" t="s">
-        <v>445</v>
-      </c>
-      <c r="CE3" s="66">
-        <v>310</v>
-      </c>
-      <c r="CF3" s="66" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG3" s="66">
-        <v>410</v>
-      </c>
-      <c r="CH3" s="66" t="s">
-        <v>447</v>
-      </c>
-      <c r="CI3" s="66">
-        <v>510</v>
-      </c>
-      <c r="CJ3" s="66" t="s">
-        <v>448</v>
-      </c>
-      <c r="CK3" s="66">
-        <v>10999</v>
-      </c>
-      <c r="CL3" s="66">
-        <v>11</v>
-      </c>
-      <c r="CM3" s="66" t="s">
-        <v>449</v>
-      </c>
-      <c r="CN3" s="66">
-        <v>111</v>
-      </c>
-      <c r="CO3" s="66" t="s">
-        <v>450</v>
-      </c>
-      <c r="CP3" s="66">
-        <v>211</v>
-      </c>
-      <c r="CQ3" s="66" t="s">
-        <v>451</v>
-      </c>
-      <c r="CR3" s="66">
-        <v>311</v>
-      </c>
-      <c r="CS3" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="CT3" s="66">
-        <v>411</v>
-      </c>
-      <c r="CU3" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="CV3" s="66">
-        <v>511</v>
-      </c>
-      <c r="CW3" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="CX3" s="66">
-        <v>611</v>
-      </c>
-      <c r="CY3" s="66" t="s">
-        <v>455</v>
-      </c>
-      <c r="CZ3" s="66">
-        <v>711</v>
-      </c>
-      <c r="DA3" s="66" t="s">
-        <v>456</v>
-      </c>
-      <c r="DB3" s="66">
-        <v>811</v>
-      </c>
-      <c r="DC3" s="66" t="s">
-        <v>457</v>
-      </c>
-      <c r="DD3" s="66">
-        <v>911</v>
-      </c>
-      <c r="DE3" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="DF3" s="66">
-        <v>1011</v>
-      </c>
-      <c r="DG3" s="66" t="s">
-        <v>459</v>
-      </c>
-      <c r="DH3" s="66">
-        <v>1111</v>
-      </c>
-      <c r="DI3" s="66" t="s">
-        <v>460</v>
-      </c>
-      <c r="DJ3" s="66">
-        <v>1211</v>
-      </c>
-      <c r="DK3" s="66" t="s">
-        <v>461</v>
-      </c>
-      <c r="DL3" s="66">
-        <v>1311</v>
-      </c>
-      <c r="DM3" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="DN3" s="66">
-        <v>11999</v>
-      </c>
-      <c r="DO3" s="66">
-        <v>12</v>
-      </c>
-      <c r="DP3" s="66" t="s">
-        <v>463</v>
-      </c>
-      <c r="DQ3" s="66">
-        <v>112</v>
-      </c>
-      <c r="DR3" s="66" t="s">
-        <v>464</v>
-      </c>
-      <c r="DS3" s="66">
-        <v>212</v>
-      </c>
-      <c r="DT3" s="66" t="s">
-        <v>465</v>
-      </c>
-      <c r="DU3" s="66">
-        <v>312</v>
-      </c>
-      <c r="DV3" s="66" t="s">
-        <v>466</v>
-      </c>
-      <c r="DW3" s="66">
-        <v>412</v>
-      </c>
-      <c r="DX3" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="DY3" s="66">
-        <v>512</v>
-      </c>
-      <c r="DZ3" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="EA3" s="66">
-        <v>12999</v>
-      </c>
-      <c r="EB3" s="66">
-        <v>13</v>
-      </c>
-      <c r="EC3" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="ED3" s="66">
-        <v>13999</v>
-      </c>
-      <c r="EE3" s="66">
-        <v>14</v>
-      </c>
-      <c r="EF3" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="EG3" s="66">
-        <v>114</v>
-      </c>
-      <c r="EH3" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="EI3" s="66">
-        <v>214</v>
-      </c>
-      <c r="EJ3" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="EK3" s="66">
-        <v>314</v>
-      </c>
-      <c r="EL3" s="66" t="s">
-        <v>473</v>
-      </c>
-      <c r="EM3" s="66">
-        <v>414</v>
-      </c>
-      <c r="EN3" s="66" t="s">
+      <c r="DT4" s="72" t="s">
         <v>474</v>
       </c>
-      <c r="EO3" s="66">
-        <v>514</v>
-      </c>
-      <c r="EP3" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="EQ3" s="66">
-        <v>14999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:147" s="45" customFormat="1" ht="42" thickBot="1">
-      <c r="A4" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>476</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>476</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="O4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="P4" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" s="72" t="s">
-        <v>476</v>
-      </c>
-      <c r="R4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="S4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="T4" s="68" t="s">
-        <v>484</v>
-      </c>
-      <c r="U4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="V4" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="W4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="X4" s="68" t="s">
+      <c r="DU4" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="DV4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DW4" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="Y4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA4" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AE4" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AG4" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AI4" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AK4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL4" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AN4" s="68" t="s">
-        <v>279</v>
-      </c>
-      <c r="AO4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AP4" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AR4" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="AS4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AT4" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="AU4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AV4" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="AW4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AX4" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="AY4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AZ4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA4" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="BB4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BC4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BE4" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="BF4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BG4" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="BH4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BI4" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="BJ4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BK4" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="BL4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BM4" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="BN4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BO4" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="BP4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BQ4" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="BR4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BS4" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BU4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="BV4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BX4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="BY4" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="BZ4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="CA4" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="CB4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="CC4" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="CD4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="CE4" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="CF4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="CG4" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="CH4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CI4" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CK4" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="CL4" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="CM4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CN4" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="CO4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CP4" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="CQ4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CR4" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="CS4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CT4" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="CU4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CV4" s="73" t="s">
-        <v>317</v>
-      </c>
-      <c r="CW4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CX4" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="CY4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CZ4" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="DA4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DB4" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="DC4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DD4" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="DE4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DF4" s="73" t="s">
-        <v>310</v>
-      </c>
-      <c r="DG4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DH4" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="DI4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DJ4" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="DK4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DL4" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="DM4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DN4" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="DO4" s="73" t="s">
+      <c r="DX4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="DY4" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="DZ4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="EA4" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="EB4" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="DP4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DQ4" s="73" t="s">
+      <c r="EC4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="ED4" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="EE4" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="DR4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DS4" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="DT4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DU4" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="DV4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DW4" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="DX4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DY4" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="DZ4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EA4" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="EB4" s="73" t="s">
+      <c r="EF4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="EG4" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="EC4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="ED4" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="EE4" s="73" t="s">
+      <c r="EH4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="EI4" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="EF4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EG4" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="EH4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EI4" s="73" t="s">
-        <v>325</v>
-      </c>
-      <c r="EJ4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EK4" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EM4" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="EN4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EO4" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="EP4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EQ4" s="73" t="s">
-        <v>287</v>
+      <c r="EJ4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="EK4" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="EL4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="EM4" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="EN4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="EO4" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="EP4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="EQ4" s="72" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:147" ht="31.8" customHeight="1" thickBot="1">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="B5" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75">
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74">
         <v>2</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="74"/>
-      <c r="BH5" s="74"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="74"/>
-      <c r="BN5" s="74"/>
-      <c r="BO5" s="74"/>
-      <c r="BP5" s="74"/>
-      <c r="BQ5" s="74"/>
-      <c r="BR5" s="74"/>
-      <c r="BS5" s="74"/>
-      <c r="BT5" s="74"/>
-      <c r="BU5" s="74"/>
-      <c r="BV5" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="BW5" s="74"/>
-      <c r="BX5" s="74"/>
-      <c r="BY5" s="75">
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AP5" s="73"/>
+      <c r="AQ5" s="73"/>
+      <c r="AR5" s="73"/>
+      <c r="AS5" s="73"/>
+      <c r="AT5" s="73"/>
+      <c r="AU5" s="73"/>
+      <c r="AV5" s="73"/>
+      <c r="AW5" s="73"/>
+      <c r="AX5" s="73"/>
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="73"/>
+      <c r="BA5" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="73"/>
+      <c r="BD5" s="73"/>
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="73"/>
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="73"/>
+      <c r="BJ5" s="73"/>
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="73"/>
+      <c r="BM5" s="73"/>
+      <c r="BN5" s="73"/>
+      <c r="BO5" s="73"/>
+      <c r="BP5" s="73"/>
+      <c r="BQ5" s="73"/>
+      <c r="BR5" s="73"/>
+      <c r="BS5" s="73"/>
+      <c r="BT5" s="73"/>
+      <c r="BU5" s="73"/>
+      <c r="BV5" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="BW5" s="73"/>
+      <c r="BX5" s="73"/>
+      <c r="BY5" s="74">
         <v>2</v>
       </c>
-      <c r="BZ5" s="74"/>
-      <c r="CA5" s="74"/>
-      <c r="CB5" s="74"/>
-      <c r="CC5" s="74"/>
-      <c r="CD5" s="74"/>
-      <c r="CE5" s="74"/>
-      <c r="CF5" s="74"/>
-      <c r="CG5" s="74"/>
-      <c r="CH5" s="74"/>
-      <c r="CI5" s="74"/>
-      <c r="CJ5" s="74"/>
-      <c r="CK5" s="74"/>
-      <c r="CL5" s="75">
+      <c r="BZ5" s="73"/>
+      <c r="CA5" s="73"/>
+      <c r="CB5" s="73"/>
+      <c r="CC5" s="73"/>
+      <c r="CD5" s="73"/>
+      <c r="CE5" s="73"/>
+      <c r="CF5" s="73"/>
+      <c r="CG5" s="73"/>
+      <c r="CH5" s="73"/>
+      <c r="CI5" s="73"/>
+      <c r="CJ5" s="73"/>
+      <c r="CK5" s="73"/>
+      <c r="CL5" s="74">
         <v>2</v>
       </c>
-      <c r="CM5" s="74"/>
-      <c r="CN5" s="74"/>
-      <c r="CO5" s="74"/>
-      <c r="CP5" s="74"/>
-      <c r="CQ5" s="74"/>
-      <c r="CR5" s="74"/>
-      <c r="CS5" s="74"/>
-      <c r="CT5" s="74"/>
-      <c r="CU5" s="74"/>
-      <c r="CV5" s="74"/>
-      <c r="CW5" s="74"/>
-      <c r="CX5" s="74"/>
-      <c r="CY5" s="74"/>
-      <c r="CZ5" s="74"/>
-      <c r="DA5" s="74"/>
-      <c r="DB5" s="74"/>
-      <c r="DC5" s="74"/>
-      <c r="DD5" s="74"/>
-      <c r="DE5" s="74"/>
-      <c r="DF5" s="74"/>
-      <c r="DG5" s="74"/>
-      <c r="DH5" s="74"/>
-      <c r="DI5" s="74"/>
-      <c r="DJ5" s="74"/>
-      <c r="DK5" s="74"/>
-      <c r="DL5" s="74"/>
-      <c r="DM5" s="74"/>
-      <c r="DN5" s="74"/>
-      <c r="DO5" s="75">
+      <c r="CM5" s="73"/>
+      <c r="CN5" s="73"/>
+      <c r="CO5" s="73"/>
+      <c r="CP5" s="73"/>
+      <c r="CQ5" s="73"/>
+      <c r="CR5" s="73"/>
+      <c r="CS5" s="73"/>
+      <c r="CT5" s="73"/>
+      <c r="CU5" s="73"/>
+      <c r="CV5" s="73"/>
+      <c r="CW5" s="73"/>
+      <c r="CX5" s="73"/>
+      <c r="CY5" s="73"/>
+      <c r="CZ5" s="73"/>
+      <c r="DA5" s="73"/>
+      <c r="DB5" s="73"/>
+      <c r="DC5" s="73"/>
+      <c r="DD5" s="73"/>
+      <c r="DE5" s="73"/>
+      <c r="DF5" s="73"/>
+      <c r="DG5" s="73"/>
+      <c r="DH5" s="73"/>
+      <c r="DI5" s="73"/>
+      <c r="DJ5" s="73"/>
+      <c r="DK5" s="73"/>
+      <c r="DL5" s="73"/>
+      <c r="DM5" s="73"/>
+      <c r="DN5" s="73"/>
+      <c r="DO5" s="74">
         <v>2</v>
       </c>
-      <c r="DP5" s="74"/>
-      <c r="DQ5" s="74"/>
-      <c r="DR5" s="74"/>
-      <c r="DS5" s="74"/>
-      <c r="DT5" s="74"/>
-      <c r="DU5" s="74"/>
-      <c r="DV5" s="74"/>
-      <c r="DW5" s="74"/>
-      <c r="DX5" s="74"/>
-      <c r="DY5" s="74"/>
-      <c r="DZ5" s="74"/>
-      <c r="EA5" s="74"/>
-      <c r="EB5" s="75">
+      <c r="DP5" s="73"/>
+      <c r="DQ5" s="73"/>
+      <c r="DR5" s="73"/>
+      <c r="DS5" s="73"/>
+      <c r="DT5" s="73"/>
+      <c r="DU5" s="73"/>
+      <c r="DV5" s="73"/>
+      <c r="DW5" s="73"/>
+      <c r="DX5" s="73"/>
+      <c r="DY5" s="73"/>
+      <c r="DZ5" s="73"/>
+      <c r="EA5" s="73"/>
+      <c r="EB5" s="74">
         <v>2</v>
       </c>
-      <c r="EC5" s="74"/>
-      <c r="ED5" s="74"/>
-      <c r="EE5" s="75" t="s">
-        <v>491</v>
-      </c>
-      <c r="EF5" s="74"/>
-      <c r="EG5" s="74"/>
-      <c r="EH5" s="74"/>
-      <c r="EI5" s="74"/>
-      <c r="EJ5" s="74"/>
-      <c r="EK5" s="74"/>
-      <c r="EL5" s="74"/>
-      <c r="EM5" s="74"/>
-      <c r="EN5" s="74"/>
-      <c r="EO5" s="74"/>
-      <c r="EP5" s="74"/>
-      <c r="EQ5" s="74"/>
+      <c r="EC5" s="73"/>
+      <c r="ED5" s="73"/>
+      <c r="EE5" s="74" t="s">
+        <v>489</v>
+      </c>
+      <c r="EF5" s="73"/>
+      <c r="EG5" s="73"/>
+      <c r="EH5" s="73"/>
+      <c r="EI5" s="73"/>
+      <c r="EJ5" s="73"/>
+      <c r="EK5" s="73"/>
+      <c r="EL5" s="73"/>
+      <c r="EM5" s="73"/>
+      <c r="EN5" s="73"/>
+      <c r="EO5" s="73"/>
+      <c r="EP5" s="73"/>
+      <c r="EQ5" s="73"/>
     </row>
     <row r="6" spans="1:147">
-      <c r="J6" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="L6" s="56"/>
-      <c r="P6" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R6" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="S6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="T6" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="W6" s="56"/>
-      <c r="AA6" s="55" t="s">
+      <c r="J6" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="P6" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="S6" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="T6" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="W6" s="55"/>
+      <c r="AA6" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC6" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD6" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE6" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL6" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="AC6" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="AD6" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE6" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL6" s="55" t="s">
+      <c r="AN6" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP6" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR6" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AT6" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="AN6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="AP6" s="55" t="s">
+      <c r="AV6" s="54" t="s">
         <v>486</v>
       </c>
-      <c r="AR6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="AT6" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV6" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="AW6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="AX6" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="BA6" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="BD6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE6" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG6" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM6" s="55" t="s">
-        <v>500</v>
-      </c>
-      <c r="BN6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BO6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="BP6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ6" s="55" t="s">
+      <c r="AW6" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="AX6" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="BS6" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="BX6" s="55" t="s">
-        <v>510</v>
+      <c r="BA6" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC6" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="BD6" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE6" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG6" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM6" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="BN6" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BO6" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="BP6" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ6" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS6" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV6" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="BX6" s="54" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:147">
-      <c r="J7" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="P7" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R7" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="S7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="T7" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA7" s="55" t="s">
+      <c r="J7" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="S7" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="T7" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA7" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC7" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD7" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE7" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL7" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="AC7" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD7" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE7" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL7" s="55" t="s">
+      <c r="AN7" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP7" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR7" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="AT7" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="AN7" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="AP7" s="55" t="s">
+      <c r="AV7" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="AX7" s="54" t="s">
+        <v>492</v>
+      </c>
+      <c r="BA7" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC7" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="BD7" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE7" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG7" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM7" s="54" t="s">
         <v>486</v>
       </c>
-      <c r="AR7" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="AT7" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV7" s="55" t="s">
+      <c r="BN7" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BO7" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="BP7" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ7" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="AX7" s="55" t="s">
-        <v>494</v>
-      </c>
-      <c r="BA7" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC7" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="BD7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE7" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG7" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM7" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="BN7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BO7" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="BP7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ7" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS7" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV7" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="BX7" s="55" t="s">
-        <v>510</v>
+      <c r="BS7" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV7" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="BX7" s="54" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:147">
-      <c r="J8" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="P8" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R8" s="55" t="s">
-        <v>482</v>
-      </c>
-      <c r="S8" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="T8" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA8" s="55" t="s">
+      <c r="K8" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="R8" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="S8" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="T8" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA8" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC8" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD8" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE8" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL8" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="AC8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="AD8" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE8" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL8" s="55" t="s">
+      <c r="AN8" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="AP8" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR8" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="AT8" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="AN8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="AP8" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="AT8" s="55" t="s">
+      <c r="AV8" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW8" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="AX8" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA8" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC8" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="BD8" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE8" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG8" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM8" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="AV8" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="AW8" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="AX8" s="55" t="s">
-        <v>495</v>
-      </c>
-      <c r="BA8" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="BD8" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE8" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG8" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM8" s="55" t="s">
+      <c r="BO8" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="BP8" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ8" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="BO8" s="55" t="s">
-        <v>506</v>
-      </c>
-      <c r="BP8" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ8" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS8" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="BX8" s="55" t="s">
-        <v>510</v>
+      <c r="BS8" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV8" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="BX8" s="54" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:147">
-      <c r="J9" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="P9" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="S9" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="T9" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA9" s="55" t="s">
+      <c r="J9" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="R9" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="S9" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="T9" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA9" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC9" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD9" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE9" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL9" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="AC9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="AD9" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE9" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL9" s="55" t="s">
+      <c r="AN9" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="AP9" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR9" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT9" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="AN9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="AP9" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="AT9" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV9" s="55" t="s">
-        <v>490</v>
-      </c>
-      <c r="AW9" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="AX9" s="55" t="s">
-        <v>496</v>
-      </c>
-      <c r="BA9" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC9" s="55" t="s">
-        <v>509</v>
-      </c>
-      <c r="BD9" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE9" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG9" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM9" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="BO9" s="55" t="s">
+      <c r="AV9" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="AW9" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX9" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="BA9" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC9" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="BD9" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE9" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG9" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM9" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="BO9" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="BP9" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ9" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS9" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="BU9" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="BV9" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="BX9" s="54" t="s">
         <v>508</v>
-      </c>
-      <c r="BP9" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ9" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS9" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BU9" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="BV9" s="55" t="s">
-        <v>509</v>
-      </c>
-      <c r="BX9" s="55" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:147">
-      <c r="J10" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="P10" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R10" s="55" t="s">
+      <c r="J10" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="T10" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA10" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="T10" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA10" s="55" t="s">
+      <c r="AC10" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE10" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL10" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="AC10" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE10" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL10" s="55" t="s">
+      <c r="AN10" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP10" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR10" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="AT10" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="AN10" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="AP10" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR10" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="AT10" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV10" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="AX10" s="55" t="s">
-        <v>497</v>
-      </c>
-      <c r="BA10" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC10" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="BE10" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG10" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM10" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="BO10" s="55" t="s">
-        <v>507</v>
-      </c>
-      <c r="BQ10" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS10" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV10" s="55" t="s">
-        <v>501</v>
+      <c r="AV10" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="AX10" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="BA10" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC10" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="BE10" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG10" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM10" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="BO10" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="BQ10" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS10" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV10" s="54" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:147">
-      <c r="J11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="P11" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="T11" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA11" s="55" t="s">
+      <c r="J11" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="T11" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA11" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC11" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE11" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL11" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="AC11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE11" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL11" s="55" t="s">
+      <c r="AN11" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP11" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR11" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT11" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="AN11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="AP11" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="AT11" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV11" s="55" t="s">
-        <v>492</v>
-      </c>
-      <c r="AX11" s="55" t="s">
-        <v>498</v>
-      </c>
-      <c r="BA11" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="BE11" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG11" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM11" s="55" t="s">
-        <v>503</v>
-      </c>
-      <c r="BO11" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="BQ11" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS11" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV11" s="55" t="s">
+      <c r="AV11" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX11" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="BA11" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC11" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="BE11" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG11" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM11" s="54" t="s">
         <v>501</v>
+      </c>
+      <c r="BO11" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="BQ11" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS11" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV11" s="54" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
